--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -13,6 +13,8 @@
     <sheet state="visible" name="GDPR_DPIA_properties" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="GDPR_compliance" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="GDPR_entities" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="GDPR_entities_properties" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="GDPR_Justifications" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="652">
   <si>
     <t>Term</t>
   </si>
@@ -220,784 +222,787 @@
     <t>eu-gdpr:A6-1-d,dpv:VitalInterestOfDataSubject</t>
   </si>
   <si>
+    <t>A6-1-d-natural-person</t>
+  </si>
+  <si>
+    <t>Art 6(1-d) protect vital interests of natural person</t>
+  </si>
+  <si>
+    <t>Legal basis based on protecting the vital interests of another natural person that is not the data subject</t>
+  </si>
+  <si>
+    <t>eu-gdpr:A6-1-d,dpv:VitalInterestOfNaturalPerson</t>
+  </si>
+  <si>
+    <t>A6-1-e</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) public interest or official authority</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a task carried out in the public interest or in the exercise of official authority vested in the controller</t>
+  </si>
+  <si>
+    <t>dpv:PublicInterest,dpv:OfficialAuthorityOfController</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1e,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_e/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-e-public-interest</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) public interest</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a task carried out in the public interest</t>
+  </si>
+  <si>
+    <t>eu-gdpr:A6-1-e,dpv:PublicInterest</t>
+  </si>
+  <si>
+    <t>A6-1-e-official-authority</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) official authority</t>
+  </si>
+  <si>
+    <t>Legal basis based on the exercise of official authority vested in the controller</t>
+  </si>
+  <si>
+    <t>eu-gdpr:A6-1-e,dpv:OfficialAuthorityOfController</t>
+  </si>
+  <si>
+    <t>A6-1-f</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller or by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>dpv:LegitimateInterest</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_f/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-f-controller</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest of controller</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>eu-gdpr:A6-1-f,dpv:LegitimateInterestOfController</t>
+  </si>
+  <si>
+    <t>A6-1-f-third-party</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest of third party</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>eu-gdpr:A6-1-f,dpv:LegitimateInterestOfThirdParty</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>(TBD: pending clarity)</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>A9-2-a</t>
+  </si>
+  <si>
+    <t>Art 9(2-a) explicit consent</t>
+  </si>
+  <si>
+    <t>explicit consent with special categories of data</t>
+  </si>
+  <si>
+    <t>dpv:ExplicitlyExpressedConsent</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_a/oj)</t>
+  </si>
+  <si>
+    <t>Eva Schlehahn, Bud Bruegger</t>
+  </si>
+  <si>
+    <t>A9-2-b</t>
+  </si>
+  <si>
+    <t>Art 9(2-b) employment, social security, social protection law</t>
+  </si>
+  <si>
+    <t>employment and social security and social protection law</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-c</t>
+  </si>
+  <si>
+    <t>Art 9(2-c) protect vital interest</t>
+  </si>
+  <si>
+    <t>protection of the vital interests</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_c/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-d</t>
+  </si>
+  <si>
+    <t>Art 9(2-d) legitimate activities</t>
+  </si>
+  <si>
+    <t>legitimate activities with appropriate safeguards by a foundation, association or any other not-for-profit body with a political, philosophical, religious or trade union aim and on condition that the processing relates solely to the members or to former members of the body or to persons who have regular contact with it in connection with its purposes and that the personal data are not disclosed outside that body without the consent of the data subjects;</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2d,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_d/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-e</t>
+  </si>
+  <si>
+    <t>Art 9(2-e) data made public</t>
+  </si>
+  <si>
+    <t>data manifestly made public by the data subject</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2e,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_e/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-f</t>
+  </si>
+  <si>
+    <t>Art 9(2-f) judicial process</t>
+  </si>
+  <si>
+    <t>establishment, exercise or defence of legal claims / courts acting in their judicial capacity</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_f/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-g</t>
+  </si>
+  <si>
+    <t>Art 9(2-g) public interest</t>
+  </si>
+  <si>
+    <t>substantial public interest, on the basis of Union or Member State law</t>
+  </si>
+  <si>
+    <t>dpv:PublicInterest</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2g,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_g/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-h</t>
+  </si>
+  <si>
+    <t>Art 9(2-h) health &amp; medicine</t>
+  </si>
+  <si>
+    <t>preventive or occupational medicine, for the assessment of the working capacity of the employee, medical diagnosis, the provision of health or social care or treatment or the management of health or social care systems and services on the basis of Union or Member State law or pursuant to contract with a health professional and subject to the conditions and safeguards referred to in paragraph 3</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2h,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_h/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-i</t>
+  </si>
+  <si>
+    <t>Art 9(2-i) public interest in public health</t>
+  </si>
+  <si>
+    <t>public interest in public health</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2i,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_i/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-j</t>
+  </si>
+  <si>
+    <t>Art 9(2-j) public interest, scientific research, statistical purpose</t>
+  </si>
+  <si>
+    <t>public interest, scientific or historical research purposes or statistical purposes based on Union or Member State law</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2j,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_j/oj)</t>
+  </si>
+  <si>
+    <t>A45-3</t>
+  </si>
+  <si>
+    <t>Art 45(3) adequacy decision</t>
+  </si>
+  <si>
+    <t>Personal data can flow freely from the EU to a third country with an Adequacy Decision without any further safeguard being necessary.</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has Adequacy Decision.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.45-3,https://eur-lex.europa.eu/eli/reg/2016/679/art_45/par_3/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201104</t>
+  </si>
+  <si>
+    <t>A46-2-a</t>
+  </si>
+  <si>
+    <t>Art 46(2-a) legal instrument</t>
+  </si>
+  <si>
+    <t>A legally binding and enforceable instrument between public authorities or bodies</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Third country has appropriate safeguards. Transfer does not require specific authorisation from a Supervisor Authority.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_a/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201105</t>
+  </si>
+  <si>
+    <t>A46-2-b</t>
+  </si>
+  <si>
+    <t>Art 46(2-b) Binding Corporate Rules (BCR)</t>
+  </si>
+  <si>
+    <t>Binding corporate rules</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,eu-gdpr:BindingCorporateRules</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201106</t>
+  </si>
+  <si>
+    <t>A46-2-c</t>
+  </si>
+  <si>
+    <t>Art 46(2-c) Standard Contractual Clauses (SCC) by EC</t>
+  </si>
+  <si>
+    <t>Standard data protection clauses adopted by the Commission</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,eu-gdpr:SCCByCommission</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_c/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201107</t>
+  </si>
+  <si>
+    <t>A46-2-d</t>
+  </si>
+  <si>
+    <t>Art 46(2-d) Standard Contractual Clauses (SCC) by DPA</t>
+  </si>
+  <si>
+    <t>Standard data protection clauses adopted by a Supervisory Authority</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,eu-gdpr:SCCBySupervisoryAuthority</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Third country has appropriate safeguards. Transfer does not require specific authorisation from a Supervisor Authority</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2d,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_d/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201108</t>
+  </si>
+  <si>
+    <t>A46-2-e</t>
+  </si>
+  <si>
+    <t>Art 46(2-e) code of conduct</t>
+  </si>
+  <si>
+    <t>An approved code of conduct pursuant to GDPR Article 40 together with binding and enforceable commitments of the controller or processor in the third country to apply the appropriate safeguards, including as regards individuals´ rights</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2e,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_e/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201109</t>
+  </si>
+  <si>
+    <t>A46-2-f</t>
+  </si>
+  <si>
+    <t>Art 46(2-f) certification</t>
+  </si>
+  <si>
+    <t>An approved certification mechanism pursuant to GDPR Article 42 together with binding and enforceable commitments of the controller or processor in the third country to appy the appropriate safeguards, including as regards individuals` rights</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_f/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201110</t>
+  </si>
+  <si>
+    <t>A46-3-a</t>
+  </si>
+  <si>
+    <t>Art 46(3-a) contractual clauses</t>
+  </si>
+  <si>
+    <t>Contractual clauses with controller, processor or recipient of the personal data in the third country or the international organisation.</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards exist. Transfer does requires specific authorisation from a Supervisor Authority.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-3a,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_3/pnt_a/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201111</t>
+  </si>
+  <si>
+    <t>A46-3-b</t>
+  </si>
+  <si>
+    <t>Art 46(3-b) administrative arrangements</t>
+  </si>
+  <si>
+    <t>Provisions to be inserted into administrative arrangements between public authorities or bodies which include enforceable and effective data subject rights</t>
+  </si>
+  <si>
+    <t>(GDPR Art.46-3b,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_3/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201112</t>
+  </si>
+  <si>
+    <t>A49-1-a</t>
+  </si>
+  <si>
+    <t>Art 49(1-a) explicit consent</t>
+  </si>
+  <si>
+    <t>The data subject has explicitly consented to the proposed transfer, after having been informed of the possible risks of such transfers for the data subject due to the absence of an adequacy decision and appropriate safeguards.</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv:ExplicitlyExpressedConsent</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards do not exist.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_a/oj)</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>A49-1-b</t>
+  </si>
+  <si>
+    <t>Art 49(1-b) performance of contract</t>
+  </si>
+  <si>
+    <t>The transfer is necessary for the performance of a contract between the data subject and controller or the implementation of pre-contractual measures taken at the data subject´s request.</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv:Contract</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-1b,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201114</t>
+  </si>
+  <si>
+    <t>A49-1-c</t>
+  </si>
+  <si>
+    <t>Art 49(1-c) conclusion of contract</t>
+  </si>
+  <si>
+    <t>The transfer is necessary for the conclusion or performance of a contract concluded in the interest of the data subject and controller and another natural or legal person.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-1c,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_c/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201115</t>
+  </si>
+  <si>
+    <t>A49-1-d</t>
+  </si>
+  <si>
+    <t>Art 49(1-d) public interest</t>
+  </si>
+  <si>
+    <t>The transfer is necessary for important reasons of public interest.</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv:PublicInterest</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-1d,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_d/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201116</t>
+  </si>
+  <si>
+    <t>A49-1-e</t>
+  </si>
+  <si>
+    <t>Art 49(1-e) legal claims</t>
+  </si>
+  <si>
+    <t>The transfer is necessary for the establishment, exercise or defence of legal claims.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-1e,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_e/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201117</t>
+  </si>
+  <si>
+    <t>A49-1-f</t>
+  </si>
+  <si>
+    <t>Art 49(1-f) protect vital interests</t>
+  </si>
+  <si>
+    <t>The transfer is necessary in order to protect the vital interests of the data subject or of other persons, where the person is physically or legally incapable of giving consent.</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv:VitalInterestOfNaturalPerson</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_f/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201118</t>
+  </si>
+  <si>
+    <t>A49-1-g</t>
+  </si>
+  <si>
+    <t>Art 49(1-g) public register</t>
+  </si>
+  <si>
+    <t>The transfer is made from a register which according to Union or Member State law is intended to provide information to the public in general or by any person who can demonstrate a legitimate interest, but only to the extent that the conditions laid down by Union or Member State law for consultation are fulfilled in the particular case.</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has not Adequacy Decision. Appropriate safeguards do not exist.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-1g,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_g/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201119</t>
+  </si>
+  <si>
+    <t>A49-2</t>
+  </si>
+  <si>
+    <t>Art 49(2) legitimate interests</t>
+  </si>
+  <si>
+    <t>The transfer is not repetetive, concerns only a limited number of data subjects, is necessary for the purposes of compelling legitimate interests pursued by controller which are not overridden by the interests or rights and freedoms of the data subject, and controller has assessed all the circumstances surrounding the data transfer and have on the basis of that assessment provided suitable safeguards with regard to the protection of personal data.</t>
+  </si>
+  <si>
+    <t>dpv:DataTransferLegalBasis,dpv:LegitimateInterest</t>
+  </si>
+  <si>
+    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards do not exist and no other options apply.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.49-2,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_2/oj)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201120</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A13 Right to be Informed</t>
+  </si>
+  <si>
+    <t>information to be provided where personal data is directly collected from data subject</t>
+  </si>
+  <si>
+    <t>dpv:DataSubjectRight</t>
+  </si>
+  <si>
+    <t>dpv:Right</t>
+  </si>
+  <si>
+    <t>(GDPR Art.13,https://eur-lex.europa.eu/eli/reg/2016/679/art_13/oj)</t>
+  </si>
+  <si>
+    <t>Beatriz Esteves, Georg Krog, Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A14 Right to be Informed</t>
+  </si>
+  <si>
+    <t>information to be provided where personal data is collected from other sources</t>
+  </si>
+  <si>
+    <t>(GDPR Art.14,https://eur-lex.europa.eu/eli/reg/2016/679/art_14/oj)</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A15 Right of Access</t>
+  </si>
+  <si>
+    <t>Right of access</t>
+  </si>
+  <si>
+    <t>(GDPR Art.15,https://eur-lex.europa.eu/eli/reg/2016/679/art_15/oj)</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A16 Right to Rectification</t>
+  </si>
+  <si>
+    <t>Right to rectification</t>
+  </si>
+  <si>
+    <t>GDPR Art.16,https://eur-lex.europa.eu/eli/reg/2016/679/art_16/oj)</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A17 Right to Erasure</t>
+  </si>
+  <si>
+    <t>Right to erasure ('Right to be forgotten')</t>
+  </si>
+  <si>
+    <t>GDPR Art.17,https://eur-lex.europa.eu/eli/reg/2016/679/art_17/oj)</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A18 Right to Restrict Processing</t>
+  </si>
+  <si>
+    <t>Right to restriction of processing</t>
+  </si>
+  <si>
+    <t>GDPR Art.18,https://eur-lex.europa.eu/eli/reg/2016/679/art_18/oj)</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A19 Right to Rectification Notification</t>
+  </si>
+  <si>
+    <t>Right to be notified in case of rectification or erasure of personal data or restriction of processing</t>
+  </si>
+  <si>
+    <t>(GDPR Art.19,https://eur-lex.europa.eu/eli/reg/2016/679/art_19/oj)</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A20 Right to Data Portability</t>
+  </si>
+  <si>
+    <t>Right to data portability</t>
+  </si>
+  <si>
+    <t>GDPR Art.20,https://eur-lex.europa.eu/eli/reg/2016/679/art_20/oj)</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A21 Right to object</t>
+  </si>
+  <si>
+    <t>Right to object to processing of personal data</t>
+  </si>
+  <si>
+    <t>(GDPR Art.21,https://eur-lex.europa.eu/eli/reg/2016/679/art_21/oj)</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A22 Right to object to automated decision making</t>
+  </si>
+  <si>
+    <t>Right not to be subject to a decision based solely on automated processing including profiling</t>
+  </si>
+  <si>
+    <t>(GDPR Art.22,https://eur-lex.europa.eu/eli/reg/2016/679/art_22/oj)</t>
+  </si>
+  <si>
+    <t>A7-3</t>
+  </si>
+  <si>
+    <t>A7-3 Right to Withdraw Consent</t>
+  </si>
+  <si>
+    <t>Right to withdraw consent at any time</t>
+  </si>
+  <si>
+    <t>(GDPR Art.7-3,https://eur-lex.europa.eu/eli/reg/2016/679/art_7/par_3/oj)</t>
+  </si>
+  <si>
+    <t>A77</t>
+  </si>
+  <si>
+    <t>A77 Right to Complaint</t>
+  </si>
+  <si>
+    <t>Right to lodge a complaint with a supervisory authority</t>
+  </si>
+  <si>
+    <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
+  </si>
+  <si>
+    <t>Exercising Rights</t>
+  </si>
+  <si>
+    <t>DirectDataCollectionNotice</t>
+  </si>
+  <si>
+    <t>Direct Data Collection Notice</t>
+  </si>
+  <si>
+    <t>A Notice provided in fulfilment of GDPR's Art.13 regarding information to be provided where personal data are collected from the data subject</t>
+  </si>
+  <si>
+    <t>dpv:RightFulfilmentNotice</t>
+  </si>
+  <si>
+    <t>dpv:OrganisationalMeasure</t>
+  </si>
+  <si>
+    <t>IndirectDataCollectionNotice</t>
+  </si>
+  <si>
+    <t>Indirect Data Collection Notice</t>
+  </si>
+  <si>
+    <t>A Notice provided in fulfilment of GDPR's Art.14 regarding information to be provided where personal data are not collected from the data subject</t>
+  </si>
+  <si>
+    <t>SARNotice</t>
+  </si>
+  <si>
+    <t>SAR Notice</t>
+  </si>
+  <si>
+    <t>A Notice provided in fulfilment of GDPR's Art.15 regarding information to be provided for Right of Access or Subject Access Request (SAR)</t>
+  </si>
+  <si>
+    <t>A.16 Rectification</t>
+  </si>
+  <si>
+    <t>Input: PersonalData (IncorrectData) + PersonalData (VerifiedData)</t>
+  </si>
+  <si>
+    <t>A.17 Erasure</t>
+  </si>
+  <si>
+    <t>Input: PersonalData</t>
+  </si>
+  <si>
+    <t>A.18 Restriction of Processing</t>
+  </si>
+  <si>
+    <t>Input: PersonalDataHandling</t>
+  </si>
+  <si>
+    <t>RightsRecipientsNotice</t>
+  </si>
+  <si>
+    <t>Rights Recipients Notice</t>
+  </si>
+  <si>
+    <t>A Notice provided in fulfilment of GDPR's Art.19 regarding Recipients to whom a rights exercise has been communicated, such as regarding rectification (A.16) or erasure of personal data (A.17) or restriction of processing (A.18)</t>
+  </si>
+  <si>
+    <t>dcat:Resource</t>
+  </si>
+  <si>
+    <t>A dataset or catalogue or any other resource provided in fulfilment of a Right Exercise, such as for GDPR's Art.15 regarding Right of Access or Art.20 regarding Right to Data Portability. The associated properties from DCAT and DCMI DCT vocabularies provide convenient means to express metadata such as URL for accessing the data, its temporal validity and acecss restrictions, and specific datasets present along with their schemas.</t>
+  </si>
+  <si>
+    <t>A.21 Object to Processing</t>
+  </si>
+  <si>
+    <t>Input: PersonalDataHandling + isImplementedUsingTechnology</t>
+  </si>
+  <si>
+    <t>A.22 Automated Decision Making</t>
+  </si>
+  <si>
+    <t>A.7-3 Withdraw Consent</t>
+  </si>
+  <si>
+    <t>Input: ConsentRecord</t>
+  </si>
+  <si>
+    <t>A.77 Right to Complaint</t>
+  </si>
+  <si>
+    <t>TODO in the future</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>A6-1-d-natual-person</t>
-  </si>
-  <si>
-    <t>Art 6(1-d) protect vital interests of natural person</t>
-  </si>
-  <si>
-    <t>Legal basis based on protecting the vital interests of another natural person that is not the data subject</t>
-  </si>
-  <si>
-    <t>eu-gdpr:A6-1-d,dpv:VitalInterestOfNaturalPerson</t>
-  </si>
-  <si>
-    <t>A6-1-e</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) public interest or official authority</t>
-  </si>
-  <si>
-    <t>Legal basis based on performance of a task carried out in the public interest or in the exercise of official authority vested in the controller</t>
-  </si>
-  <si>
-    <t>dpv:PublicInterest,dpv:OfficialAuthorityOfController</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1e,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_e/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-e-public-interest</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) public interest</t>
-  </si>
-  <si>
-    <t>Legal basis based on performance of a task carried out in the public interest</t>
-  </si>
-  <si>
-    <t>eu-gdpr:A6-1-e,dpv:PublicInterest</t>
-  </si>
-  <si>
-    <t>A6-1-e-official-authority</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) official authority</t>
-  </si>
-  <si>
-    <t>Legal basis based on the exercise of official authority vested in the controller</t>
-  </si>
-  <si>
-    <t>eu-gdpr:A6-1-e,dpv:OfficialAuthorityOfController</t>
-  </si>
-  <si>
-    <t>A6-1-f</t>
-  </si>
-  <si>
-    <t>Art 6(1-f) legitimate interest</t>
-  </si>
-  <si>
-    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller or by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
-  </si>
-  <si>
-    <t>dpv:LegitimateInterest</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_f/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-f-controller</t>
-  </si>
-  <si>
-    <t>Art 6(1-f) legitimate interest of controller</t>
-  </si>
-  <si>
-    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
-  </si>
-  <si>
-    <t>eu-gdpr:A6-1-f,dpv:LegitimateInterestOfController</t>
-  </si>
-  <si>
-    <t>A6-1-f-third-party</t>
-  </si>
-  <si>
-    <t>Art 6(1-f) legitimate interest of third party</t>
-  </si>
-  <si>
-    <t>Legal basis based on the purposes of the legitimate interests pursued by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
-  </si>
-  <si>
-    <t>eu-gdpr:A6-1-f,dpv:LegitimateInterestOfThirdParty</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>(TBD: pending clarity)</t>
-  </si>
-  <si>
-    <t>proposed</t>
-  </si>
-  <si>
-    <t>A9-2-a</t>
-  </si>
-  <si>
-    <t>Art 9(2-a) explicit consent</t>
-  </si>
-  <si>
-    <t>explicit consent with special categories of data</t>
-  </si>
-  <si>
-    <t>dpv:ExplicitlyExpressedConsent</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>Eva Schlehahn, Bud Bruegger</t>
-  </si>
-  <si>
-    <t>A9-2-b</t>
-  </si>
-  <si>
-    <t>Art 9(2-b) employment, social security, social protection law</t>
-  </si>
-  <si>
-    <t>employment and social security and social protection law</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-c</t>
-  </si>
-  <si>
-    <t>Art 9(2-c) protect vital interest</t>
-  </si>
-  <si>
-    <t>protection of the vital interests</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_c/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-d</t>
-  </si>
-  <si>
-    <t>Art 9(2-d) legitimate activities</t>
-  </si>
-  <si>
-    <t>legitimate activities with appropriate safeguards by a foundation, association or any other not-for-profit body with a political, philosophical, religious or trade union aim and on condition that the processing relates solely to the members or to former members of the body or to persons who have regular contact with it in connection with its purposes and that the personal data are not disclosed outside that body without the consent of the data subjects;</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2d,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_d/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-e</t>
-  </si>
-  <si>
-    <t>Art 9(2-e) data made public</t>
-  </si>
-  <si>
-    <t>data manifestly made public by the data subject</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2e,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_e/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-f</t>
-  </si>
-  <si>
-    <t>Art 9(2-f) judicial process</t>
-  </si>
-  <si>
-    <t>establishment, exercise or defence of legal claims / courts acting in their judicial capacity</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_f/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-g</t>
-  </si>
-  <si>
-    <t>Art 9(2-g) public interest</t>
-  </si>
-  <si>
-    <t>substantial public interest, on the basis of Union or Member State law</t>
-  </si>
-  <si>
-    <t>dpv:PublicInterest</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2g,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_g/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-h</t>
-  </si>
-  <si>
-    <t>Art 9(2-h) health &amp; medicine</t>
-  </si>
-  <si>
-    <t>preventive or occupational medicine, for the assessment of the working capacity of the employee, medical diagnosis, the provision of health or social care or treatment or the management of health or social care systems and services on the basis of Union or Member State law or pursuant to contract with a health professional and subject to the conditions and safeguards referred to in paragraph 3</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2h,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_h/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-i</t>
-  </si>
-  <si>
-    <t>Art 9(2-i) public interest in public health</t>
-  </si>
-  <si>
-    <t>public interest in public health</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2i,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_i/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-j</t>
-  </si>
-  <si>
-    <t>Art 9(2-j) public interest, scientific research, statistical purpose</t>
-  </si>
-  <si>
-    <t>public interest, scientific or historical research purposes or statistical purposes based on Union or Member State law</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2j,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_j/oj)</t>
-  </si>
-  <si>
-    <t>A45-3</t>
-  </si>
-  <si>
-    <t>Art 45(3) adequacy decision</t>
-  </si>
-  <si>
-    <t>Personal data can flow freely from the EU to a third country with an Adequacy Decision without any further safeguard being necessary.</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has Adequacy Decision.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.45-3,https://eur-lex.europa.eu/eli/reg/2016/679/art_45/par_3/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201104</t>
-  </si>
-  <si>
-    <t>A46-2-a</t>
-  </si>
-  <si>
-    <t>Art 46(2-a) legal instrument</t>
-  </si>
-  <si>
-    <t>A legally binding and enforceable instrument between public authorities or bodies</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Third country has appropriate safeguards. Transfer does not require specific authorisation from a Supervisor Authority.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201105</t>
-  </si>
-  <si>
-    <t>A46-2-b</t>
-  </si>
-  <si>
-    <t>Art 46(2-b) Binding Corporate Rules (BCR)</t>
-  </si>
-  <si>
-    <t>Binding corporate rules</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,eu-gdpr:BindingCorporateRules</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201106</t>
-  </si>
-  <si>
-    <t>A46-2-c</t>
-  </si>
-  <si>
-    <t>Art 46(2-c) Standard Contractual Clauses (SCC) by EC</t>
-  </si>
-  <si>
-    <t>Standard data protection clauses adopted by the Commission</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,eu-gdpr:SCCByCommission</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_c/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201107</t>
-  </si>
-  <si>
-    <t>A46-2-d</t>
-  </si>
-  <si>
-    <t>Art 46(2-d) Standard Contractual Clauses (SCC) by DPA</t>
-  </si>
-  <si>
-    <t>Standard data protection clauses adopted by a Supervisory Authority</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,eu-gdpr:SCCBySupervisoryAuthority</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Third country has appropriate safeguards. Transfer does not require specific authorisation from a Supervisor Authority</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2d,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_d/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201108</t>
-  </si>
-  <si>
-    <t>A46-2-e</t>
-  </si>
-  <si>
-    <t>Art 46(2-e) code of conduct</t>
-  </si>
-  <si>
-    <t>An approved code of conduct pursuant to GDPR Article 40 together with binding and enforceable commitments of the controller or processor in the third country to apply the appropriate safeguards, including as regards individuals´ rights</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2e,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_e/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201109</t>
-  </si>
-  <si>
-    <t>A46-2-f</t>
-  </si>
-  <si>
-    <t>Art 46(2-f) certification</t>
-  </si>
-  <si>
-    <t>An approved certification mechanism pursuant to GDPR Article 42 together with binding and enforceable commitments of the controller or processor in the third country to appy the appropriate safeguards, including as regards individuals` rights</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_f/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201110</t>
-  </si>
-  <si>
-    <t>A46-3-a</t>
-  </si>
-  <si>
-    <t>Art 46(3-a) contractual clauses</t>
-  </si>
-  <si>
-    <t>Contractual clauses with controller, processor or recipient of the personal data in the third country or the international organisation.</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards exist. Transfer does requires specific authorisation from a Supervisor Authority.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-3a,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_3/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201111</t>
-  </si>
-  <si>
-    <t>A46-3-b</t>
-  </si>
-  <si>
-    <t>Art 46(3-b) administrative arrangements</t>
-  </si>
-  <si>
-    <t>Provisions to be inserted into administrative arrangements between public authorities or bodies which include enforceable and effective data subject rights</t>
-  </si>
-  <si>
-    <t>(GDPR Art.46-3b,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_3/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201112</t>
-  </si>
-  <si>
-    <t>A49-1-a</t>
-  </si>
-  <si>
-    <t>Art 49(1-a) explicit consent</t>
-  </si>
-  <si>
-    <t>The data subject has explicitly consented to the proposed transfer, after having been informed of the possible risks of such transfers for the data subject due to the absence of an adequacy decision and appropriate safeguards.</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv:ExplicitlyExpressedConsent</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards do not exist.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>A49-1-b</t>
-  </si>
-  <si>
-    <t>Art 49(1-b) performance of contract</t>
-  </si>
-  <si>
-    <t>The transfer is necessary for the performance of a contract between the data subject and controller or the implementation of pre-contractual measures taken at the data subject´s request.</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv:Contract</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-1b,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201114</t>
-  </si>
-  <si>
-    <t>A49-1-c</t>
-  </si>
-  <si>
-    <t>Art 49(1-c) conclusion of contract</t>
-  </si>
-  <si>
-    <t>The transfer is necessary for the conclusion or performance of a contract concluded in the interest of the data subject and controller and another natural or legal person.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-1c,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_c/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201115</t>
-  </si>
-  <si>
-    <t>A49-1-d</t>
-  </si>
-  <si>
-    <t>Art 49(1-d) public interest</t>
-  </si>
-  <si>
-    <t>The transfer is necessary for important reasons of public interest.</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv:PublicInterest</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-1d,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_d/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201116</t>
-  </si>
-  <si>
-    <t>A49-1-e</t>
-  </si>
-  <si>
-    <t>Art 49(1-e) legal claims</t>
-  </si>
-  <si>
-    <t>The transfer is necessary for the establishment, exercise or defence of legal claims.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-1e,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_e/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201117</t>
-  </si>
-  <si>
-    <t>A49-1-f</t>
-  </si>
-  <si>
-    <t>Art 49(1-f) protect vital interests</t>
-  </si>
-  <si>
-    <t>The transfer is necessary in order to protect the vital interests of the data subject or of other persons, where the person is physically or legally incapable of giving consent.</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv:VitalInterestOfNaturalPerson</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_f/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201118</t>
-  </si>
-  <si>
-    <t>A49-1-g</t>
-  </si>
-  <si>
-    <t>Art 49(1-g) public register</t>
-  </si>
-  <si>
-    <t>The transfer is made from a register which according to Union or Member State law is intended to provide information to the public in general or by any person who can demonstrate a legitimate interest, but only to the extent that the conditions laid down by Union or Member State law for consultation are fulfilled in the particular case.</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has not Adequacy Decision. Appropriate safeguards do not exist.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-1g,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_g/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201119</t>
-  </si>
-  <si>
-    <t>A49-2</t>
-  </si>
-  <si>
-    <t>Art 49(2) legitimate interests</t>
-  </si>
-  <si>
-    <t>The transfer is not repetetive, concerns only a limited number of data subjects, is necessary for the purposes of compelling legitimate interests pursued by controller which are not overridden by the interests or rights and freedoms of the data subject, and controller has assessed all the circumstances surrounding the data transfer and have on the basis of that assessment provided suitable safeguards with regard to the protection of personal data.</t>
-  </si>
-  <si>
-    <t>dpv:DataTransferLegalBasis,dpv:LegitimateInterest</t>
-  </si>
-  <si>
-    <t>Transfer from EU to a third country. Third country has no Adequacy Decision. Appropriate safeguards do not exist and no other options apply.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.49-2,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_2/oj)</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201120</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A13 Right to be Informed</t>
-  </si>
-  <si>
-    <t>information to be provided where personal data is directly collected from data subject</t>
-  </si>
-  <si>
-    <t>dpv:DataSubjectRight</t>
-  </si>
-  <si>
-    <t>dpv:Right</t>
-  </si>
-  <si>
-    <t>(GDPR Art.13,https://eur-lex.europa.eu/eli/reg/2016/679/art_13/oj)</t>
-  </si>
-  <si>
-    <t>Beatriz Esteves, Georg Krog, Harshvardhan J. Pandit</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A14 Right to be Informed</t>
-  </si>
-  <si>
-    <t>information to be provided where personal data is collected from other sources</t>
-  </si>
-  <si>
-    <t>(GDPR Art.14,https://eur-lex.europa.eu/eli/reg/2016/679/art_14/oj)</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A15 Right of Access</t>
-  </si>
-  <si>
-    <t>Right of access</t>
-  </si>
-  <si>
-    <t>(GDPR Art.15,https://eur-lex.europa.eu/eli/reg/2016/679/art_15/oj)</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A16 Right to Rectification</t>
-  </si>
-  <si>
-    <t>Right to rectification</t>
-  </si>
-  <si>
-    <t>GDPR Art.16,https://eur-lex.europa.eu/eli/reg/2016/679/art_16/oj)</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A17 Right to Erasure</t>
-  </si>
-  <si>
-    <t>Right to erasure ('Right to be forgotten')</t>
-  </si>
-  <si>
-    <t>GDPR Art.17,https://eur-lex.europa.eu/eli/reg/2016/679/art_17/oj)</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A18 Right to Restrict Processing</t>
-  </si>
-  <si>
-    <t>Right to restriction of processing</t>
-  </si>
-  <si>
-    <t>GDPR Art.18,https://eur-lex.europa.eu/eli/reg/2016/679/art_18/oj)</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A19 Right to Rectification</t>
-  </si>
-  <si>
-    <t>Right to be notified in case of rectification or erasure of personal data or restriction of processing</t>
-  </si>
-  <si>
-    <t>(GDPR Art.19,https://eur-lex.europa.eu/eli/reg/2016/679/art_19/oj)</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A20 Right to Data Portability</t>
-  </si>
-  <si>
-    <t>Right to data portability</t>
-  </si>
-  <si>
-    <t>GDPR Art.20,https://eur-lex.europa.eu/eli/reg/2016/679/art_20/oj)</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A21 Right to object</t>
-  </si>
-  <si>
-    <t>Right to object to processing of personal data</t>
-  </si>
-  <si>
-    <t>(GDPR Art.21,https://eur-lex.europa.eu/eli/reg/2016/679/art_21/oj)</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A22 Right to object to automated decision making</t>
-  </si>
-  <si>
-    <t>Right not to be subject to a decision based solely on automated processing including profiling</t>
-  </si>
-  <si>
-    <t>(GDPR Art.22,https://eur-lex.europa.eu/eli/reg/2016/679/art_22/oj)</t>
-  </si>
-  <si>
-    <t>A7-3</t>
-  </si>
-  <si>
-    <t>A7-3 Right to Withdraw Consent</t>
-  </si>
-  <si>
-    <t>Right to withdraw consent at any time</t>
-  </si>
-  <si>
-    <t>(GDPR Art.7-3,https://eur-lex.europa.eu/eli/reg/2016/679/art_7/par_3/oj)</t>
-  </si>
-  <si>
-    <t>A77</t>
-  </si>
-  <si>
-    <t>A77 Right to Complaint</t>
-  </si>
-  <si>
-    <t>Right to lodge a complaint with a supervisory authority</t>
-  </si>
-  <si>
-    <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
-  </si>
-  <si>
-    <t>Exercising Rights</t>
-  </si>
-  <si>
-    <t>DirectDataCollectionNotice</t>
-  </si>
-  <si>
-    <t>Direct Data Collection Notice</t>
-  </si>
-  <si>
-    <t>A Notice provided in fulfilment of GDPR's Art.13 regarding information to be provided where personal data are collected from the data subject</t>
-  </si>
-  <si>
-    <t>dpv:RightFulfilmentNotice</t>
-  </si>
-  <si>
-    <t>dpv:OrganisationalMeasure</t>
-  </si>
-  <si>
-    <t>IndirectDataCollectionNotice</t>
-  </si>
-  <si>
-    <t>Indirect Data Collection Notice</t>
-  </si>
-  <si>
-    <t>A Notice provided in fulfilment of GDPR's Art.14 regarding information to be provided where personal data are not collected from the data subject</t>
-  </si>
-  <si>
-    <t>SARNotice</t>
-  </si>
-  <si>
-    <t>SAR Notice</t>
-  </si>
-  <si>
-    <t>A Notice provided in fulfilment of GDPR's Art.15 regarding information to be provided for Right of Access or Subject Access Request (SAR)</t>
-  </si>
-  <si>
-    <t>A.16 Rectification</t>
-  </si>
-  <si>
-    <t>Input: PersonalData (IncorrectData) + PersonalData (VerifiedData)</t>
-  </si>
-  <si>
-    <t>A.17 Erasure</t>
-  </si>
-  <si>
-    <t>Input: PersonalData</t>
-  </si>
-  <si>
-    <t>A.18 Restriction of Processing</t>
-  </si>
-  <si>
-    <t>Input: PersonalDataHandling</t>
-  </si>
-  <si>
-    <t>RightsRecipientsNotice</t>
-  </si>
-  <si>
-    <t>Rights Recipients Notice</t>
-  </si>
-  <si>
-    <t>A Notice provided in fulfilment of GDPR's Art.19 regarding Recipients to whom a rights exercise has been communicated, such as regarding rectification (A.16) or erasure of personal data (A.17) or restriction of processing (A.18)</t>
-  </si>
-  <si>
-    <t>dcat:Resource</t>
-  </si>
-  <si>
-    <t>A dataset or catalogue or any other resource provided in fulfilment of a Right Exercise, such as for GDPR's Art.15 regarding Right of Access or Art.20 regarding Right to Data Portability. The associated properties from DCAT and DCMI DCT vocabularies provide convenient means to express metadata such as URL for accessing the data, its temporal validity and acecss restrictions, and specific datasets present along with their schemas.</t>
-  </si>
-  <si>
-    <t>A.21 Object to Processing</t>
-  </si>
-  <si>
-    <t>Input: PersonalDataHandling + isImplementedUsingTechnology</t>
-  </si>
-  <si>
-    <t>A.22 Automated Decision Making</t>
-  </si>
-  <si>
-    <t>A.7-3 Withdraw Consent</t>
-  </si>
-  <si>
-    <t>Input: ConsentRecord</t>
-  </si>
-  <si>
-    <t>A.77 Right to Complaint</t>
-  </si>
-  <si>
-    <t>TODO in the future</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>AdHocContractualClauses</t>
@@ -1621,25 +1626,473 @@
     <t>LeadSupervisoryAuthority</t>
   </si>
   <si>
+    <t>Lead Supervisory Authority</t>
+  </si>
+  <si>
+    <t>Authority with the primary responsibility for dealing with a cross-border data processing activity</t>
+  </si>
+  <si>
     <t>dpv:DataProtectionAuthority</t>
   </si>
   <si>
+    <t>GDPR Art.56, Guidelines 3/2018 on the territorial scope of the GDPR (Article 3) Version 2.1</t>
+  </si>
+  <si>
     <t>ConcernedSupervisoryAuthority</t>
   </si>
   <si>
+    <t>Concerned Supervisory Authority</t>
+  </si>
+  <si>
+    <t>Authority with other than lead supervisory authority who is involved in dealing with a cross-border data processing activity</t>
+  </si>
+  <si>
     <t>LocalSupervisoryAuthority</t>
   </si>
   <si>
+    <t>Local Supervisory Authority</t>
+  </si>
+  <si>
+    <t>Authority associated with the main or local establishment of an organisation</t>
+  </si>
+  <si>
     <t>Establishments</t>
   </si>
   <si>
     <t>Establishment</t>
   </si>
   <si>
-    <t>dpv:Entity</t>
+    <t>Establishment is a Legal Entity which implies the effective and real exercise of activities through stable arrangements (with a presumed parent or primary establishment)</t>
+  </si>
+  <si>
+    <t>dpv:Organisation</t>
+  </si>
+  <si>
+    <t>GDPR Recital 22, GDPR Art.56, Guidelines 3/2018 on the territorial scope of the GDPR (Article 3) Version 2.1</t>
   </si>
   <si>
     <t>MainEstablishment</t>
+  </si>
+  <si>
+    <t>Main Establishment</t>
+  </si>
+  <si>
+    <t>A Main Establishment is the place of central administration in the Union unless the decisions on the purposes and means of the processing of personal data are taken in another establishment in the Union and the latter establishment has the power to have such decisions implemented, in which case the establishment having taken such decisions is to be considered to be the main establishment</t>
+  </si>
+  <si>
+    <t>eu-gdpr:Establishment</t>
+  </si>
+  <si>
+    <t>GDPR Art.4-16, GDPR Art.56, Guidelines 3/2018 on the territorial scope of the GDPR (Article 3) Version 2.1</t>
+  </si>
+  <si>
+    <t>SingleEstablishment</t>
+  </si>
+  <si>
+    <t>Single Establishment</t>
+  </si>
+  <si>
+    <t>A legal entity that is established in only one Member State</t>
+  </si>
+  <si>
+    <t>GDPR Art.23</t>
+  </si>
+  <si>
+    <t>hasEstablishment</t>
+  </si>
+  <si>
+    <t>has establishment</t>
+  </si>
+  <si>
+    <t>Indicates an establishment associated with a legal entity</t>
+  </si>
+  <si>
+    <t>dpv:LegalEntity</t>
+  </si>
+  <si>
+    <t>dpv:hasEntity</t>
+  </si>
+  <si>
+    <t>hasMainEstablishment</t>
+  </si>
+  <si>
+    <t>has main establishment</t>
+  </si>
+  <si>
+    <t>Indicates the legal entity has specified establishment as its main establishment</t>
+  </si>
+  <si>
+    <t>isMainEstablishmentFor</t>
+  </si>
+  <si>
+    <t>is main establishment for</t>
+  </si>
+  <si>
+    <t>Indicates the main establishment for specific legal entity</t>
+  </si>
+  <si>
+    <t>hasLeadSA</t>
+  </si>
+  <si>
+    <t>has lead supervisory authority</t>
+  </si>
+  <si>
+    <t>Indicates the lead supervisory authority</t>
+  </si>
+  <si>
+    <t>dpv:Concept</t>
+  </si>
+  <si>
+    <t>hasConcernedSA</t>
+  </si>
+  <si>
+    <t>has concerned supervisory authority</t>
+  </si>
+  <si>
+    <t>Indicates a concerned supervisory authority</t>
+  </si>
+  <si>
+    <t>hasLocalSA</t>
+  </si>
+  <si>
+    <t>has local supervisory authority</t>
+  </si>
+  <si>
+    <t>Indicates the local supervisory authority</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Types of Justifications</t>
+  </si>
+  <si>
+    <t>These go in Justifications extension?</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>A reason or explanation for specified context</t>
+  </si>
+  <si>
+    <t>RejectionJustification</t>
+  </si>
+  <si>
+    <t>Non-Performance Justification</t>
+  </si>
+  <si>
+    <t>Justification for why the associated process or context was rejected or was decided to not be completed</t>
+  </si>
+  <si>
+    <t>ExerciseJustification</t>
+  </si>
+  <si>
+    <t>Exercise Justification</t>
+  </si>
+  <si>
+    <t>Justification for why the associated process or context is being exercised or initiated</t>
+  </si>
+  <si>
+    <t>DelayJustification</t>
+  </si>
+  <si>
+    <t>Delay Justification</t>
+  </si>
+  <si>
+    <t>Justification for why the associated process or context is being delayed</t>
+  </si>
+  <si>
+    <t>Rights Justifications</t>
+  </si>
+  <si>
+    <t>These go in Rights extension?</t>
+  </si>
+  <si>
+    <t>RightNonFulfilmentJustification</t>
+  </si>
+  <si>
+    <t>Right Non-fulfilment Justification</t>
+  </si>
+  <si>
+    <t>Justification for why the associated right could not be fulfilled or was not successfully exercised</t>
+  </si>
+  <si>
+    <t>RightExerciseJustification</t>
+  </si>
+  <si>
+    <t>Right Exercise Justification</t>
+  </si>
+  <si>
+    <t>Justification for why the associated right is being exercised or initiated</t>
+  </si>
+  <si>
+    <t>RightFulfilmentDelayJustification</t>
+  </si>
+  <si>
+    <t>Right Fulfilment Delay Justification</t>
+  </si>
+  <si>
+    <t>Justification for why the associated right fulfilment is being delayed</t>
+  </si>
+  <si>
+    <t>Rights NonFulfilment</t>
+  </si>
+  <si>
+    <t>Generic ones go in Justifications, and then the GDPR ones are defined with clauses to indicate "legal concept"?</t>
+  </si>
+  <si>
+    <t>RejectEntityAlreadyInformed</t>
+  </si>
+  <si>
+    <t>Rejection due to Entity Informed</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because the entity already has the information</t>
+  </si>
+  <si>
+    <t>GDPR Art. 13.4, 14.5.a</t>
+  </si>
+  <si>
+    <t>RejectDisproportionateEffortRequired</t>
+  </si>
+  <si>
+    <t>Rejection due to Disproportionate Effort Required</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it requires a disproportionate effort</t>
+  </si>
+  <si>
+    <t>GDPR Art. 14.5.b</t>
+  </si>
+  <si>
+    <t>RejectImpossibleToFulfil</t>
+  </si>
+  <si>
+    <t>Rejection due to Impossible to fulfil</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it is impossible to fulfill</t>
+  </si>
+  <si>
+    <t>RejectImpairObjectives</t>
+  </si>
+  <si>
+    <t>Rejection due to Impair Objectives</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it impairs the objectives of associated context</t>
+  </si>
+  <si>
+    <t>RejectLegallyExempted</t>
+  </si>
+  <si>
+    <t>Rejection due to Legally Exempted</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it falls under legal exemption i.e. a law allows the non-fulfilment</t>
+  </si>
+  <si>
+    <t>GDPR Art. 14.5.c</t>
+  </si>
+  <si>
+    <t>RejectConfidentialityObligation</t>
+  </si>
+  <si>
+    <t>Rejection due to Confidentiality Obligation</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it would compromise a confidentiality obligation</t>
+  </si>
+  <si>
+    <t>GDPR Art. 14.5.d</t>
+  </si>
+  <si>
+    <t>RejectProcessUnfounded</t>
+  </si>
+  <si>
+    <t>Rejection due to Process is Unfounded</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it was found to be based on manifestly unfounded reasons</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>GDPR Art. 12.5,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://ico.org.uk/for-organisations/uk-gdpr-guidance-and-resources/individual-rights/right-of-access/when-can-we-refuse-to-comply-with-a-request/#refuse2</t>
+    </r>
+  </si>
+  <si>
+    <t>RejectProcessExcessive</t>
+  </si>
+  <si>
+    <t>Rejection due to Process is Excessive</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it was found to be excessive in nature</t>
+  </si>
+  <si>
+    <t>GDPR Art. 12.5,https://ico.org.uk/for-organisations/uk-gdpr-guidance-and-resources/individual-rights/right-of-access/when-can-we-refuse-to-comply-with-a-request/#refuse3</t>
+  </si>
+  <si>
+    <t>RejectProcessFrivolous</t>
+  </si>
+  <si>
+    <t>Rejection due to Process is Frivolous</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it was found to be based on frivolous reasons</t>
+  </si>
+  <si>
+    <t>GDPR Art. 12.5,https://ico.org.uk/for-organisations/uk-gdpr-guidance-and-resources/individual-rights/right-of-access/when-can-we-refuse-to-comply-with-a-request/#refuse4</t>
+  </si>
+  <si>
+    <t>RejectProcessMalicious</t>
+  </si>
+  <si>
+    <t>Rejection due to Process is Malicious</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because it was found to be malicious e.g. with intent to cause disruption or harassment</t>
+  </si>
+  <si>
+    <t>GDPR Art. 12.5,https://ico.org.uk/for-organisations/uk-gdpr-guidance-and-resources/individual-rights/right-of-access/when-can-we-refuse-to-comply-with-a-request/#refuse5</t>
+  </si>
+  <si>
+    <t>RejectIdentityVerificationFailure</t>
+  </si>
+  <si>
+    <t>Rejection due to Identity Verification Failure</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because identity verification failed</t>
+  </si>
+  <si>
+    <t>GDPR Art. 12.2</t>
+  </si>
+  <si>
+    <t>Right Fulfilment Delayed</t>
+  </si>
+  <si>
+    <t>DelayIdentityVerification</t>
+  </si>
+  <si>
+    <t>Delay due to Identity Verified</t>
+  </si>
+  <si>
+    <t>Justification that the process could not be fulfilled or was not successfull because identiy verification is required</t>
+  </si>
+  <si>
+    <t>GDPR Art. 12.1,GDPR Art. 12.6</t>
+  </si>
+  <si>
+    <t>DelayComplexity</t>
+  </si>
+  <si>
+    <t>Delay due to Complexity</t>
+  </si>
+  <si>
+    <t>Justification that the process is delayed due to complexity in fulfilling it</t>
+  </si>
+  <si>
+    <t>GDPR Art. 12.3</t>
+  </si>
+  <si>
+    <t>DelayHighVolume</t>
+  </si>
+  <si>
+    <t>Delay due to High Volume</t>
+  </si>
+  <si>
+    <t>Justification that the process is delayed due to high volume of similar processes required to be fulfilled</t>
+  </si>
+  <si>
+    <t>DelayInformationRequirement</t>
+  </si>
+  <si>
+    <t>Delay due to Information Requirement</t>
+  </si>
+  <si>
+    <t>Justification that the process is delayed due to additional information being required</t>
+  </si>
+  <si>
+    <t>GDPR Art. 12.6</t>
+  </si>
+  <si>
+    <t>Right Exercise</t>
+  </si>
+  <si>
+    <t>ExerciseNonNecessity</t>
+  </si>
+  <si>
+    <t>Exercise due to Non-Necessity</t>
+  </si>
+  <si>
+    <t>Justification that the process should be carried out due to non-necessity of specified context</t>
+  </si>
+  <si>
+    <t>ExerciseJustfication</t>
+  </si>
+  <si>
+    <t>GDPR Art. 17.1</t>
+  </si>
+  <si>
+    <t>ExerciseLackOfFurtherLegality</t>
+  </si>
+  <si>
+    <t>Exercise due to Lack of Further Legality</t>
+  </si>
+  <si>
+    <t>Justification that the process should be carried out due to lack of further legality of legal basis to justify continuation of specified context</t>
+  </si>
+  <si>
+    <t>GDPR Art. 17.2</t>
+  </si>
+  <si>
+    <t>ExerciseObjection</t>
+  </si>
+  <si>
+    <t>Exercise Objection</t>
+  </si>
+  <si>
+    <t>Justification that the process should be carried out due to specified objection(s)</t>
+  </si>
+  <si>
+    <t>GDPR Art. 17.3</t>
+  </si>
+  <si>
+    <t>ExerciseUnlawfulActivity</t>
+  </si>
+  <si>
+    <t>Exercise due to Unlawful Activity</t>
+  </si>
+  <si>
+    <t>Justification that the process should be carried out due to it being an unlawful activity</t>
+  </si>
+  <si>
+    <t>GDPR Art. 17.4</t>
+  </si>
+  <si>
+    <t>ExerciseLegalObligation</t>
+  </si>
+  <si>
+    <t>Exercise Legal Obligation</t>
+  </si>
+  <si>
+    <t>Justification that the process should be carried out due to it being a legal obligation</t>
+  </si>
+  <si>
+    <t>GDPR Art. 17.5, 17.6</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +2102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1775,6 +2228,17 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1852,7 +2316,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2041,6 +2505,21 @@
     <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2103,6 +2582,14 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2894,7 +3381,7 @@
         <v>44889.0</v>
       </c>
       <c r="L11" s="13">
-        <v>44889.0</v>
+        <v>45337.0</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>22</v>
@@ -3375,7 +3862,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -3384,25 +3871,35 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>502</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>499</v>
+        <v>383</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="K3" s="13"/>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="O3" s="47"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -3422,25 +3919,35 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+        <v>504</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>502</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>499</v>
+        <v>383</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="O4" s="47"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -3460,25 +3967,35 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+        <v>507</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>502</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>499</v>
+        <v>383</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="K5" s="13"/>
       <c r="L5" s="11"/>
       <c r="M5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="O5" s="47"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -3503,32 +4020,42 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K7" s="13"/>
       <c r="O7" s="47"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+        <v>511</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>513</v>
+      </c>
       <c r="E8" s="10" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="10" t="s">
+        <v>514</v>
+      </c>
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="O8" s="47"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -3548,25 +4075,35 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+        <v>515</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>518</v>
+      </c>
       <c r="E9" s="10" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="10" t="s">
+        <v>519</v>
+      </c>
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -3585,7 +4122,52 @@
       <c r="AD9" s="11"/>
     </row>
     <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10" t="s">
+        <v>523</v>
+      </c>
       <c r="K10" s="13"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
     </row>
     <row r="11">
       <c r="K11" s="13"/>
@@ -3616,6 +4198,4132 @@
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="22.5"/>
+    <col customWidth="1" min="3" max="3" width="34.88"/>
+    <col customWidth="1" min="4" max="4" width="12.13"/>
+    <col customWidth="1" min="5" max="5" width="11.0"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
+    <col customWidth="1" min="10" max="10" width="11.5"/>
+    <col customWidth="1" min="11" max="12" width="9.63"/>
+    <col customWidth="1" min="13" max="13" width="14.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="O5" s="47"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="51"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="51"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="38"/>
+      <c r="E10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="30"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="38"/>
+      <c r="K11" s="13"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12">
+      <c r="C12" s="51"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="51"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="51"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="51"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="51"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="38"/>
+      <c r="C20" s="51"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="51"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="38"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="51"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="36"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="36"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="36"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="36"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="36"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="36"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="36"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="36"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="36"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="36"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="36"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="36"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="36"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="36"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="36"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="36"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="36"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="36"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="36"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="36"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="36"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="36"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="36"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="36"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="36"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="36"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="36"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="36"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="36"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="36"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="36"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="36"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="36"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="36"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="36"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="36"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="36"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="36"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="36"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="36"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="36"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="36"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="36"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="36"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="36"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="36"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="36"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="36"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="36"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="36"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="36"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="36"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="36"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="36"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="36"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="36"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="36"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="36"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="36"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="36"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="36"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="36"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="36"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="36"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="36"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="36"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="36"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="36"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="36"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="36"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="36"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="36"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="36"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="36"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="36"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="36"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="36"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="36"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="36"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="36"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="36"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="36"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="36"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="36"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="36"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="36"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="36"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="36"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="36"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="36"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="36"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="36"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="36"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="36"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="36"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="36"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="36"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="36"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="36"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="36"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="36"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="36"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="36"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="36"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="36"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="36"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="36"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="36"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="36"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="36"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="36"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="36"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="36"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="36"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="36"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="36"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="36"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="36"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="36"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="36"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="36"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="36"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="36"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="36"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="36"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="36"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="36"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="36"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="36"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="36"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="36"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="36"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="36"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="36"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="36"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="36"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="36"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="36"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="36"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="36"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="36"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="36"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="36"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="36"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="36"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="36"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="36"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="36"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="36"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="36"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="36"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="36"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="36"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="36"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="36"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="36"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="36"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="36"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="36"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="36"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="36"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="36"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="36"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="36"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="36"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="36"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="36"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="36"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="36"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="36"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="36"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="36"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="36"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="36"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="36"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="36"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="36"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="36"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="36"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="36"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="36"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="36"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="36"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="36"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="36"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="36"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="36"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="36"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="36"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="36"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="36"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="36"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="36"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="36"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="36"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="36"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="36"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="36"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="36"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="36"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="36"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="36"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="36"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="36"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="36"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="36"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="36"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="36"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="36"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="36"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="36"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="36"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="36"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="36"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="36"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="36"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="36"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="36"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="36"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="36"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="36"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="36"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="36"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="36"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="36"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="36"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="36"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="36"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="36"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="36"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="36"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="36"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="36"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="36"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="36"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="36"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="36"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="36"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="36"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="36"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="36"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="36"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="36"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="36"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="36"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="36"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="36"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="36"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="36"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="36"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="36"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="36"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="36"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="36"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="36"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="36"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="36"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="36"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="36"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="36"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="36"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="36"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="36"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="36"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="36"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="36"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="36"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="36"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="36"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="36"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="36"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="36"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="36"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="36"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="36"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="36"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="36"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="36"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="36"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="36"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="36"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="36"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="36"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="36"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="36"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="36"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="36"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="36"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="36"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="36"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="36"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="36"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="36"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="36"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="36"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="36"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="36"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="36"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="36"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="36"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="36"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="36"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="36"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="36"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="36"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="36"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="36"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="36"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="36"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="36"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="36"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="36"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="36"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="36"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="36"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="36"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="36"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="36"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="36"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="36"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="36"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="36"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="36"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="36"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="36"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="36"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="36"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="36"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="36"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="36"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="36"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="36"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="36"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="36"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="36"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="36"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="36"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="36"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="36"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="36"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="36"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="36"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="36"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="36"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="36"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="36"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="36"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="36"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="36"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="36"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="36"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="36"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="36"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="36"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="36"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="36"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="36"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="36"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="36"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="36"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="36"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="36"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="36"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="36"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="36"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="36"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="36"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="36"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="36"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="36"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="36"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="36"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="36"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="36"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="36"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="36"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="36"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="36"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="36"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="36"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="36"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="36"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="36"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="36"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="36"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="36"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="36"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="36"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="36"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="36"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="36"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="36"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="36"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="36"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="36"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="36"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="36"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="36"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="36"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="36"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="36"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="36"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="36"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="36"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="36"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="36"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="36"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="36"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="36"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="36"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="36"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="36"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="36"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="36"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="36"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="36"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="36"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="36"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="36"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="36"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="36"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="36"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="36"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="36"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="36"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="36"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="36"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="36"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="36"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="36"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="36"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="36"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="36"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="36"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="36"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="36"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="36"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="36"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="36"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="36"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="36"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="36"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="36"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="36"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="36"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="36"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="36"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="36"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="36"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="36"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="36"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="36"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="36"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="36"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="36"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="36"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="36"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="36"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="36"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="36"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="36"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="36"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="36"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="36"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="36"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="36"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="36"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="36"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="36"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="36"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="36"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="36"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="36"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="36"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="36"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="36"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="36"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="36"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="36"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="36"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="36"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="36"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="36"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="36"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="36"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="36"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="36"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="36"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="36"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="36"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="36"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="36"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="36"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="36"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="36"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="36"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="36"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="36"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="36"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="36"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="36"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="36"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="36"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="36"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="36"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="36"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="36"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="36"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="36"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="36"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="36"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="36"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="36"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="36"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="36"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="36"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="36"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="36"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="36"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="36"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="36"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="36"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="36"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="36"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="36"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="36"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="36"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="36"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="36"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="36"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="36"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="36"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="36"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="36"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="36"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="36"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="36"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="36"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="36"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="36"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="36"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="36"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="36"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="36"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="36"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="36"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="36"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="36"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="36"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="36"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="36"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="36"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="36"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="36"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="36"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="36"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="36"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="36"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="36"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="36"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="36"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="36"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="36"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="36"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="36"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="36"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="36"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="36"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="36"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="36"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="36"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="36"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="36"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="36"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="36"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="36"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="36"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="36"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="36"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="36"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="36"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="36"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="36"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="36"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="36"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="36"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="36"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="36"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="36"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="36"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="36"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="36"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="36"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="36"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="36"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="36"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="36"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="36"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="36"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="36"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="36"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="36"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="36"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="36"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="36"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="36"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="36"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="36"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="36"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="36"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="36"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="36"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="36"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="36"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="36"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="36"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="36"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="36"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="36"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="36"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="36"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="36"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="36"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="36"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="36"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="36"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="36"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="36"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="36"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="36"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="36"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="36"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="36"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="36"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="36"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="36"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="36"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="36"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="36"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="36"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="36"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="36"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="36"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="36"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="36"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="36"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="36"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="36"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="36"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="36"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="36"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="36"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="36"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="36"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="36"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="36"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="36"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="36"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="36"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="36"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="36"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="36"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="36"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="36"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="36"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="36"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="36"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="36"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="36"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="36"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="36"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="36"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="36"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="36"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="36"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="36"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="36"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="36"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="36"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="36"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="36"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="36"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="36"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="36"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="36"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="36"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="36"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="36"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="36"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="36"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="36"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="36"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="36"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="36"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="36"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="36"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="36"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="36"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="36"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="36"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="36"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="36"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="36"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="36"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="36"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="36"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="36"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="36"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="36"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="36"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="36"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="36"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="36"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="36"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="36"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="36"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="36"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="36"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="36"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="36"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="36"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="36"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="36"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="36"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="36"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="36"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="36"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="36"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="36"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="36"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="36"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="36"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="36"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="36"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="36"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="36"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="36"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="36"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="36"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="36"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="36"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="36"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="36"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="36"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="36"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="36"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="36"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="36"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="36"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="36"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="36"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="36"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="36"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="36"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="36"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="36"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="36"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="36"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="36"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="36"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="36"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="36"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="36"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="36"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="36"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="36"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="36"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="36"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="36"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="36"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="36"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="36"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="36"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="36"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="36"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="36"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="36"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="36"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="36"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="36"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="36"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="36"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="36"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="36"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="36"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="36"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="36"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="36"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="36"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="36"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="36"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="36"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="36"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="36"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="36"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="36"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="36"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="36"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="36"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="36"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="36"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="36"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="36"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="36"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="36"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="36"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="36"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="36"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="36"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="36"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="36"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="36"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="36"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="36"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="36"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="36"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="36"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="36"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="36"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="36"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="36"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="36"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="36"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="36"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="36"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="36"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="36"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="36"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="36"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="36"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="36"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="36"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="36"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="36"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="36"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="36"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="36"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="36"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="36"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="36"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="36"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="36"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="36"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="36"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="36"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="36"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="36"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="36"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="36"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="36"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="36"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="36"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="36"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="36"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="36"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="36"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="36"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="36"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="36"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="36"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="36"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="36"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="36"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="36"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="36"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="36"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="36"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="36"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="36"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="36"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="36"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="36"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="36"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="36"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="36"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="36"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="36"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="36"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="36"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="36"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="36"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="36"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="36"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="36"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="36"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="36"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="36"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="36"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="36"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="36"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="36"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="36"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="36"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="36"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="36"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="36"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="36"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="36"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="36"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="36"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="36"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="36"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="36"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="36"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="36"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="36"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="36"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="36"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="36"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="36"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="36"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="36"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="36"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="36"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="36"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="36"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="36"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="36"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="36"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="36"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="36"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="36"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="36"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="36"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="36"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="36"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="36"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="36"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="36"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="36"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="36"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="36"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="36"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="36"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="36"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="36"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="36"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="36"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="36"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="36"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="36"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="36"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="36"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="36"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="36"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="36"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="36"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="36"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="36"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="36"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="36"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="36"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="36"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="36"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="36"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="36"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="36"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="36"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="36"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="36"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="36"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="36"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="36"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="36"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="36"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="36"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="36"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2:J7">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB27">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB27">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB27">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$M2="deprecated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.5"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+    <col customWidth="1" min="7" max="7" width="2.25"/>
+    <col customWidth="1" min="8" max="8" width="3.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="13"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="O5" s="47"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="K7" s="13"/>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="K8" s="13"/>
+      <c r="O8" s="47"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="O9" s="47"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="O10" s="47"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="O11" s="47"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="67" t="s">
+        <v>594</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="69" t="s">
+        <v>597</v>
+      </c>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="67" t="s">
+        <v>598</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>600</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>603</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>604</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AD53">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD53">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD53">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="refuse2" ref="J20"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5634,7 +10342,9 @@
       <c r="K8" s="32">
         <v>44139.0</v>
       </c>
-      <c r="L8" s="32"/>
+      <c r="L8" s="32">
+        <v>45396.0</v>
+      </c>
       <c r="M8" s="28" t="s">
         <v>22</v>
       </c>
@@ -9789,7 +14499,7 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>324</v>
@@ -10264,16 +14974,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>299</v>
@@ -10283,7 +14993,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K2" s="13">
         <v>44461.0</v>
@@ -10296,7 +15006,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -10314,16 +15024,16 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>299</v>
@@ -10333,7 +15043,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K3" s="13">
         <v>44461.0</v>
@@ -10343,10 +15053,10 @@
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -10364,16 +15074,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>299</v>
@@ -10383,7 +15093,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K4" s="13">
         <v>44461.0</v>
@@ -10396,7 +15106,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -10414,16 +15124,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>299</v>
@@ -10433,7 +15143,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K5" s="13">
         <v>44461.0</v>
@@ -10446,7 +15156,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -10464,13 +15174,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="38" t="s">
@@ -10481,7 +15191,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K6" s="13">
         <v>44461.0</v>
@@ -10493,10 +15203,10 @@
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -10514,16 +15224,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>299</v>
@@ -10543,10 +15253,10 @@
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -10564,16 +15274,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>299</v>
@@ -10593,10 +15303,10 @@
         <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -10614,16 +15324,16 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>299</v>
@@ -10633,7 +15343,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K9" s="13">
         <v>44461.0</v>
@@ -10643,10 +15353,10 @@
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -10664,16 +15374,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>299</v>
@@ -10683,7 +15393,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K10" s="13">
         <v>44461.0</v>
@@ -10693,10 +15403,10 @@
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -10817,16 +15527,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>299</v>
@@ -10865,16 +15575,16 @@
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>371</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>299</v>
@@ -10913,16 +15623,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>299</v>
@@ -10973,19 +15683,19 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -11021,17 +15731,17 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -11067,17 +15777,17 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -11125,19 +15835,19 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -11173,17 +15883,17 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -11219,17 +15929,17 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -11265,17 +15975,17 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -11322,19 +16032,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -11370,17 +16080,17 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -11416,17 +16126,17 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -11462,17 +16172,17 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="38" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -11506,17 +16216,17 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -11562,19 +16272,19 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -11589,7 +16299,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -11608,17 +16318,17 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -11633,7 +16343,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -11652,17 +16362,17 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -11677,7 +16387,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -11706,19 +16416,19 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -11733,7 +16443,7 @@
         <v>22</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -11752,17 +16462,17 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -11777,7 +16487,7 @@
         <v>22</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -11796,17 +16506,17 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -11821,7 +16531,7 @@
         <v>22</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -11908,13 +16618,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -11946,13 +16656,13 @@
     </row>
     <row r="2">
       <c r="A2" s="50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="50"/>
@@ -11984,13 +16694,13 @@
     </row>
     <row r="3">
       <c r="A3" s="50" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="50"/>
@@ -12022,13 +16732,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -12060,13 +16770,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -12098,13 +16808,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -12136,13 +16846,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -12174,13 +16884,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -12212,13 +16922,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -12250,13 +16960,13 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="30"/>
@@ -12288,13 +16998,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -12326,13 +17036,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -12364,13 +17074,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -12402,13 +17112,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -12440,13 +17150,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -12478,13 +17188,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -12516,13 +17226,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -15565,7 +20275,7 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -15599,17 +20309,17 @@
     </row>
     <row r="3">
       <c r="A3" s="57" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
@@ -15645,19 +20355,19 @@
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>481</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>483</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>484</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>480</v>
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
@@ -15693,19 +20403,19 @@
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>486</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>487</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>484</v>
-      </c>
       <c r="E5" s="59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
@@ -15741,19 +20451,19 @@
     </row>
     <row r="6">
       <c r="A6" s="59" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
@@ -15794,13 +20504,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -15836,13 +20546,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -165,7 +165,7 @@
     <t>eu-gdpr:A6-1-b,dpv:EnterIntoContract</t>
   </si>
   <si>
-    <t>Georg P Krog</t>
+    <t>Georg P. Krog</t>
   </si>
   <si>
     <t>A6-1-b-contract-performance</t>
@@ -771,7 +771,7 @@
     <t>(GDPR Art.13,https://eur-lex.europa.eu/eli/reg/2016/679/art_13/oj)</t>
   </si>
   <si>
-    <t>Beatriz Esteves, Georg Krog, Harshvardhan J. Pandit</t>
+    <t>Beatriz Esteves, Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>A14</t>
@@ -1064,7 +1064,7 @@
     </r>
   </si>
   <si>
-    <t>David Hickey, Paul Ryan, Georg P Krog, Harshvardhan J. Pandit</t>
+    <t>David Hickey, Paul Ryan, Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>CertificationMechanismsForDataTransfers</t>
@@ -1230,7 +1230,7 @@
     </r>
   </si>
   <si>
-    <t>David Hickey, Georg P Krog, Harshvardhan J. Pandit</t>
+    <t>David Hickey, Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>DPIANecessityAssessment</t>
@@ -1395,7 +1395,7 @@
     <t>Recommendation from the DPIA regarding processing</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit, Georg P Krog</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog</t>
   </si>
   <si>
     <t>DPIARecommendsProcessingContinue</t>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -12,9 +12,10 @@
     <sheet state="visible" name="GDPR_DPIA" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="GDPR_DPIA_properties" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="GDPR_compliance" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="GDPR_entities" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="GDPR_entities_properties" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="GDPR_Justifications" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="GDPR_principles" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="GDPR_entities" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="GDPR_entities_properties" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="GDPR_Justifications" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="688">
   <si>
     <t>Term</t>
   </si>
@@ -1620,6 +1621,114 @@
     <t>The systematic and extensive evaluation of personal aspects</t>
   </si>
   <si>
+    <t>GDPR Principles from Art.5</t>
+  </si>
+  <si>
+    <t>LawfulnessPrinciple</t>
+  </si>
+  <si>
+    <t>Lawfulness Principle</t>
+  </si>
+  <si>
+    <t>Principle stating personal data must be processed processed in a lawfull manner in relation to the data subject</t>
+  </si>
+  <si>
+    <t>dpv:Principle</t>
+  </si>
+  <si>
+    <t>GDPR Art.5-1a</t>
+  </si>
+  <si>
+    <t>TransparencyPrinciple</t>
+  </si>
+  <si>
+    <t>Transparency Principle</t>
+  </si>
+  <si>
+    <t>Principle stating personal data must be processed processed in a transparent manner in relation to the data subject</t>
+  </si>
+  <si>
+    <t>FairnessPrinciple</t>
+  </si>
+  <si>
+    <t>Fairness Principle</t>
+  </si>
+  <si>
+    <t>Principle stating personal data must be processed processed fairly in relation to the data subject</t>
+  </si>
+  <si>
+    <t>PurposeLimitationPrinciple</t>
+  </si>
+  <si>
+    <t>PurposeLimitation Principle</t>
+  </si>
+  <si>
+    <t>Principle stating personal data collected for specified, explicit and legitimate purposes and not further processed in a manner that is incompatible with those purposes; further processing for archiving purposes in the public interest, scientific or historical research purposes or statistical purposes shall, in accordance with Article 89(1), not be considered to be incompatible with the initial purposes</t>
+  </si>
+  <si>
+    <t>GDPR Art.5-1b</t>
+  </si>
+  <si>
+    <t>DataMinimisationPrinciple</t>
+  </si>
+  <si>
+    <t>DataMinimisation Principle</t>
+  </si>
+  <si>
+    <t>Principle stating personal data must be processed adequate, relevant and limited to what is necessary in relation to the purposes for which they are processed</t>
+  </si>
+  <si>
+    <t>GDPR Art.5-1c</t>
+  </si>
+  <si>
+    <t>AccuracyPrinciple</t>
+  </si>
+  <si>
+    <t>Accuracy Principle</t>
+  </si>
+  <si>
+    <t>Principle stating personal data must be accurate and, where necessary, kept up to date; every reasonable step must be taken to ensure that personal data that are inaccurate, having regard to the purposes for which they are processed, are erased or rectified without delay used for</t>
+  </si>
+  <si>
+    <t>GDPR Art.5-1d</t>
+  </si>
+  <si>
+    <t>StorageLimitationPrinciple</t>
+  </si>
+  <si>
+    <t>StorageLimitation Principle</t>
+  </si>
+  <si>
+    <t>Principle stating personal data must be kept in a form which permits identification of data subjects for no longer than is necessary for the purposes for which the personal data are processed; personal data may be stored for longer periods insofar as the personal data will be processed solely for archiving purposes in the public interest, scientific or historical research purposes or statistical purposes in accordance with Article 89(1) subject to implementation of the appropriate technical and organisational measures required by this Regulation in order to safeguard the rights and freedoms of the data subject</t>
+  </si>
+  <si>
+    <t>GDPR Art.5-1e</t>
+  </si>
+  <si>
+    <t>IntegrityConfidentialityPrinciple</t>
+  </si>
+  <si>
+    <t>IntegrityConfidentiality Principle</t>
+  </si>
+  <si>
+    <t>Principle stating personal data must be processed in a manner that ensures appropriate security of the personal data, including protection against unauthorised or unlawful processing and against accidental loss, destruction or damage, using appropriate technical or organisational measures</t>
+  </si>
+  <si>
+    <t>GDPR Art.5-1f</t>
+  </si>
+  <si>
+    <t>AccountabilityPrinciple</t>
+  </si>
+  <si>
+    <t>Accountability Principle</t>
+  </si>
+  <si>
+    <t>Principle stating the controller shall be responsible for, and be able to demonstrate compliance with the other principles (from Art.5-1)</t>
+  </si>
+  <si>
+    <t>GDPR Art.5-2</t>
+  </si>
+  <si>
     <t>Authorities</t>
   </si>
   <si>
@@ -2102,7 +2211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2229,6 +2338,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
       <i/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2316,7 +2429,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="79">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2505,16 +2618,40 @@
     <xf borderId="0" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2590,6 +2727,10 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3814,6 +3955,610 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="70" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="71" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="72" t="s">
+        <v>503</v>
+      </c>
+      <c r="K3" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="55"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="71" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="72" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="55"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="72" t="s">
+        <v>503</v>
+      </c>
+      <c r="K5" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="55"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="71" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="72" t="s">
+        <v>513</v>
+      </c>
+      <c r="K6" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="55"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="72" t="s">
+        <v>517</v>
+      </c>
+      <c r="K7" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="K8" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="47"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="K9" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="K10" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="47"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="K11" s="73">
+        <v>45424.0</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="J12" s="72"/>
+      <c r="K12" s="13"/>
+      <c r="O12" s="47"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="13"/>
+      <c r="O13" s="47"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="13"/>
+      <c r="O14" s="47"/>
+    </row>
+    <row r="15">
+      <c r="K15" s="13"/>
+      <c r="O15" s="47"/>
+    </row>
+    <row r="16">
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="K21" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.13"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3862,7 +4607,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -3871,16 +4616,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>383</v>
@@ -3890,7 +4635,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="11"/>
@@ -3919,16 +4664,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>383</v>
@@ -3938,7 +4683,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="11"/>
@@ -3967,16 +4712,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>383</v>
@@ -3986,7 +4731,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="11"/>
@@ -4020,23 +4765,23 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="K7" s="13"/>
       <c r="O7" s="47"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>383</v>
@@ -4046,7 +4791,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
@@ -4075,16 +4820,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>383</v>
@@ -4094,7 +4839,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
@@ -4123,16 +4868,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>383</v>
@@ -4142,7 +4887,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="11"/>
@@ -4201,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4273,28 +5018,28 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -4321,28 +5066,28 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -4369,28 +5114,28 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -4417,28 +5162,28 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>502</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -4465,28 +5210,28 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>502</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -4513,28 +5258,28 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>502</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -7572,7 +8317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7609,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7641,10 +8386,10 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>547</v>
+        <v>582</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>583</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -7653,61 +8398,61 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="K3" s="13"/>
       <c r="O3" s="47"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="K4" s="13"/>
       <c r="O4" s="47"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="K5" s="13"/>
       <c r="O5" s="47"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="K6" s="13"/>
       <c r="O6" s="47"/>
@@ -7721,10 +8466,10 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>560</v>
+        <v>595</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>596</v>
       </c>
       <c r="C8" s="10"/>
       <c r="K8" s="13"/>
@@ -7732,57 +8477,57 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="K9" s="13"/>
       <c r="O9" s="47"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="K10" s="13"/>
       <c r="O10" s="47"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="K11" s="13"/>
       <c r="O11" s="47"/>
@@ -7796,10 +8541,10 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>571</v>
+        <v>606</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>607</v>
       </c>
       <c r="C13" s="10"/>
       <c r="J13" s="10"/>
@@ -7807,152 +8552,152 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="K14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>548</v>
-      </c>
       <c r="J17" s="10" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="K17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>550</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="K18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="K19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>596</v>
+      <c r="A20" s="72" t="s">
+        <v>630</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>631</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>632</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="69" t="s">
-        <v>597</v>
+      <c r="J20" s="77" t="s">
+        <v>633</v>
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="54"/>
@@ -7976,27 +8721,27 @@
       <c r="AD20" s="54"/>
     </row>
     <row r="21">
-      <c r="A21" s="67" t="s">
-        <v>598</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>599</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>600</v>
+      <c r="A21" s="72" t="s">
+        <v>634</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>635</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>636</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="68" t="s">
-        <v>601</v>
+      <c r="J21" s="76" t="s">
+        <v>637</v>
       </c>
       <c r="K21" s="54"/>
       <c r="L21" s="54"/>
@@ -8020,27 +8765,27 @@
       <c r="AD21" s="54"/>
     </row>
     <row r="22">
-      <c r="A22" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>603</v>
+      <c r="A22" s="72" t="s">
+        <v>638</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>639</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
-      <c r="J22" s="68" t="s">
-        <v>605</v>
+      <c r="J22" s="76" t="s">
+        <v>641</v>
       </c>
       <c r="K22" s="54"/>
       <c r="L22" s="54"/>
@@ -8065,243 +8810,243 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>609</v>
+        <v>584</v>
+      </c>
+      <c r="J23" s="76" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
-      <c r="B25" s="66"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="10"/>
       <c r="J25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>571</v>
+        <v>650</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>607</v>
       </c>
       <c r="C26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J30" s="48" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>638</v>
+        <v>674</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>639</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -11,11 +11,12 @@
     <sheet state="visible" name="GDPR_DataTransfers" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="GDPR_DPIA" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="GDPR_DPIA_properties" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="GDPR_compliance" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="GDPR_principles" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="GDPR_entities" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="GDPR_entities_properties" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="GDPR_Justifications" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="GDPR_DataBreach" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="GDPR_compliance" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="GDPR_principles" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="GDPR_entities" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="GDPR_entities_properties" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="GDPR_Justifications" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="792">
   <si>
     <t>Term</t>
   </si>
@@ -1556,6 +1557,318 @@
   </si>
   <si>
     <t>For expressing a DPIA document or process is part of another. For example, as some DPIANecessityAssessment dct:isPartOf some dpv:DPIA</t>
+  </si>
+  <si>
+    <t>DataBreach</t>
+  </si>
+  <si>
+    <t>Data Breach</t>
+  </si>
+  <si>
+    <t>A breach of security leading to the accidental or unlawful destruction, loss, alteration, unauthorised disclosure of, or access to, personal data transmitted, stored or otherwise processed</t>
+  </si>
+  <si>
+    <t>risk:Incident</t>
+  </si>
+  <si>
+    <t>GDPR's notion of data breach includes any incident that affects the confidentiality, integrity, and availability of personal data and its processing without distinguishing between internal or external actors involved in the incident</t>
+  </si>
+  <si>
+    <t>GDPR Article 4(12)</t>
+  </si>
+  <si>
+    <t>ConfidentialityBreach</t>
+  </si>
+  <si>
+    <t>Confidentiality Breach</t>
+  </si>
+  <si>
+    <t>A data breach where there is an unauthorised or accidental disclosure of or access to personal data</t>
+  </si>
+  <si>
+    <t>eu-gdpr:DataBreach</t>
+  </si>
+  <si>
+    <t>EDPB Guidelines 9/2022 on personal data breach notification under GDPR</t>
+  </si>
+  <si>
+    <t>IntegrityBreach</t>
+  </si>
+  <si>
+    <t>Integrity Breach</t>
+  </si>
+  <si>
+    <t>A data breach where there is an unauthorised or accidental alteration of personal data</t>
+  </si>
+  <si>
+    <t>AvailabilityBreach</t>
+  </si>
+  <si>
+    <t>Availability Breach</t>
+  </si>
+  <si>
+    <t>A data breach where there is an accidental or unauthorised loss of access to or destruction of personal data</t>
+  </si>
+  <si>
+    <t>CrossBorderDataBreach</t>
+  </si>
+  <si>
+    <t>Cross-Border Data Breach</t>
+  </si>
+  <si>
+    <t>A data breach involving cross-border data subjects or processing operations</t>
+  </si>
+  <si>
+    <t>DBIARiskStatus</t>
+  </si>
+  <si>
+    <t>DBIA Risk Status</t>
+  </si>
+  <si>
+    <t>Status reflecting the status of risk associated with a DBIA regarding rights and freedoms of natural persons</t>
+  </si>
+  <si>
+    <t>GDPR Article 33</t>
+  </si>
+  <si>
+    <t>DBIAIndicatesHighRisk</t>
+  </si>
+  <si>
+    <t>DBIA Indicates High Risk</t>
+  </si>
+  <si>
+    <t>DBIA identifying high risk levels regarding rights and freedoms of natural persons</t>
+  </si>
+  <si>
+    <t>eu-gdpr:DBIARiskStatus</t>
+  </si>
+  <si>
+    <t>DBIAIndicatesLowRisk</t>
+  </si>
+  <si>
+    <t>DBIA Indicates Low Risk</t>
+  </si>
+  <si>
+    <t>DBIA identifying low risk levels regarding rights and freedoms of natural persons</t>
+  </si>
+  <si>
+    <t>DBIAIndicatesNoRisk</t>
+  </si>
+  <si>
+    <t>DBIA Indicates No Risk</t>
+  </si>
+  <si>
+    <t>DBIA identifying no risk is present regarding rights and freedoms of natural persons</t>
+  </si>
+  <si>
+    <t>DataBreachNoticeRequirement</t>
+  </si>
+  <si>
+    <t>Data Breach Notice Requirement</t>
+  </si>
+  <si>
+    <t>Whether a Data Breach notification is required</t>
+  </si>
+  <si>
+    <t>DPABreachNotificationNeeded</t>
+  </si>
+  <si>
+    <t>DPA Breach Notification Needed</t>
+  </si>
+  <si>
+    <t>Data Breach notification to the DPA is required</t>
+  </si>
+  <si>
+    <t>eu-gdpr:DataBreachNoticeRequirement</t>
+  </si>
+  <si>
+    <t>DataSubjectBreachNotificationNeeded</t>
+  </si>
+  <si>
+    <t>Data Subject Breach Notification Needed</t>
+  </si>
+  <si>
+    <t>Data Breach notification to the Data Subject is required</t>
+  </si>
+  <si>
+    <t>GDPR Article 34</t>
+  </si>
+  <si>
+    <t>ControllerBreachNotificationNeeded</t>
+  </si>
+  <si>
+    <t>Controller Breach Notification Needed</t>
+  </si>
+  <si>
+    <t>Data Breach notification to the Controller is required</t>
+  </si>
+  <si>
+    <t>ProcessorBreachNotificationNeeded</t>
+  </si>
+  <si>
+    <t>Processor Breach Notification Needed</t>
+  </si>
+  <si>
+    <t>Data Breach notification to the Processor is required</t>
+  </si>
+  <si>
+    <t>BreachNotificationNotNeeded</t>
+  </si>
+  <si>
+    <t>Breach Notification Not Needed</t>
+  </si>
+  <si>
+    <t>Data Breach notifications to DPA or Data Subjects are not required</t>
+  </si>
+  <si>
+    <t>DataBreachNotice</t>
+  </si>
+  <si>
+    <t>Data Breach Notice</t>
+  </si>
+  <si>
+    <t>Notice associated with data breach providing information in compliance with GDPR</t>
+  </si>
+  <si>
+    <t>dpv:DataBreachNotice</t>
+  </si>
+  <si>
+    <t>DPABreachNotice</t>
+  </si>
+  <si>
+    <t>DPA Breach Notice</t>
+  </si>
+  <si>
+    <t>Notice regarding a data breach to the DPA</t>
+  </si>
+  <si>
+    <t>eu-gdpr:DataBreachNotice</t>
+  </si>
+  <si>
+    <t>DPABreachInitialNotice</t>
+  </si>
+  <si>
+    <t>DPA Breach Initial Notice</t>
+  </si>
+  <si>
+    <t>Notice sent by a Controller within 72 hours of becoming aware of a personal data breach to the competent DPA, with justifications provided where the notice is made after 72 hours</t>
+  </si>
+  <si>
+    <t>DPAPhasedBreachNotice</t>
+  </si>
+  <si>
+    <t>DPA Phased Breach Notice</t>
+  </si>
+  <si>
+    <t>Notice sent to a DPA in phases i.e. by providing incremental information as it becomes available or is requested following previously submitted notifications</t>
+  </si>
+  <si>
+    <t>DPABundledBreachNotice</t>
+  </si>
+  <si>
+    <t>DPA Bundled Breach Notice</t>
+  </si>
+  <si>
+    <t>Notice sent by a Controller to the DPA regarding multiple data breaches concerning the same type of personal data</t>
+  </si>
+  <si>
+    <t>DataSubjectBreachNotice</t>
+  </si>
+  <si>
+    <t>Data Subject Breach Notice</t>
+  </si>
+  <si>
+    <t>Notice regarding a data breach to the Data Subject</t>
+  </si>
+  <si>
+    <t>ControllerBreachNotice</t>
+  </si>
+  <si>
+    <t>Controller Breach Notice</t>
+  </si>
+  <si>
+    <t>Notice regarding a data breach to the Controller</t>
+  </si>
+  <si>
+    <t>ProcessorBreachNotice</t>
+  </si>
+  <si>
+    <t>Processor Breach Notice</t>
+  </si>
+  <si>
+    <t>Notice regarding a data breach to the Processor</t>
+  </si>
+  <si>
+    <t>DataBreachReport</t>
+  </si>
+  <si>
+    <t>Data Breach Report</t>
+  </si>
+  <si>
+    <t>Documented information about a data breach incident, its handling, assessments, and notifications</t>
+  </si>
+  <si>
+    <t>risk:IncidentReport</t>
+  </si>
+  <si>
+    <t>DataBreachDetectionReport</t>
+  </si>
+  <si>
+    <t>Data Breach Detection Report</t>
+  </si>
+  <si>
+    <t>Documented information about a data breach being detected</t>
+  </si>
+  <si>
+    <t>eu-gdpr:DataBreachReport,risk:IncidentDetectedReport</t>
+  </si>
+  <si>
+    <t>DataBreachPreliminaryReport</t>
+  </si>
+  <si>
+    <t>Data Breach Preliminary Report</t>
+  </si>
+  <si>
+    <t>Documented information about preliminary assessment regarding a data breach</t>
+  </si>
+  <si>
+    <t>eu-gdpr:DataBreachReport,risk:IncidentAssessmentReport</t>
+  </si>
+  <si>
+    <t>DataBreachOngoingReport</t>
+  </si>
+  <si>
+    <t>Data Breach Ongoing Report</t>
+  </si>
+  <si>
+    <t>Documented information about an ongoing data breach</t>
+  </si>
+  <si>
+    <t>DataBreachConcludingReport</t>
+  </si>
+  <si>
+    <t>Data Breach Concluding Report</t>
+  </si>
+  <si>
+    <t>Documented information about a concluded data breach incident</t>
+  </si>
+  <si>
+    <t>eu-gdpr:DataBreachReport,risk:IncidentHandlingReport</t>
+  </si>
+  <si>
+    <t>DataBreachRegister</t>
+  </si>
+  <si>
+    <t>Data Breach Register</t>
+  </si>
+  <si>
+    <t>Register of data breaches containing facts relating to the personal data breach, its effects and the remedial action taken</t>
+  </si>
+  <si>
+    <t>dpv:DataBreachRegister</t>
+  </si>
+  <si>
+    <t>GDPR Article 33(5)</t>
   </si>
   <si>
     <t>GDPR specific statuses in dpv-gdpr</t>
@@ -2429,7 +2742,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2578,6 +2891,33 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2731,6 +3071,10 @@
 </file>
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3955,16 +4299,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -3973,28 +4317,28 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -4002,320 +4346,257 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="70" t="s">
-        <v>498</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
+      <c r="A2" s="62" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
     </row>
     <row r="3">
-      <c r="A3" s="71" t="s">
-        <v>499</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>500</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>501</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="72" t="s">
-        <v>503</v>
-      </c>
-      <c r="K3" s="73">
-        <v>45424.0</v>
-      </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="71" t="s">
+      <c r="A3" s="66" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="68" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72">
+        <v>44856.0</v>
+      </c>
+      <c r="L3" s="70"/>
+      <c r="M3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
+      <c r="N3" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
     </row>
     <row r="4">
-      <c r="A4" s="71" t="s">
-        <v>504</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>506</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="72" t="s">
-        <v>503</v>
-      </c>
-      <c r="K4" s="73">
-        <v>45424.0</v>
-      </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="71" t="s">
+      <c r="A4" s="69" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72">
+        <v>44856.0</v>
+      </c>
+      <c r="L4" s="70"/>
+      <c r="M4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
+      <c r="N4" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="71"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
     </row>
     <row r="5">
-      <c r="A5" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>509</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="72" t="s">
-        <v>503</v>
-      </c>
-      <c r="K5" s="73">
-        <v>45424.0</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="71" t="s">
+      <c r="A5" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>585</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72">
+        <v>44856.0</v>
+      </c>
+      <c r="L5" s="70"/>
+      <c r="M5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="55"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
+      <c r="N5" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="71"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
     </row>
     <row r="6">
-      <c r="A6" s="71" t="s">
-        <v>510</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="72" t="s">
-        <v>513</v>
-      </c>
-      <c r="K6" s="73">
-        <v>45424.0</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="71" t="s">
+      <c r="A6" s="68" t="s">
+        <v>593</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72">
+        <v>44856.0</v>
+      </c>
+      <c r="L6" s="70"/>
+      <c r="M6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="55"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
+      <c r="N6" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="71"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="72" t="s">
-        <v>517</v>
-      </c>
-      <c r="K7" s="73">
-        <v>45424.0</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="72" t="s">
-        <v>47</v>
-      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="13"/>
       <c r="O7" s="47"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>299</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="72" t="s">
-        <v>521</v>
-      </c>
-      <c r="K8" s="73">
-        <v>45424.0</v>
-      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="72" t="s">
+      <c r="M8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="47"/>
@@ -4337,35 +4618,27 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>299</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="72" t="s">
-        <v>525</v>
-      </c>
-      <c r="K9" s="73">
-        <v>45424.0</v>
-      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="72" t="s">
+      <c r="M9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="O9" s="47"/>
@@ -4386,107 +4659,17 @@
       <c r="AD9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="72" t="s">
-        <v>529</v>
-      </c>
-      <c r="K10" s="73">
-        <v>45424.0</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="72" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="38"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="13"/>
       <c r="O10" s="47"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>502</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="72" t="s">
-        <v>533</v>
-      </c>
-      <c r="K11" s="73">
-        <v>45424.0</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="72" t="s">
-        <v>47</v>
-      </c>
+      <c r="C11" s="38"/>
+      <c r="K11" s="13"/>
       <c r="O11" s="47"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
     </row>
     <row r="12">
-      <c r="J12" s="72"/>
       <c r="K12" s="13"/>
       <c r="O12" s="47"/>
     </row>
@@ -4559,6 +4742,610 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="79" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="80" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="81" t="s">
+        <v>607</v>
+      </c>
+      <c r="K3" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L3" s="63"/>
+      <c r="M3" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="64"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="80" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>610</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="81" t="s">
+        <v>607</v>
+      </c>
+      <c r="K4" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L4" s="63"/>
+      <c r="M4" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="64"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="80" t="s">
+        <v>611</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="81" t="s">
+        <v>607</v>
+      </c>
+      <c r="K5" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L5" s="63"/>
+      <c r="M5" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="K6" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="K7" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="K8" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="47"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="K9" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="81" t="s">
+        <v>633</v>
+      </c>
+      <c r="K10" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="47"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="K11" s="82">
+        <v>45424.0</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="J12" s="81"/>
+      <c r="K12" s="13"/>
+      <c r="O12" s="47"/>
+    </row>
+    <row r="13">
+      <c r="K13" s="13"/>
+      <c r="O13" s="47"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="13"/>
+      <c r="O14" s="47"/>
+    </row>
+    <row r="15">
+      <c r="K15" s="13"/>
+      <c r="O15" s="47"/>
+    </row>
+    <row r="16">
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="K21" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$M2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AD50">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$M2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.13"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4607,7 +5394,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>534</v>
+        <v>638</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -4616,16 +5403,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>535</v>
+        <v>639</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>536</v>
+        <v>640</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>537</v>
+        <v>641</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>383</v>
@@ -4635,7 +5422,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="11"/>
@@ -4664,16 +5451,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>540</v>
+        <v>644</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>541</v>
+        <v>645</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>383</v>
@@ -4683,7 +5470,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="11"/>
@@ -4712,16 +5499,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>543</v>
+        <v>647</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>544</v>
+        <v>648</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>545</v>
+        <v>649</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>383</v>
@@ -4731,7 +5518,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="11"/>
@@ -4765,23 +5552,23 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>546</v>
+        <v>650</v>
       </c>
       <c r="K7" s="13"/>
       <c r="O7" s="47"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>547</v>
+        <v>651</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>547</v>
+        <v>651</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>548</v>
+        <v>652</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>549</v>
+        <v>653</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>383</v>
@@ -4791,7 +5578,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
-        <v>550</v>
+        <v>654</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
@@ -4820,16 +5607,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>551</v>
+        <v>655</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>552</v>
+        <v>656</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>553</v>
+        <v>657</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>554</v>
+        <v>658</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>383</v>
@@ -4839,7 +5626,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>555</v>
+        <v>659</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
@@ -4868,16 +5655,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>556</v>
+        <v>660</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>557</v>
+        <v>661</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>558</v>
+        <v>662</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>554</v>
+        <v>658</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>383</v>
@@ -4887,7 +5674,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>559</v>
+        <v>663</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="11"/>
@@ -4946,7 +5733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5018,28 +5805,28 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>560</v>
+        <v>664</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>561</v>
+        <v>665</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>562</v>
+        <v>666</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>563</v>
+        <v>667</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>563</v>
+        <v>667</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -5066,28 +5853,28 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>565</v>
+        <v>669</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>566</v>
+        <v>670</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>567</v>
+        <v>671</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>563</v>
+        <v>667</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>563</v>
+        <v>667</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -5114,28 +5901,28 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>568</v>
+        <v>672</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>569</v>
+        <v>673</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>570</v>
+        <v>674</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>563</v>
+        <v>667</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>563</v>
+        <v>667</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -5162,28 +5949,28 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>571</v>
+        <v>675</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>572</v>
+        <v>676</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>573</v>
+        <v>677</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>574</v>
+        <v>678</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -5210,28 +5997,28 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>575</v>
+        <v>679</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>576</v>
+        <v>680</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>577</v>
+        <v>681</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>574</v>
+        <v>678</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -5258,28 +6045,28 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>578</v>
+        <v>682</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>579</v>
+        <v>683</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>580</v>
+        <v>684</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>574</v>
+        <v>678</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -8317,7 +9104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8354,7 +9141,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>581</v>
+        <v>685</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -8386,10 +9173,10 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>583</v>
+        <v>686</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>687</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -8398,61 +9185,61 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>585</v>
+        <v>689</v>
       </c>
       <c r="K3" s="13"/>
       <c r="O3" s="47"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>587</v>
+        <v>691</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>588</v>
+        <v>692</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="K4" s="13"/>
       <c r="O4" s="47"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>589</v>
+        <v>693</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>590</v>
+        <v>694</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>591</v>
+        <v>695</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="K5" s="13"/>
       <c r="O5" s="47"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>592</v>
+        <v>696</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>593</v>
+        <v>697</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>594</v>
+        <v>698</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="K6" s="13"/>
       <c r="O6" s="47"/>
@@ -8466,10 +9253,10 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>596</v>
+        <v>699</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>700</v>
       </c>
       <c r="C8" s="10"/>
       <c r="K8" s="13"/>
@@ -8477,57 +9264,57 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>597</v>
+        <v>701</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>598</v>
+        <v>702</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>599</v>
+        <v>703</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="K9" s="13"/>
       <c r="O9" s="47"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>601</v>
+        <v>705</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>602</v>
+        <v>706</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>589</v>
+        <v>693</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="K10" s="13"/>
       <c r="O10" s="47"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>603</v>
+        <v>707</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>604</v>
+        <v>708</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>605</v>
+        <v>709</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>592</v>
+        <v>696</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="K11" s="13"/>
       <c r="O11" s="47"/>
@@ -8541,10 +9328,10 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>607</v>
+        <v>710</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>711</v>
       </c>
       <c r="C13" s="10"/>
       <c r="J13" s="10"/>
@@ -8552,501 +9339,501 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>608</v>
+        <v>712</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>609</v>
+        <v>713</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>610</v>
+        <v>714</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>611</v>
+        <v>715</v>
       </c>
       <c r="K14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>612</v>
+        <v>716</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>613</v>
+        <v>717</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>614</v>
+        <v>718</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>615</v>
+        <v>719</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>616</v>
+        <v>720</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>617</v>
+        <v>721</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>618</v>
+        <v>722</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>615</v>
+        <v>719</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>619</v>
+        <v>723</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>620</v>
+        <v>724</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>621</v>
+        <v>725</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>615</v>
+        <v>719</v>
       </c>
       <c r="K17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>622</v>
+        <v>726</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>624</v>
+        <v>728</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>625</v>
+        <v>729</v>
       </c>
       <c r="K18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>626</v>
+        <v>730</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>627</v>
+        <v>731</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>628</v>
+        <v>732</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>629</v>
+        <v>733</v>
       </c>
       <c r="K19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="72" t="s">
-        <v>630</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>631</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>632</v>
+      <c r="A20" s="81" t="s">
+        <v>734</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>735</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>736</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="77" t="s">
-        <v>633</v>
-      </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
+        <v>688</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="86" t="s">
+        <v>737</v>
+      </c>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
     </row>
     <row r="21">
-      <c r="A21" s="72" t="s">
-        <v>634</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>635</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>636</v>
+      <c r="A21" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>739</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>740</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="76" t="s">
-        <v>637</v>
-      </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
+        <v>688</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="85" t="s">
+        <v>741</v>
+      </c>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
     </row>
     <row r="22">
-      <c r="A22" s="72" t="s">
-        <v>638</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>639</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>640</v>
+      <c r="A22" s="81" t="s">
+        <v>742</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>743</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>744</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="76" t="s">
-        <v>641</v>
-      </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
+        <v>688</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="85" t="s">
+        <v>745</v>
+      </c>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>642</v>
+        <v>746</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>643</v>
+        <v>747</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>644</v>
+        <v>748</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="J23" s="76" t="s">
-        <v>645</v>
+        <v>688</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>646</v>
+        <v>750</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>647</v>
+        <v>751</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>649</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
-      <c r="B25" s="75"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="10"/>
       <c r="J25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B26" s="75" t="s">
-        <v>607</v>
+        <v>754</v>
+      </c>
+      <c r="B26" s="84" t="s">
+        <v>711</v>
       </c>
       <c r="C26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>651</v>
+        <v>755</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>652</v>
+        <v>756</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>653</v>
+        <v>757</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>592</v>
+        <v>696</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>654</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>655</v>
+        <v>759</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>656</v>
+        <v>760</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>657</v>
+        <v>761</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>592</v>
+        <v>696</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>658</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>659</v>
+        <v>763</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>660</v>
+        <v>764</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>661</v>
+        <v>765</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>592</v>
+        <v>696</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>658</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>662</v>
+        <v>766</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>663</v>
+        <v>767</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>664</v>
+        <v>768</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>592</v>
+        <v>696</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J30" s="48" t="s">
-        <v>665</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>666</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>669</v>
+        <v>773</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>671</v>
+        <v>775</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>672</v>
+        <v>776</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>673</v>
+        <v>777</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>675</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>676</v>
+        <v>780</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>677</v>
+        <v>781</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>678</v>
+        <v>782</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>679</v>
+        <v>783</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>680</v>
+        <v>784</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>681</v>
+        <v>785</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>682</v>
+        <v>786</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>683</v>
+        <v>787</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>684</v>
+        <v>788</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>685</v>
+        <v>789</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>687</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -16935,11 +17722,11 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="13">
-        <v>44864.0</v>
+        <v>45431.0</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="10" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>23</v>
@@ -21022,257 +21809,292 @@
       <c r="A2" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
+      <c r="B2" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="K2" s="57">
+        <v>45431.0</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
     </row>
     <row r="3">
-      <c r="A3" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>480</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59" t="s">
-        <v>481</v>
-      </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63">
-        <v>44856.0</v>
-      </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="59" t="s">
+      <c r="A3" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K3" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="60" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>483</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>484</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>485</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>481</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63">
-        <v>44856.0</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59" t="s">
+      <c r="A4" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K4" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="E5" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>488</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>485</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63">
-        <v>44856.0</v>
-      </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="59" t="s">
+      <c r="K5" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="59" t="s">
-        <v>489</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>490</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>491</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>485</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>481</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63">
-        <v>44856.0</v>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="59" t="s">
+      <c r="A6" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K6" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
     </row>
     <row r="7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="J7" s="47"/>
       <c r="K7" s="13"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="47"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>492</v>
+      <c r="A8" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>383</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="13"/>
+      <c r="J8" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K8" s="13">
+        <v>45431.0</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -21291,30 +22113,38 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>497</v>
+        <v>502</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>503</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K9" s="13">
+        <v>45431.0</v>
+      </c>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -21332,66 +22162,1087 @@
       <c r="AD9" s="11"/>
     </row>
     <row r="10">
-      <c r="C10" s="38"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="13"/>
-      <c r="O10" s="47"/>
+      <c r="A10" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
     </row>
     <row r="11">
-      <c r="C11" s="38"/>
-      <c r="K11" s="13"/>
-      <c r="O11" s="47"/>
+      <c r="A11" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K11" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
     </row>
     <row r="12">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="K12" s="13"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="47"/>
     </row>
     <row r="13">
-      <c r="K13" s="13"/>
-      <c r="O13" s="47"/>
+      <c r="A13" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K13" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
     </row>
     <row r="14">
-      <c r="K14" s="13"/>
-      <c r="O14" s="47"/>
+      <c r="A14" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
     </row>
     <row r="15">
-      <c r="K15" s="13"/>
+      <c r="A15" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="K15" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="10"/>
       <c r="O15" s="47"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
     </row>
     <row r="16">
-      <c r="K16" s="13"/>
+      <c r="A16" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K16" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
     </row>
     <row r="17">
-      <c r="K17" s="13"/>
+      <c r="A17" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K17" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
     </row>
     <row r="18">
-      <c r="K18" s="13"/>
+      <c r="A18" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K18" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
     </row>
     <row r="19">
       <c r="K19" s="13"/>
     </row>
     <row r="20">
-      <c r="K20" s="13"/>
+      <c r="A20" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K20" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
     </row>
     <row r="21">
-      <c r="K21" s="13"/>
+      <c r="A21" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K21" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K22" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K23" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K24" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="K25" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K26" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K27" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K29" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>564</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K30" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>568</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K31" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>571</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>568</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K32" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>573</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="K33" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L33" s="58"/>
+      <c r="M33" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="K35" s="13">
+        <v>45431.0</v>
+      </c>
+      <c r="L35" s="58"/>
+      <c r="M35" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AD50">
+  <conditionalFormatting sqref="A2:AD51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AD50">
+  <conditionalFormatting sqref="A2:AD51">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AD50">
+  <conditionalFormatting sqref="A2:AD51">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="O8"/>
+    <hyperlink r:id="rId2" ref="O9"/>
+    <hyperlink r:id="rId3" ref="O10"/>
+    <hyperlink r:id="rId4" ref="O11"/>
+    <hyperlink r:id="rId5" ref="O13"/>
+    <hyperlink r:id="rId6" ref="O14"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="793">
   <si>
     <t>Term</t>
   </si>
@@ -1752,6 +1752,9 @@
   </si>
   <si>
     <t>Notice sent by a Controller within 72 hours of becoming aware of a personal data breach to the competent DPA, with justifications provided where the notice is made after 72 hours</t>
+  </si>
+  <si>
+    <t>eu-gdpr:DPABreachNotice</t>
   </si>
   <si>
     <t>DPAPhasedBreachNotice</t>
@@ -4347,7 +4350,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -4381,17 +4384,17 @@
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="68" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
@@ -4427,19 +4430,19 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>590</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>586</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>587</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>585</v>
       </c>
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
@@ -4475,19 +4478,19 @@
     </row>
     <row r="5">
       <c r="A5" s="69" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="68" t="s">
         <v>590</v>
       </c>
-      <c r="B5" s="74" t="s">
-        <v>591</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>589</v>
-      </c>
       <c r="E5" s="68" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
@@ -4523,19 +4526,19 @@
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
@@ -4576,13 +4579,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4618,13 +4621,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="2">
       <c r="A2" s="79" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -4824,16 +4827,16 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>299</v>
@@ -4843,7 +4846,7 @@
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="81" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K3" s="82">
         <v>45424.0</v>
@@ -4874,16 +4877,16 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E4" s="80" t="s">
         <v>299</v>
@@ -4893,7 +4896,7 @@
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
       <c r="J4" s="81" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K4" s="82">
         <v>45424.0</v>
@@ -4924,16 +4927,16 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E5" s="80" t="s">
         <v>299</v>
@@ -4943,7 +4946,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
       <c r="J5" s="81" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K5" s="82">
         <v>45424.0</v>
@@ -4974,16 +4977,16 @@
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E6" s="80" t="s">
         <v>299</v>
@@ -4993,7 +4996,7 @@
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
       <c r="J6" s="81" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K6" s="82">
         <v>45424.0</v>
@@ -5024,16 +5027,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E7" s="80" t="s">
         <v>299</v>
@@ -5043,7 +5046,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="81" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K7" s="82">
         <v>45424.0</v>
@@ -5074,16 +5077,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>299</v>
@@ -5093,7 +5096,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="81" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K8" s="82">
         <v>45424.0</v>
@@ -5124,16 +5127,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E9" s="80" t="s">
         <v>299</v>
@@ -5143,7 +5146,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="81" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K9" s="82">
         <v>45424.0</v>
@@ -5174,16 +5177,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E10" s="80" t="s">
         <v>299</v>
@@ -5193,7 +5196,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="81" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K10" s="82">
         <v>45424.0</v>
@@ -5224,16 +5227,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E11" s="80" t="s">
         <v>299</v>
@@ -5243,7 +5246,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="81" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K11" s="82">
         <v>45424.0</v>
@@ -5394,7 +5397,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -5403,16 +5406,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>383</v>
@@ -5422,7 +5425,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="11"/>
@@ -5451,16 +5454,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>383</v>
@@ -5470,7 +5473,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="11"/>
@@ -5499,16 +5502,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>383</v>
@@ -5518,7 +5521,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="11"/>
@@ -5552,23 +5555,23 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K7" s="13"/>
       <c r="O7" s="47"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>383</v>
@@ -5578,7 +5581,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
@@ -5607,16 +5610,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>383</v>
@@ -5626,7 +5629,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
@@ -5655,16 +5658,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>383</v>
@@ -5674,7 +5677,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="11"/>
@@ -5805,28 +5808,28 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -5853,28 +5856,28 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>670</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>668</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -5901,28 +5904,28 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -5949,28 +5952,28 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -5997,28 +6000,28 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>682</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>678</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -6045,28 +6048,28 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -9141,7 +9144,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -9173,10 +9176,10 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -9185,61 +9188,61 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K3" s="13"/>
       <c r="O3" s="47"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K4" s="13"/>
       <c r="O4" s="47"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K5" s="13"/>
       <c r="O5" s="47"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K6" s="13"/>
       <c r="O6" s="47"/>
@@ -9253,10 +9256,10 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C8" s="10"/>
       <c r="K8" s="13"/>
@@ -9264,57 +9267,57 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K9" s="13"/>
       <c r="O9" s="47"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K10" s="13"/>
       <c r="O10" s="47"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K11" s="13"/>
       <c r="O11" s="47"/>
@@ -9328,10 +9331,10 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C13" s="10"/>
       <c r="J13" s="10"/>
@@ -9339,152 +9342,152 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>720</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>719</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="81" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="63"/>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="86" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
@@ -9509,26 +9512,26 @@
     </row>
     <row r="21">
       <c r="A21" s="81" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="85" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
@@ -9553,26 +9556,26 @@
     </row>
     <row r="22">
       <c r="A22" s="81" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="85" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
@@ -9597,42 +9600,42 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J23" s="85" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25">
@@ -9643,197 +9646,197 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>763</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J30" s="48" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -22665,7 +22668,9 @@
       <c r="C22" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="10" t="s">
+        <v>542</v>
+      </c>
       <c r="E22" s="10" t="s">
         <v>538</v>
       </c>
@@ -22703,15 +22708,17 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
         <v>538</v>
       </c>
@@ -22749,15 +22756,17 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="D24" s="11"/>
+        <v>548</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>542</v>
+      </c>
       <c r="E24" s="10" t="s">
         <v>538</v>
       </c>
@@ -22795,13 +22804,13 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="10" t="s">
@@ -22841,13 +22850,13 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
@@ -22887,13 +22896,13 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
@@ -22933,16 +22942,16 @@
     </row>
     <row r="29">
       <c r="A29" s="59" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E29" s="56" t="s">
         <v>383</v>
@@ -22981,16 +22990,16 @@
     </row>
     <row r="30">
       <c r="A30" s="56" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E30" s="56" t="s">
         <v>383</v>
@@ -23029,16 +23038,16 @@
     </row>
     <row r="31">
       <c r="A31" s="56" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E31" s="56" t="s">
         <v>383</v>
@@ -23077,16 +23086,16 @@
     </row>
     <row r="32">
       <c r="A32" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>571</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>569</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>570</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>571</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>568</v>
       </c>
       <c r="E32" s="56" t="s">
         <v>383</v>
@@ -23125,16 +23134,16 @@
     </row>
     <row r="33">
       <c r="A33" s="56" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E33" s="56" t="s">
         <v>383</v>
@@ -23173,16 +23182,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>383</v>
@@ -23192,7 +23201,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K35" s="13">
         <v>45431.0</v>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -110,7 +110,7 @@
     <t>eu-gdpr:A6-1-a,dpv:ExpressedConsent</t>
   </si>
   <si>
-    <t>Definition of consent: A data subject's unambigious/clear affirmative action that signifies an agreement to process their personal data (Rigo Wenning) . What is referred to as 'non-explicit consent' here is also termed as 'regular' consent in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)". This is the legal basis that requires consent but not at the level of being 'explicit'.</t>
+    <t>Definition of consent: A data subject's unambiguous/clear affirmative action that signifies an agreement to process their personal data (Rigo Wenning) . What is referred to as 'non-explicit consent' here is also termed as 'regular' consent in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)". This is the legal basis that requires consent but not at the level of being 'explicit'.</t>
   </si>
   <si>
     <t>Eva Schlehahn, Bud Bruegger, Harshvardhan J. Pandit, Rigo Wenning</t>
@@ -569,7 +569,7 @@
     <t>Art 46(2-f) certification</t>
   </si>
   <si>
-    <t>An approved certification mechanism pursuant to GDPR Article 42 together with binding and enforceable commitments of the controller or processor in the third country to appy the appropriate safeguards, including as regards individuals` rights</t>
+    <t>An approved certification mechanism pursuant to GDPR Article 42 together with binding and enforceable commitments of the controller or processor in the third country to apply the appropriate safeguards, including as regards individuals` rights</t>
   </si>
   <si>
     <t>(GDPR Art.46-2f,https://eur-lex.europa.eu/eli/reg/2016/679/art_46/par_2/pnt_f/oj)</t>
@@ -740,7 +740,7 @@
     <t>Art 49(2) legitimate interests</t>
   </si>
   <si>
-    <t>The transfer is not repetetive, concerns only a limited number of data subjects, is necessary for the purposes of compelling legitimate interests pursued by controller which are not overridden by the interests or rights and freedoms of the data subject, and controller has assessed all the circumstances surrounding the data transfer and have on the basis of that assessment provided suitable safeguards with regard to the protection of personal data.</t>
+    <t>The transfer is not repetitive, concerns only a limited number of data subjects, is necessary for the purposes of compelling legitimate interests pursued by controller which are not overridden by the interests or rights and freedoms of the data subject, and controller has assessed all the circumstances surrounding the data transfer and have on the basis of that assessment provided suitable safeguards with regard to the protection of personal data.</t>
   </si>
   <si>
     <t>dpv:DataTransferLegalBasis,dpv:LegitimateInterest</t>
@@ -959,7 +959,7 @@
     <t>A.18 Restriction of Processing</t>
   </si>
   <si>
-    <t>Input: PersonalDataHandling</t>
+    <t>Input: Process</t>
   </si>
   <si>
     <t>RightsRecipientsNotice</t>
@@ -974,13 +974,13 @@
     <t>dcat:Resource</t>
   </si>
   <si>
-    <t>A dataset or catalogue or any other resource provided in fulfilment of a Right Exercise, such as for GDPR's Art.15 regarding Right of Access or Art.20 regarding Right to Data Portability. The associated properties from DCAT and DCMI DCT vocabularies provide convenient means to express metadata such as URL for accessing the data, its temporal validity and acecss restrictions, and specific datasets present along with their schemas.</t>
+    <t>A dataset or catalogue or any other resource provided in fulfilment of a Right Exercise, such as for GDPR's Art.15 regarding Right of Access or Art.20 regarding Right to Data Portability. The associated properties from DCAT and DCMI DCT vocabularies provide convenient means to express metadata such as URL for accessing the data, its temporal validity and access restrictions, and specific datasets present along with their schemas.</t>
   </si>
   <si>
     <t>A.21 Object to Processing</t>
   </si>
   <si>
-    <t>Input: PersonalDataHandling + isImplementedUsingTechnology</t>
+    <t>Input: Process + isImplementedUsingTechnology</t>
   </si>
   <si>
     <t>A.22 Automated Decision Making</t>
@@ -1213,7 +1213,7 @@
     <t>Supplementary Measure</t>
   </si>
   <si>
-    <t>Supplementary measures are intended to additionally provide safeguards or guarentees to bring the resulting protection in line with EU requirements</t>
+    <t>Supplementary measures are intended to additionally provide safeguards or guarantees to bring the resulting protection in line with EU requirements</t>
   </si>
   <si>
     <r>
@@ -1538,7 +1538,7 @@
     <t>dct:coverage</t>
   </si>
   <si>
-    <t>For expressing coverage (e.g. jurisdictions, products, services) of the DPIA document or process. For temporal coverage, please see dct:temporal. The coverage can be expressed using dpv:PersonalDataHandling, or using another concept, or even be a link or reference to a document, or a textual description</t>
+    <t>For expressing coverage (e.g. jurisdictions, products, services) of the DPIA document or process. For temporal coverage, please see dct:temporal. The coverage can be expressed using dpv:Process, or using another concept, or even be a link or reference to a document, or a textual description</t>
   </si>
   <si>
     <t>dpv:hasStatus</t>
@@ -1946,7 +1946,7 @@
     <t>Lawfulness Principle</t>
   </si>
   <si>
-    <t>Principle stating personal data must be processed processed in a lawfull manner in relation to the data subject</t>
+    <t>Principle stating personal data must be processed processed in a lawful manner in relation to the data subject</t>
   </si>
   <si>
     <t>dpv:Principle</t>
@@ -1976,7 +1976,7 @@
     <t>PurposeLimitationPrinciple</t>
   </si>
   <si>
-    <t>PurposeLimitation Principle</t>
+    <t>Purpose Limitation Principle</t>
   </si>
   <si>
     <t>Principle stating personal data collected for specified, explicit and legitimate purposes and not further processed in a manner that is incompatible with those purposes; further processing for archiving purposes in the public interest, scientific or historical research purposes or statistical purposes shall, in accordance with Article 89(1), not be considered to be incompatible with the initial purposes</t>
@@ -1988,7 +1988,7 @@
     <t>DataMinimisationPrinciple</t>
   </si>
   <si>
-    <t>DataMinimisation Principle</t>
+    <t>Data Minimisation Principle</t>
   </si>
   <si>
     <t>Principle stating personal data must be processed adequate, relevant and limited to what is necessary in relation to the purposes for which they are processed</t>
@@ -2012,7 +2012,7 @@
     <t>StorageLimitationPrinciple</t>
   </si>
   <si>
-    <t>StorageLimitation Principle</t>
+    <t>Storage Limitation Principle</t>
   </si>
   <si>
     <t>Principle stating personal data must be kept in a form which permits identification of data subjects for no longer than is necessary for the purposes for which the personal data are processed; personal data may be stored for longer periods insofar as the personal data will be processed solely for archiving purposes in the public interest, scientific or historical research purposes or statistical purposes in accordance with Article 89(1) subject to implementation of the appropriate technical and organisational measures required by this Regulation in order to safeguard the rights and freedoms of the data subject</t>
@@ -2024,7 +2024,7 @@
     <t>IntegrityConfidentialityPrinciple</t>
   </si>
   <si>
-    <t>IntegrityConfidentiality Principle</t>
+    <t>Integrity Confidentiality Principle</t>
   </si>
   <si>
     <t>Principle stating personal data must be processed in a manner that ensures appropriate security of the personal data, including protection against unauthorised or unlawful processing and against accidental loss, destruction or damage, using appropriate technical or organisational measures</t>
@@ -2273,7 +2273,7 @@
     <t>Rejection due to Entity Informed</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because the entity already has the information</t>
+    <t>Justification that the process could not be fulfilled or was not successful because the entity already has the information</t>
   </si>
   <si>
     <t>GDPR Art. 13.4, 14.5.a</t>
@@ -2285,7 +2285,7 @@
     <t>Rejection due to Disproportionate Effort Required</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it requires a disproportionate effort</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it requires a disproportionate effort</t>
   </si>
   <si>
     <t>GDPR Art. 14.5.b</t>
@@ -2297,7 +2297,7 @@
     <t>Rejection due to Impossible to fulfil</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it is impossible to fulfill</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it is impossible to fulfill</t>
   </si>
   <si>
     <t>RejectImpairObjectives</t>
@@ -2306,7 +2306,7 @@
     <t>Rejection due to Impair Objectives</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it impairs the objectives of associated context</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it impairs the objectives of associated context</t>
   </si>
   <si>
     <t>RejectLegallyExempted</t>
@@ -2315,7 +2315,7 @@
     <t>Rejection due to Legally Exempted</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it falls under legal exemption i.e. a law allows the non-fulfilment</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it falls under legal exemption i.e. a law allows the non-fulfilment</t>
   </si>
   <si>
     <t>GDPR Art. 14.5.c</t>
@@ -2327,7 +2327,7 @@
     <t>Rejection due to Confidentiality Obligation</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it would compromise a confidentiality obligation</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it would compromise a confidentiality obligation</t>
   </si>
   <si>
     <t>GDPR Art. 14.5.d</t>
@@ -2339,7 +2339,7 @@
     <t>Rejection due to Process is Unfounded</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it was found to be based on manifestly unfounded reasons</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it was found to be based on manifestly unfounded reasons</t>
   </si>
   <si>
     <r>
@@ -2364,7 +2364,7 @@
     <t>Rejection due to Process is Excessive</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it was found to be excessive in nature</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it was found to be excessive in nature</t>
   </si>
   <si>
     <t>GDPR Art. 12.5,https://ico.org.uk/for-organisations/uk-gdpr-guidance-and-resources/individual-rights/right-of-access/when-can-we-refuse-to-comply-with-a-request/#refuse3</t>
@@ -2376,7 +2376,7 @@
     <t>Rejection due to Process is Frivolous</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it was found to be based on frivolous reasons</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it was found to be based on frivolous reasons</t>
   </si>
   <si>
     <t>GDPR Art. 12.5,https://ico.org.uk/for-organisations/uk-gdpr-guidance-and-resources/individual-rights/right-of-access/when-can-we-refuse-to-comply-with-a-request/#refuse4</t>
@@ -2388,7 +2388,7 @@
     <t>Rejection due to Process is Malicious</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because it was found to be malicious e.g. with intent to cause disruption or harassment</t>
+    <t>Justification that the process could not be fulfilled or was not successful because it was found to be malicious e.g. with intent to cause disruption or harassment</t>
   </si>
   <si>
     <t>GDPR Art. 12.5,https://ico.org.uk/for-organisations/uk-gdpr-guidance-and-resources/individual-rights/right-of-access/when-can-we-refuse-to-comply-with-a-request/#refuse5</t>
@@ -2400,7 +2400,7 @@
     <t>Rejection due to Identity Verification Failure</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because identity verification failed</t>
+    <t>Justification that the process could not be fulfilled or was not successful because identity verification failed</t>
   </si>
   <si>
     <t>GDPR Art. 12.2</t>
@@ -2415,7 +2415,7 @@
     <t>Delay due to Identity Verified</t>
   </si>
   <si>
-    <t>Justification that the process could not be fulfilled or was not successfull because identiy verification is required</t>
+    <t>Justification that the process could not be fulfilled or was not successful because identiy verification is required</t>
   </si>
   <si>
     <t>GDPR Art. 12.1,GDPR Art. 12.6</t>
@@ -2992,13 +2992,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9517,7 +9517,7 @@
       <c r="B21" s="81" t="s">
         <v>740</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="85" t="s">
         <v>741</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -9530,7 +9530,7 @@
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
-      <c r="J21" s="85" t="s">
+      <c r="J21" s="87" t="s">
         <v>742</v>
       </c>
       <c r="K21" s="63"/>
@@ -9561,7 +9561,7 @@
       <c r="B22" s="81" t="s">
         <v>744</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="81" t="s">
         <v>745</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -9574,7 +9574,7 @@
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
-      <c r="J22" s="85" t="s">
+      <c r="J22" s="87" t="s">
         <v>746</v>
       </c>
       <c r="K22" s="63"/>
@@ -9614,7 +9614,7 @@
       <c r="E23" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="J23" s="85" t="s">
+      <c r="J23" s="87" t="s">
         <v>750</v>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
       <c r="B8" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -11395,7 +11395,7 @@
       <c r="B18" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>238</v>
       </c>
       <c r="D18" s="19" t="s">

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="792">
   <si>
     <t>Term</t>
   </si>
@@ -627,9 +627,6 @@
   </si>
   <si>
     <t>(GDPR Art.49-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_49/par_1/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>changed</t>
   </si>
   <si>
     <t>A49-1-b</t>
@@ -1823,7 +1820,7 @@
     <t>Documented information about a data breach being detected</t>
   </si>
   <si>
-    <t>eu-gdpr:DataBreachReport,risk:IncidentDetectedReport</t>
+    <t>eu-gdpr:DataBreachReport,risk:IncidentDetectionReport</t>
   </si>
   <si>
     <t>DataBreachPreliminaryReport</t>
@@ -1868,7 +1865,7 @@
     <t>Register of data breaches containing facts relating to the personal data breach, its effects and the remedial action taken</t>
   </si>
   <si>
-    <t>dpv:DataBreachRegister</t>
+    <t>dpv:RecordsOfActivities</t>
   </si>
   <si>
     <t>GDPR Article 33(5)</t>
@@ -2745,7 +2742,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2987,6 +2984,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -4384,17 +4384,17 @@
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>583</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>584</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>585</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
@@ -4430,19 +4430,19 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="C4" s="69" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="D4" s="68" t="s">
         <v>589</v>
       </c>
-      <c r="D4" s="68" t="s">
-        <v>590</v>
-      </c>
       <c r="E4" s="68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
@@ -4478,19 +4478,19 @@
     </row>
     <row r="5">
       <c r="A5" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>591</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="C5" s="69" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="69" t="s">
-        <v>593</v>
-      </c>
       <c r="D5" s="68" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
@@ -4526,19 +4526,19 @@
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
+        <v>593</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>594</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="C6" s="73" t="s">
         <v>595</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>596</v>
-      </c>
       <c r="D6" s="68" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>599</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4621,13 +4621,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>602</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="2">
       <c r="A2" s="79" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -4827,26 +4827,26 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3" s="80" t="s">
         <v>604</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="C3" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="D3" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="D3" s="80" t="s">
-        <v>607</v>
-      </c>
       <c r="E3" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" s="63"/>
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K3" s="82">
         <v>45424.0</v>
@@ -4877,26 +4877,26 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>609</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="C4" s="80" t="s">
         <v>610</v>
       </c>
-      <c r="C4" s="80" t="s">
-        <v>611</v>
-      </c>
       <c r="D4" s="80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
       <c r="J4" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K4" s="82">
         <v>45424.0</v>
@@ -4927,26 +4927,26 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
+        <v>611</v>
+      </c>
+      <c r="B5" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="C5" s="83" t="s">
         <v>613</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>614</v>
-      </c>
       <c r="D5" s="80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
       <c r="J5" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K5" s="82">
         <v>45424.0</v>
@@ -4977,26 +4977,26 @@
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="80" t="s">
         <v>615</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="C6" s="81" t="s">
         <v>616</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>617</v>
-      </c>
       <c r="D6" s="80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
       <c r="J6" s="81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K6" s="82">
         <v>45424.0</v>
@@ -5027,26 +5027,26 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>621</v>
-      </c>
       <c r="D7" s="80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="81" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K7" s="82">
         <v>45424.0</v>
@@ -5077,26 +5077,26 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>625</v>
-      </c>
       <c r="D8" s="80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="81" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K8" s="82">
         <v>45424.0</v>
@@ -5127,26 +5127,26 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>629</v>
-      </c>
       <c r="D9" s="80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="81" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K9" s="82">
         <v>45424.0</v>
@@ -5177,26 +5177,26 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="38" t="s">
         <v>632</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>633</v>
-      </c>
       <c r="D10" s="80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="81" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K10" s="82">
         <v>45424.0</v>
@@ -5227,26 +5227,26 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="38" t="s">
         <v>636</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>637</v>
-      </c>
       <c r="D11" s="80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E11" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="81" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K11" s="82">
         <v>45424.0</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -5406,34 +5406,36 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="38" t="s">
         <v>641</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>643</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K3" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K3" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O3" s="47"/>
       <c r="P3" s="11"/>
@@ -5454,34 +5456,36 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>647</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K4" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K4" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O4" s="47"/>
       <c r="P4" s="11"/>
@@ -5502,34 +5506,36 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="38" t="s">
         <v>649</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>650</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K5" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K5" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O5" s="47"/>
       <c r="P5" s="11"/>
@@ -5555,41 +5561,43 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K7" s="13"/>
       <c r="O7" s="47"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>654</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="K8" s="13"/>
+        <v>654</v>
+      </c>
+      <c r="K8" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O8" s="47"/>
       <c r="P8" s="11"/>
@@ -5610,34 +5618,36 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>659</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="K9" s="13"/>
+        <v>659</v>
+      </c>
+      <c r="K9" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -5658,34 +5668,36 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>663</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="K10" s="13"/>
+        <v>663</v>
+      </c>
+      <c r="K10" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L10" s="11"/>
       <c r="M10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -5770,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -5808,36 +5820,38 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>665</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>666</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>668</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>669</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K2" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K2" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L2" s="13"/>
       <c r="M2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -5856,36 +5870,38 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>670</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="38" t="s">
         <v>671</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>672</v>
-      </c>
       <c r="D3" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>668</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>669</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K3" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K3" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L3" s="13"/>
       <c r="M3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -5904,36 +5920,38 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="51" t="s">
         <v>674</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>675</v>
-      </c>
       <c r="D4" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>668</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>669</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K4" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K4" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L4" s="13"/>
       <c r="M4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -5952,36 +5970,38 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="51" t="s">
         <v>677</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="D5" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>679</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K5" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K5" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L5" s="13"/>
       <c r="M5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O5" s="47"/>
       <c r="P5" s="11"/>
@@ -6000,36 +6020,38 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>682</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K6" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6048,36 +6070,38 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="51" t="s">
         <v>684</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>685</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="K7" s="13"/>
+        <v>643</v>
+      </c>
+      <c r="K7" s="84">
+        <v>45336.0</v>
+      </c>
       <c r="L7" s="13"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -9144,7 +9168,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -9176,10 +9200,10 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>687</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>688</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -9188,61 +9212,61 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>689</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>690</v>
       </c>
       <c r="K3" s="13"/>
       <c r="O3" s="47"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>693</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K4" s="13"/>
       <c r="O4" s="47"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>696</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K5" s="13"/>
       <c r="O5" s="47"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>699</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K6" s="13"/>
       <c r="O6" s="47"/>
@@ -9256,10 +9280,10 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B8" s="85" t="s">
         <v>700</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>701</v>
       </c>
       <c r="C8" s="10"/>
       <c r="K8" s="13"/>
@@ -9267,57 +9291,57 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>704</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K9" s="13"/>
       <c r="O9" s="47"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>707</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K10" s="13"/>
       <c r="O10" s="47"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>710</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K11" s="13"/>
       <c r="O11" s="47"/>
@@ -9331,10 +9355,10 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B13" s="85" t="s">
         <v>711</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>712</v>
       </c>
       <c r="C13" s="10"/>
       <c r="J13" s="10"/>
@@ -9342,152 +9366,152 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>715</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>716</v>
       </c>
       <c r="K14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>719</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>720</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>723</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>726</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>729</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>730</v>
       </c>
       <c r="K18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>733</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>734</v>
       </c>
       <c r="K19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="81" t="s">
+        <v>734</v>
+      </c>
+      <c r="B20" s="81" t="s">
         <v>735</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="C20" s="86" t="s">
         <v>736</v>
       </c>
-      <c r="C20" s="85" t="s">
-        <v>737</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="63"/>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
-      <c r="J20" s="86" t="s">
-        <v>738</v>
+      <c r="J20" s="87" t="s">
+        <v>737</v>
       </c>
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
@@ -9512,26 +9536,26 @@
     </row>
     <row r="21">
       <c r="A21" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="C21" s="86" t="s">
         <v>740</v>
       </c>
-      <c r="C21" s="85" t="s">
-        <v>741</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
-      <c r="J21" s="87" t="s">
-        <v>742</v>
+      <c r="J21" s="88" t="s">
+        <v>741</v>
       </c>
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
@@ -9556,26 +9580,26 @@
     </row>
     <row r="22">
       <c r="A22" s="81" t="s">
+        <v>742</v>
+      </c>
+      <c r="B22" s="81" t="s">
         <v>743</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="C22" s="81" t="s">
         <v>744</v>
       </c>
-      <c r="C22" s="81" t="s">
-        <v>745</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
-      <c r="J22" s="87" t="s">
-        <v>746</v>
+      <c r="J22" s="88" t="s">
+        <v>745</v>
       </c>
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
@@ -9600,243 +9624,243 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J23" s="88" t="s">
         <v>749</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J23" s="87" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>753</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
-      <c r="B25" s="84"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="10"/>
       <c r="J25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="B26" s="84" t="s">
-        <v>712</v>
+        <v>754</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>711</v>
       </c>
       <c r="C26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>758</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>762</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>766</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J30" s="48" t="s">
         <v>769</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J33" s="10" t="s">
         <v>775</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>779</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="38" t="s">
         <v>782</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="D35" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>783</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>787</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J37" s="10" t="s">
         <v>791</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -11042,7 +11066,7 @@
         <v>44734.0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>47</v>
@@ -11066,16 +11090,16 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>205</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>19</v>
@@ -11087,7 +11111,7 @@
         <v>199</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K12" s="21">
         <v>44139.0</v>
@@ -11102,7 +11126,7 @@
         <v>47</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
@@ -11120,16 +11144,16 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>210</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>19</v>
@@ -11141,7 +11165,7 @@
         <v>199</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K13" s="21">
         <v>44139.0</v>
@@ -11156,7 +11180,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
@@ -11174,16 +11198,16 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>19</v>
@@ -11195,7 +11219,7 @@
         <v>199</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K14" s="21">
         <v>44139.0</v>
@@ -11210,7 +11234,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
@@ -11228,13 +11252,13 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>145</v>
@@ -11249,7 +11273,7 @@
         <v>199</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K15" s="21">
         <v>44139.0</v>
@@ -11264,7 +11288,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -11282,16 +11306,16 @@
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -11303,7 +11327,7 @@
         <v>199</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K16" s="21">
         <v>44139.0</v>
@@ -11318,7 +11342,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -11336,13 +11360,13 @@
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>145</v>
@@ -11354,10 +11378,10 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="K17" s="21">
         <v>44139.0</v>
@@ -11372,7 +11396,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -11390,16 +11414,16 @@
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="D18" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>19</v>
@@ -11408,10 +11432,10 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>241</v>
       </c>
       <c r="K18" s="21">
         <v>44139.0</v>
@@ -11426,7 +11450,7 @@
         <v>47</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
@@ -11529,26 +11553,26 @@
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K2" s="32">
         <v>44139.0</v>
@@ -11558,7 +11582,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>148</v>
@@ -11583,26 +11607,26 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>252</v>
-      </c>
       <c r="D3" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K3" s="32">
         <v>44139.0</v>
@@ -11612,7 +11636,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>148</v>
@@ -11637,26 +11661,26 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>256</v>
-      </c>
       <c r="D4" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K4" s="32">
         <v>44139.0</v>
@@ -11666,7 +11690,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>148</v>
@@ -11691,26 +11715,26 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>260</v>
-      </c>
       <c r="D5" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K5" s="32">
         <v>44139.0</v>
@@ -11720,7 +11744,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>148</v>
@@ -11745,26 +11769,26 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>264</v>
-      </c>
       <c r="D6" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K6" s="32">
         <v>44139.0</v>
@@ -11774,7 +11798,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>148</v>
@@ -11799,26 +11823,26 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="C7" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>268</v>
-      </c>
       <c r="D7" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K7" s="32">
         <v>44139.0</v>
@@ -11828,7 +11852,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>148</v>
@@ -11853,26 +11877,26 @@
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>272</v>
-      </c>
       <c r="D8" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K8" s="32">
         <v>44139.0</v>
@@ -11884,7 +11908,7 @@
         <v>22</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>148</v>
@@ -11909,26 +11933,26 @@
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>276</v>
-      </c>
       <c r="D9" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K9" s="32">
         <v>44139.0</v>
@@ -11938,7 +11962,7 @@
         <v>22</v>
       </c>
       <c r="N9" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O9" s="28" t="s">
         <v>148</v>
@@ -11963,26 +11987,26 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="C10" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>280</v>
-      </c>
       <c r="D10" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K10" s="32">
         <v>44139.0</v>
@@ -11992,7 +12016,7 @@
         <v>22</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>148</v>
@@ -12017,26 +12041,26 @@
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="C11" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>284</v>
-      </c>
       <c r="D11" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K11" s="32">
         <v>44139.0</v>
@@ -12046,7 +12070,7 @@
         <v>22</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>148</v>
@@ -12071,26 +12095,26 @@
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="C12" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>288</v>
-      </c>
       <c r="D12" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K12" s="32">
         <v>44139.0</v>
@@ -12100,7 +12124,7 @@
         <v>22</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>148</v>
@@ -12125,26 +12149,26 @@
     </row>
     <row r="13">
       <c r="A13" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>292</v>
-      </c>
       <c r="D13" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K13" s="32">
         <v>44139.0</v>
@@ -12154,7 +12178,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>148</v>
@@ -12182,25 +12206,25 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" s="36"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="C16" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -12215,7 +12239,7 @@
         <v>22</v>
       </c>
       <c r="N16" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -12238,19 +12262,19 @@
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="C17" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="D17" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -12265,7 +12289,7 @@
         <v>22</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -12288,19 +12312,19 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="C18" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>305</v>
-      </c>
       <c r="D18" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -12315,7 +12339,7 @@
         <v>22</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -12338,64 +12362,64 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K19" s="40">
         <v>44874.0</v>
       </c>
       <c r="N19" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K20" s="40">
         <v>44874.0</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K21" s="40">
         <v>44874.0</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="C22" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>314</v>
-      </c>
       <c r="D22" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -12410,7 +12434,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -12433,13 +12457,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -12456,7 +12480,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -12479,44 +12503,44 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K24" s="40">
         <v>44874.0</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28">
@@ -15490,37 +15514,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>12</v>
@@ -15533,37 +15557,37 @@
         <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>22</v>
@@ -15589,37 +15613,37 @@
         <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="J3" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>22</v>
@@ -15645,37 +15669,37 @@
         <v>31</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="J4" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>22</v>
@@ -15701,37 +15725,37 @@
         <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="J5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="L5" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>22</v>
@@ -15757,37 +15781,37 @@
         <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="J6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="L6" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>22</v>
@@ -15813,37 +15837,37 @@
         <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="J7" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="L7" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>22</v>
@@ -15869,37 +15893,37 @@
         <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="D8" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="G8" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="J8" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>22</v>
@@ -15925,37 +15949,37 @@
         <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="J9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="L9" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>22</v>
@@ -15981,37 +16005,37 @@
         <v>62</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="J10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="L10" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>22</v>
@@ -16034,40 +16058,40 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="J11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="L11" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>22</v>
@@ -16093,37 +16117,37 @@
         <v>70</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="G12" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="I12" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="L12" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>22</v>
@@ -16149,37 +16173,37 @@
         <v>75</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="G13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="I13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="L13" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>22</v>
@@ -16205,37 +16229,37 @@
         <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="G14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="I14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="L14" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>22</v>
@@ -16261,37 +16285,37 @@
         <v>83</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="I15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="L15" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>22</v>
@@ -16317,37 +16341,37 @@
         <v>88</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="I16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="L16" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>22</v>
@@ -16373,37 +16397,37 @@
         <v>92</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="I17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="L17" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>22</v>
@@ -16509,26 +16533,26 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>330</v>
-      </c>
       <c r="E2" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K2" s="13">
         <v>44461.0</v>
@@ -16541,7 +16565,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -16559,26 +16583,26 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>336</v>
-      </c>
       <c r="E3" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K3" s="13">
         <v>44461.0</v>
@@ -16588,10 +16612,10 @@
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -16609,26 +16633,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>341</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K4" s="13">
         <v>44461.0</v>
@@ -16641,7 +16665,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -16659,26 +16683,26 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>345</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K5" s="13">
         <v>44461.0</v>
@@ -16691,7 +16715,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -16709,24 +16733,24 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K6" s="13">
         <v>44461.0</v>
@@ -16738,10 +16762,10 @@
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -16759,19 +16783,19 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>355</v>
-      </c>
       <c r="E7" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -16788,10 +16812,10 @@
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -16809,19 +16833,19 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>358</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -16838,10 +16862,10 @@
         <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -16859,26 +16883,26 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>362</v>
-      </c>
       <c r="E9" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K9" s="13">
         <v>44461.0</v>
@@ -16888,10 +16912,10 @@
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -16909,26 +16933,26 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>366</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K10" s="13">
         <v>44461.0</v>
@@ -16938,10 +16962,10 @@
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -17062,19 +17086,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>372</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -17110,19 +17134,19 @@
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>375</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -17158,19 +17182,19 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>378</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -17218,19 +17242,19 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -17266,17 +17290,17 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>386</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -17312,17 +17336,17 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -17370,19 +17394,19 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="D10" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -17418,17 +17442,17 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>396</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -17464,17 +17488,17 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="38" t="s">
         <v>399</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>400</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -17510,17 +17534,17 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="38" t="s">
         <v>402</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>403</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -17567,19 +17591,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>406</v>
-      </c>
       <c r="D15" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -17615,17 +17639,17 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -17661,17 +17685,17 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>413</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -17707,17 +17731,17 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>416</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -17751,17 +17775,17 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -17807,19 +17831,19 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>422</v>
-      </c>
       <c r="D21" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -17834,7 +17858,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -17853,17 +17877,17 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>426</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -17878,7 +17902,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -17897,17 +17921,17 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -17922,7 +17946,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -17951,19 +17975,19 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>434</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -17978,7 +18002,7 @@
         <v>22</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -17997,17 +18021,17 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>437</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -18022,7 +18046,7 @@
         <v>22</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -18041,17 +18065,17 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>441</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -18066,7 +18090,7 @@
         <v>22</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -18153,13 +18177,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -18191,13 +18215,13 @@
     </row>
     <row r="2">
       <c r="A2" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>445</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>446</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="50"/>
@@ -18229,13 +18253,13 @@
     </row>
     <row r="3">
       <c r="A3" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>447</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>448</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="50"/>
@@ -18267,13 +18291,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>449</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>450</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -18305,13 +18329,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>451</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>452</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -18343,13 +18367,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>453</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>454</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -18381,13 +18405,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>455</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>456</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -18419,13 +18443,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>457</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>458</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -18457,13 +18481,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>459</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>460</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -18495,13 +18519,13 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>461</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>462</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="30"/>
@@ -18533,13 +18557,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>463</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>464</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -18571,13 +18595,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>465</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>466</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -18609,13 +18633,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>467</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>468</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -18647,13 +18671,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>469</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>470</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -18685,13 +18709,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>471</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>472</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -18723,13 +18747,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="51" t="s">
         <v>473</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>474</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -18761,13 +18785,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>475</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>476</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -21810,28 +21834,28 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>478</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>480</v>
-      </c>
       <c r="E2" s="53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="K2" s="57">
         <v>45431.0</v>
@@ -21860,26 +21884,26 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>486</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K3" s="13">
         <v>45431.0</v>
@@ -21908,26 +21932,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>490</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K4" s="13">
         <v>45431.0</v>
@@ -21956,26 +21980,26 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>493</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K5" s="13">
         <v>45431.0</v>
@@ -22004,26 +22028,26 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>496</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K6" s="13">
         <v>45431.0</v>
@@ -22064,26 +22088,26 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>499</v>
-      </c>
       <c r="D8" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K8" s="13">
         <v>45431.0</v>
@@ -22116,24 +22140,24 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>503</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K9" s="13">
         <v>45431.0</v>
@@ -22166,24 +22190,24 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="38" t="s">
         <v>506</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>507</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K10" s="13">
         <v>45431.0</v>
@@ -22216,24 +22240,24 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="38" t="s">
         <v>509</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>510</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K11" s="13">
         <v>45431.0</v>
@@ -22277,26 +22301,26 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>513</v>
-      </c>
       <c r="D13" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K13" s="13">
         <v>45431.0</v>
@@ -22329,24 +22353,24 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>515</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>516</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K14" s="13">
         <v>45431.0</v>
@@ -22379,24 +22403,24 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>519</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>520</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="47" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K15" s="13">
         <v>45431.0</v>
@@ -22425,24 +22449,24 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>523</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>524</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K16" s="13">
         <v>45431.0</v>
@@ -22471,24 +22495,24 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>526</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>527</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K17" s="13">
         <v>45431.0</v>
@@ -22517,24 +22541,24 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>529</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>530</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K18" s="13">
         <v>45431.0</v>
@@ -22566,26 +22590,26 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>534</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K20" s="13">
         <v>45431.0</v>
@@ -22614,24 +22638,24 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K21" s="13">
         <v>45431.0</v>
@@ -22660,26 +22684,26 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="D22" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>542</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K22" s="13">
         <v>45431.0</v>
@@ -22708,26 +22732,26 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>545</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K23" s="13">
         <v>45431.0</v>
@@ -22756,26 +22780,26 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>548</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K24" s="13">
         <v>45431.0</v>
@@ -22804,24 +22828,24 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="38" t="s">
         <v>550</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>551</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="47" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K25" s="13">
         <v>45431.0</v>
@@ -22850,24 +22874,24 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="38" t="s">
         <v>553</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>554</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K26" s="13">
         <v>45431.0</v>
@@ -22896,24 +22920,24 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>557</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K27" s="13">
         <v>45431.0</v>
@@ -22942,26 +22966,26 @@
     </row>
     <row r="29">
       <c r="A29" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="B29" s="60" t="s">
         <v>558</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="C29" s="56" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="D29" s="56" t="s">
         <v>560</v>
       </c>
-      <c r="D29" s="56" t="s">
-        <v>561</v>
-      </c>
       <c r="E29" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K29" s="13">
         <v>45431.0</v>
@@ -22990,26 +23014,26 @@
     </row>
     <row r="30">
       <c r="A30" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="B30" s="56" t="s">
         <v>562</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="C30" s="56" t="s">
         <v>563</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="D30" s="61" t="s">
         <v>564</v>
       </c>
-      <c r="D30" s="61" t="s">
-        <v>565</v>
-      </c>
       <c r="E30" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K30" s="13">
         <v>45431.0</v>
@@ -23038,26 +23062,26 @@
     </row>
     <row r="31">
       <c r="A31" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>566</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="C31" s="56" t="s">
         <v>567</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="D31" s="55" t="s">
         <v>568</v>
       </c>
-      <c r="D31" s="55" t="s">
-        <v>569</v>
-      </c>
       <c r="E31" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K31" s="13">
         <v>45431.0</v>
@@ -23086,26 +23110,26 @@
     </row>
     <row r="32">
       <c r="A32" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="B32" s="56" t="s">
         <v>570</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="C32" s="56" t="s">
         <v>571</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>572</v>
-      </c>
       <c r="D32" s="55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K32" s="13">
         <v>45431.0</v>
@@ -23134,26 +23158,26 @@
     </row>
     <row r="33">
       <c r="A33" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="B33" s="56" t="s">
         <v>573</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="C33" s="56" t="s">
         <v>574</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="D33" s="55" t="s">
         <v>575</v>
       </c>
-      <c r="D33" s="55" t="s">
-        <v>576</v>
-      </c>
       <c r="E33" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K33" s="13">
         <v>45431.0</v>
@@ -23182,26 +23206,26 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>580</v>
-      </c>
       <c r="E35" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K35" s="13">
         <v>45431.0</v>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="870">
   <si>
     <t>Term</t>
   </si>
@@ -1017,6 +1017,24 @@
     <t>Role</t>
   </si>
   <si>
+    <t>GDPRRightsImpact</t>
+  </si>
+  <si>
+    <t>GDPR Rights Impact</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on one or more rights defined by GDPR</t>
+  </si>
+  <si>
+    <t>risk:RightsImpact</t>
+  </si>
+  <si>
+    <t>risk:RiskConcept</t>
+  </si>
+  <si>
+    <t>R,C,I</t>
+  </si>
+  <si>
     <t>A13-Impact</t>
   </si>
   <si>
@@ -1026,13 +1044,7 @@
     <t>Something that acts as or is considered as an impact on A13 Right to be Informed</t>
   </si>
   <si>
-    <t>risk:RightsImpact</t>
-  </si>
-  <si>
-    <t>risk:RiskConcept</t>
-  </si>
-  <si>
-    <t>R,C,I</t>
+    <t>eu-gdpr:GDPRRightsImpact</t>
   </si>
   <si>
     <t>A14-Impact</t>
@@ -1143,7 +1155,7 @@
     <t>A violation of A13 obligation regarding providing information</t>
   </si>
   <si>
-    <t>eu-gdpr:A13Impact</t>
+    <t>eu-gdpr:A13-Impact</t>
   </si>
   <si>
     <t xml:space="preserve">What constitutes as a violation of A13 depends on the particulars of the situation, therefore we suggest first representing the impact using the appropriate category of impact (e.g. denied, limited) and then assessing whether it constitutes as a violation </t>
@@ -4586,28 +4598,28 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="56" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K2" s="58">
         <v>45431.0</v>
@@ -4636,26 +4648,26 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K3" s="13">
         <v>45431.0</v>
@@ -4684,26 +4696,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>554</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K4" s="13">
         <v>45431.0</v>
@@ -4732,26 +4744,26 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K5" s="13">
         <v>45431.0</v>
@@ -4780,26 +4792,26 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K6" s="13">
         <v>45431.0</v>
@@ -4840,26 +4852,26 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K8" s="13">
         <v>45431.0</v>
@@ -4892,24 +4904,24 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K9" s="13">
         <v>45431.0</v>
@@ -4942,24 +4954,24 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="10" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K10" s="13">
         <v>45431.0</v>
@@ -4992,24 +5004,24 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K11" s="13">
         <v>45431.0</v>
@@ -5053,26 +5065,26 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K13" s="13">
         <v>45431.0</v>
@@ -5105,24 +5117,24 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K14" s="13">
         <v>45431.0</v>
@@ -5155,24 +5167,24 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="31" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K15" s="13">
         <v>45431.0</v>
@@ -5201,24 +5213,24 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K16" s="13">
         <v>45431.0</v>
@@ -5247,24 +5259,24 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K17" s="13">
         <v>45431.0</v>
@@ -5293,24 +5305,24 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K18" s="13">
         <v>45431.0</v>
@@ -5342,26 +5354,26 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K20" s="13">
         <v>45431.0</v>
@@ -5390,24 +5402,24 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K21" s="13">
         <v>45431.0</v>
@@ -5436,26 +5448,26 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K22" s="13">
         <v>45431.0</v>
@@ -5484,26 +5496,26 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K23" s="13">
         <v>45431.0</v>
@@ -5532,26 +5544,26 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K24" s="13">
         <v>45431.0</v>
@@ -5580,24 +5592,24 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="31" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K25" s="13">
         <v>45431.0</v>
@@ -5626,24 +5638,24 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K26" s="13">
         <v>45431.0</v>
@@ -5672,24 +5684,24 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K27" s="13">
         <v>45431.0</v>
@@ -5718,26 +5730,26 @@
     </row>
     <row r="29">
       <c r="A29" s="60" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
       <c r="H29" s="57"/>
       <c r="I29" s="57"/>
       <c r="J29" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K29" s="13">
         <v>45431.0</v>
@@ -5766,26 +5778,26 @@
     </row>
     <row r="30">
       <c r="A30" s="57" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K30" s="13">
         <v>45431.0</v>
@@ -5814,26 +5826,26 @@
     </row>
     <row r="31">
       <c r="A31" s="57" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D31" s="56" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K31" s="13">
         <v>45431.0</v>
@@ -5862,26 +5874,26 @@
     </row>
     <row r="32">
       <c r="A32" s="57" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K32" s="13">
         <v>45431.0</v>
@@ -5910,26 +5922,26 @@
     </row>
     <row r="33">
       <c r="A33" s="57" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K33" s="13">
         <v>45431.0</v>
@@ -5958,26 +5970,26 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K35" s="13">
         <v>45431.0</v>
@@ -6099,7 +6111,7 @@
     </row>
     <row r="2">
       <c r="A2" s="63" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -6133,17 +6145,17 @@
     </row>
     <row r="3">
       <c r="A3" s="67" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="69" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
@@ -6179,19 +6191,19 @@
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D4" s="69" t="s">
+        <v>662</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>658</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>654</v>
       </c>
       <c r="F4" s="71"/>
       <c r="G4" s="71"/>
@@ -6227,19 +6239,19 @@
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D5" s="69" t="s">
+        <v>662</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>658</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>654</v>
       </c>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
@@ -6275,19 +6287,19 @@
     </row>
     <row r="6">
       <c r="A6" s="69" t="s">
+        <v>666</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>667</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>668</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>662</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>663</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>664</v>
-      </c>
-      <c r="D6" s="69" t="s">
+      <c r="E6" s="69" t="s">
         <v>658</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>654</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
@@ -6328,13 +6340,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -6370,13 +6382,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -6412,7 +6424,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C10" s="39"/>
       <c r="J10" s="31"/>
@@ -6545,7 +6557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -6579,16 +6591,16 @@
     </row>
     <row r="3">
       <c r="A3" s="81" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E3" s="81" t="s">
         <v>304</v>
@@ -6598,7 +6610,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="82" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="K3" s="83">
         <v>45424.0</v>
@@ -6629,16 +6641,16 @@
     </row>
     <row r="4">
       <c r="A4" s="81" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C4" s="81" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4" s="81" t="s">
         <v>680</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>676</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>304</v>
@@ -6648,7 +6660,7 @@
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
       <c r="J4" s="82" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="K4" s="83">
         <v>45424.0</v>
@@ -6679,16 +6691,16 @@
     </row>
     <row r="5">
       <c r="A5" s="81" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>304</v>
@@ -6698,7 +6710,7 @@
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
       <c r="J5" s="82" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="K5" s="83">
         <v>45424.0</v>
@@ -6729,16 +6741,16 @@
     </row>
     <row r="6">
       <c r="A6" s="81" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E6" s="81" t="s">
         <v>304</v>
@@ -6748,7 +6760,7 @@
       <c r="H6" s="64"/>
       <c r="I6" s="64"/>
       <c r="J6" s="82" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="K6" s="83">
         <v>45424.0</v>
@@ -6779,16 +6791,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E7" s="81" t="s">
         <v>304</v>
@@ -6798,7 +6810,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="82" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K7" s="83">
         <v>45424.0</v>
@@ -6829,16 +6841,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E8" s="81" t="s">
         <v>304</v>
@@ -6848,7 +6860,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="82" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="K8" s="83">
         <v>45424.0</v>
@@ -6879,16 +6891,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E9" s="81" t="s">
         <v>304</v>
@@ -6898,7 +6910,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="82" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="K9" s="83">
         <v>45424.0</v>
@@ -6929,16 +6941,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E10" s="81" t="s">
         <v>304</v>
@@ -6948,7 +6960,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="82" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="K10" s="83">
         <v>45424.0</v>
@@ -6979,16 +6991,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>304</v>
@@ -6998,7 +7010,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="82" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K11" s="83">
         <v>45424.0</v>
@@ -7149,7 +7161,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C2" s="39"/>
       <c r="J2" s="31"/>
@@ -7158,26 +7170,26 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K3" s="85">
         <v>45465.0</v>
@@ -7187,7 +7199,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O3" s="31"/>
       <c r="P3" s="11"/>
@@ -7208,26 +7220,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K4" s="85">
         <v>45336.0</v>
@@ -7237,7 +7249,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O4" s="31"/>
       <c r="P4" s="11"/>
@@ -7258,26 +7270,26 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K5" s="85">
         <v>45336.0</v>
@@ -7287,7 +7299,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O5" s="31"/>
       <c r="P5" s="11"/>
@@ -7308,26 +7320,26 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>723</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>717</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K6" s="85">
         <v>45336.0</v>
@@ -7337,7 +7349,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O6" s="31"/>
       <c r="P6" s="11"/>
@@ -7363,33 +7375,33 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="K8" s="13"/>
       <c r="O8" s="31"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="K9" s="85">
         <v>45336.0</v>
@@ -7399,7 +7411,7 @@
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O9" s="31"/>
       <c r="P9" s="11"/>
@@ -7420,26 +7432,26 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="K10" s="85">
         <v>45336.0</v>
@@ -7449,7 +7461,7 @@
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -7470,26 +7482,26 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>732</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="K11" s="85">
         <v>45336.0</v>
@@ -7499,7 +7511,7 @@
         <v>22</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -7584,13 +7596,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7622,28 +7634,28 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K2" s="85">
         <v>45336.0</v>
@@ -7653,7 +7665,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -7672,28 +7684,28 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>741</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K3" s="85">
         <v>45336.0</v>
@@ -7703,7 +7715,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -7722,28 +7734,28 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>746</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>748</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>742</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K4" s="85">
         <v>45336.0</v>
@@ -7753,7 +7765,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -7772,28 +7784,28 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K5" s="85">
         <v>45336.0</v>
@@ -7803,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O5" s="31"/>
       <c r="P5" s="11"/>
@@ -7822,28 +7834,28 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K6" s="85">
         <v>45336.0</v>
@@ -7853,7 +7865,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -7872,28 +7884,28 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>762</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>758</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>752</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K7" s="85">
         <v>45336.0</v>
@@ -7903,7 +7915,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -10970,7 +10982,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -11002,10 +11014,10 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C2" s="39"/>
       <c r="J2" s="31"/>
@@ -11014,61 +11026,61 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="K3" s="13"/>
       <c r="O3" s="31"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>766</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>762</v>
       </c>
       <c r="K4" s="13"/>
       <c r="O4" s="31"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K5" s="13"/>
       <c r="O5" s="31"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K6" s="13"/>
       <c r="O6" s="31"/>
@@ -11082,10 +11094,10 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C8" s="10"/>
       <c r="K8" s="13"/>
@@ -11093,57 +11105,57 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K9" s="13"/>
       <c r="O9" s="31"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K10" s="13"/>
       <c r="O10" s="31"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K11" s="13"/>
       <c r="O11" s="31"/>
@@ -11157,10 +11169,10 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C13" s="10"/>
       <c r="J13" s="10"/>
@@ -11168,152 +11180,152 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="K14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>797</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>793</v>
       </c>
       <c r="K17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="K18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="K19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="82" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
       <c r="I20" s="64"/>
       <c r="J20" s="88" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="K20" s="64"/>
       <c r="L20" s="64"/>
@@ -11338,26 +11350,26 @@
     </row>
     <row r="21">
       <c r="A21" s="82" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
       <c r="I21" s="64"/>
       <c r="J21" s="89" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="K21" s="64"/>
       <c r="L21" s="64"/>
@@ -11382,26 +11394,26 @@
     </row>
     <row r="22">
       <c r="A22" s="82" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
       <c r="J22" s="89" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="K22" s="64"/>
       <c r="L22" s="64"/>
@@ -11426,42 +11438,42 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J23" s="89" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25">
@@ -11472,197 +11484,197 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J30" s="52" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>848</v>
-      </c>
       <c r="E34" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -17484,11 +17496,9 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="33" t="s">
-        <v>252</v>
-      </c>
+      <c r="K2" s="31"/>
       <c r="L2" s="32">
-        <v>45586.0</v>
+        <v>45627.0</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="28" t="s">
@@ -17524,8 +17534,8 @@
       <c r="C3" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>333</v>
+      <c r="D3" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>334</v>
@@ -17538,7 +17548,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="33" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L3" s="32">
         <v>45586.0</v>
@@ -17569,16 +17579,16 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>339</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>333</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>334</v>
@@ -17591,7 +17601,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
       <c r="K4" s="33" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L4" s="32">
         <v>45586.0</v>
@@ -17622,16 +17632,16 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>333</v>
+        <v>345</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>334</v>
@@ -17644,7 +17654,7 @@
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
       <c r="K5" s="33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L5" s="32">
         <v>45586.0</v>
@@ -17675,16 +17685,16 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>333</v>
+        <v>348</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>334</v>
@@ -17697,7 +17707,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L6" s="32">
         <v>45586.0</v>
@@ -17728,16 +17738,16 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>333</v>
+        <v>351</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>334</v>
@@ -17750,7 +17760,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L7" s="32">
         <v>45586.0</v>
@@ -17781,16 +17791,16 @@
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>333</v>
+        <v>354</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>334</v>
@@ -17803,7 +17813,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="33" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L8" s="32">
         <v>45586.0</v>
@@ -17834,16 +17844,16 @@
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>333</v>
+        <v>357</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>334</v>
@@ -17856,7 +17866,7 @@
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="33" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="L9" s="32">
         <v>45586.0</v>
@@ -17887,16 +17897,16 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>333</v>
+        <v>360</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>334</v>
@@ -17909,7 +17919,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L10" s="32">
         <v>45586.0</v>
@@ -17940,16 +17950,16 @@
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>333</v>
+        <v>363</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>334</v>
@@ -17962,7 +17972,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="33" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L11" s="32">
         <v>45586.0</v>
@@ -17993,16 +18003,16 @@
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>333</v>
+        <v>366</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>334</v>
@@ -18015,7 +18025,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="33" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L12" s="32">
         <v>45586.0</v>
@@ -18046,16 +18056,16 @@
     </row>
     <row r="13">
       <c r="A13" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>333</v>
+        <v>369</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>334</v>
@@ -18068,7 +18078,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L13" s="32">
         <v>45586.0</v>
@@ -18098,73 +18108,73 @@
       <c r="AG13" s="30"/>
     </row>
     <row r="14">
-      <c r="C14" s="37"/>
+      <c r="A14" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="32">
+        <v>45586.0</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
     </row>
     <row r="15">
-      <c r="A15" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="32">
-        <v>45586.0</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16">
       <c r="A16" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="C16" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>372</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>334</v>
@@ -18175,7 +18185,9 @@
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="32">
         <v>45586.0</v>
@@ -18184,7 +18196,7 @@
       <c r="N16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -18206,16 +18218,16 @@
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>334</v>
@@ -18257,16 +18269,16 @@
     </row>
     <row r="18">
       <c r="A18" s="46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>334</v>
@@ -18308,16 +18320,16 @@
     </row>
     <row r="19">
       <c r="A19" s="46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>334</v>
@@ -18359,16 +18371,16 @@
     </row>
     <row r="20">
       <c r="A20" s="46" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>334</v>
@@ -18410,16 +18422,16 @@
     </row>
     <row r="21">
       <c r="A21" s="46" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>334</v>
@@ -18460,35 +18472,83 @@
       <c r="AG21" s="11"/>
     </row>
     <row r="22">
-      <c r="B22" s="38"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="39"/>
-      <c r="L22" s="41"/>
+      <c r="A22" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="32">
+        <v>45586.0</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="O22" s="39"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
     </row>
     <row r="23">
       <c r="B23" s="38"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="39"/>
       <c r="L23" s="41"/>
       <c r="O23" s="39"/>
     </row>
     <row r="24">
-      <c r="B24" s="42"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="38"/>
       <c r="L24" s="41"/>
       <c r="O24" s="39"/>
     </row>
     <row r="25">
       <c r="B25" s="42"/>
       <c r="C25" s="8"/>
+      <c r="L25" s="41"/>
+      <c r="O25" s="39"/>
     </row>
     <row r="26">
       <c r="B26" s="42"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27">
       <c r="B27" s="42"/>
     </row>
     <row r="28">
-      <c r="C28" s="37"/>
+      <c r="B28" s="42"/>
     </row>
     <row r="29">
       <c r="C29" s="37"/>
@@ -21406,30 +21466,33 @@
     <row r="1000">
       <c r="C1000" s="37"/>
     </row>
+    <row r="1001">
+      <c r="C1001" s="37"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AG30">
+  <conditionalFormatting sqref="A2:AG31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$N2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AG30">
+  <conditionalFormatting sqref="A2:AG31">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$N2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2"/>
-    <hyperlink r:id="rId2" ref="K3"/>
-    <hyperlink r:id="rId3" ref="K4"/>
-    <hyperlink r:id="rId4" ref="K5"/>
-    <hyperlink r:id="rId5" ref="K6"/>
-    <hyperlink r:id="rId6" ref="K7"/>
-    <hyperlink r:id="rId7" ref="K8"/>
-    <hyperlink r:id="rId8" ref="K9"/>
-    <hyperlink r:id="rId9" ref="K10"/>
-    <hyperlink r:id="rId10" ref="K11"/>
-    <hyperlink r:id="rId11" ref="K12"/>
-    <hyperlink r:id="rId12" ref="K13"/>
+    <hyperlink r:id="rId1" ref="K3"/>
+    <hyperlink r:id="rId2" ref="K4"/>
+    <hyperlink r:id="rId3" ref="K5"/>
+    <hyperlink r:id="rId4" ref="K6"/>
+    <hyperlink r:id="rId5" ref="K7"/>
+    <hyperlink r:id="rId6" ref="K8"/>
+    <hyperlink r:id="rId7" ref="K9"/>
+    <hyperlink r:id="rId8" ref="K10"/>
+    <hyperlink r:id="rId9" ref="K11"/>
+    <hyperlink r:id="rId10" ref="K12"/>
+    <hyperlink r:id="rId11" ref="K13"/>
+    <hyperlink r:id="rId12" ref="K14"/>
   </hyperlinks>
   <drawing r:id="rId13"/>
 </worksheet>
@@ -21499,37 +21562,37 @@
         <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>22</v>
@@ -21555,37 +21618,37 @@
         <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>22</v>
@@ -21611,37 +21674,37 @@
         <v>31</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>22</v>
@@ -21667,37 +21730,37 @@
         <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>22</v>
@@ -21723,37 +21786,37 @@
         <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>22</v>
@@ -21779,37 +21842,37 @@
         <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>22</v>
@@ -21835,37 +21898,37 @@
         <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>22</v>
@@ -21891,37 +21954,37 @@
         <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>22</v>
@@ -21947,37 +22010,37 @@
         <v>62</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>22</v>
@@ -22000,40 +22063,40 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>22</v>
@@ -22059,37 +22122,37 @@
         <v>70</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>22</v>
@@ -22115,37 +22178,37 @@
         <v>75</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>22</v>
@@ -22171,37 +22234,37 @@
         <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>22</v>
@@ -22227,37 +22290,37 @@
         <v>83</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>22</v>
@@ -22283,37 +22346,37 @@
         <v>88</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>22</v>
@@ -22339,37 +22402,37 @@
         <v>92</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>22</v>
@@ -22475,16 +22538,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>304</v>
@@ -22494,7 +22557,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="48" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K2" s="13">
         <v>44461.0</v>
@@ -22507,7 +22570,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -22525,16 +22588,16 @@
     </row>
     <row r="3">
       <c r="A3" s="42" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>304</v>
@@ -22544,7 +22607,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="49" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K3" s="13">
         <v>44461.0</v>
@@ -22554,10 +22617,10 @@
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -22575,16 +22638,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>404</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>304</v>
@@ -22594,7 +22657,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="48" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K4" s="13">
         <v>44461.0</v>
@@ -22607,7 +22670,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -22625,16 +22688,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>304</v>
@@ -22644,7 +22707,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="48" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K5" s="13">
         <v>44461.0</v>
@@ -22657,7 +22720,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -22675,13 +22738,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="39" t="s">
@@ -22692,7 +22755,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="48" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K6" s="13">
         <v>44461.0</v>
@@ -22704,10 +22767,10 @@
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -22725,16 +22788,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>304</v>
@@ -22754,10 +22817,10 @@
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -22775,16 +22838,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>304</v>
@@ -22804,10 +22867,10 @@
         <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -22825,16 +22888,16 @@
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>304</v>
@@ -22844,7 +22907,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="51" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K9" s="13">
         <v>44461.0</v>
@@ -22854,10 +22917,10 @@
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -22875,16 +22938,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>304</v>
@@ -22894,7 +22957,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="48" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K10" s="13">
         <v>44461.0</v>
@@ -22904,10 +22967,10 @@
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -23028,16 +23091,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>304</v>
@@ -23076,16 +23139,16 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>304</v>
@@ -23124,16 +23187,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>440</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>304</v>
@@ -23184,19 +23247,19 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -23232,17 +23295,17 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -23278,17 +23341,17 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -23336,19 +23399,19 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -23384,17 +23447,17 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -23430,17 +23493,17 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -23476,17 +23539,17 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -23533,19 +23596,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -23581,17 +23644,17 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -23627,17 +23690,17 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -23673,17 +23736,17 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="39" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -23717,17 +23780,17 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -23773,19 +23836,19 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -23800,7 +23863,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -23819,17 +23882,17 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -23844,7 +23907,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -23863,17 +23926,17 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -23888,7 +23951,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -23917,19 +23980,19 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -23944,7 +24007,7 @@
         <v>22</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -23963,17 +24026,17 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -23988,7 +24051,7 @@
         <v>22</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -24007,17 +24070,17 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -24032,7 +24095,7 @@
         <v>22</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -24119,13 +24182,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -24157,13 +24220,13 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="53"/>
@@ -24195,13 +24258,13 @@
     </row>
     <row r="3">
       <c r="A3" s="53" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="53"/>
@@ -24233,13 +24296,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -24271,13 +24334,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -24309,13 +24372,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -24347,13 +24410,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -24385,13 +24448,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -24423,13 +24486,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -24461,13 +24524,13 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="30"/>
@@ -24499,13 +24562,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -24537,13 +24600,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -24575,13 +24638,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -24613,13 +24676,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -24651,13 +24714,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -24689,13 +24752,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -24727,13 +24790,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -2243,21 +2243,7 @@
         <color rgb="FF000000"/>
         <u/>
       </rPr>
-      <t>(GDPR Art.46,</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://eur-lex.europa.eu/eli/reg/2016/679/art_46/pnt_c/oj)</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>,(EDPB Recommendations 01/2020 on Supplementary Measures and Transfer Tools,</t>
+      <t>(GDPR Art.46 and EDPB Recommendations 01/2020 on Supplementary Measures and Transfer Tools,</t>
     </r>
     <r>
       <rPr>
@@ -26789,14 +26775,8 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="N7:P7"/>
@@ -26805,13 +26785,19 @@
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
     <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="N28:P28"/>
     <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
   </mergeCells>
   <conditionalFormatting sqref="A39:C40 D39:E49 F39:I40 J39:J49 K39:AF40 F42 F44 F46 F48">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1121">
   <si>
     <t>Concept</t>
   </si>
@@ -1157,7 +1157,7 @@
     <t>Right to rectification</t>
   </si>
   <si>
-    <t>GDPR Art.16,https://eur-lex.europa.eu/eli/reg/2016/679/art_16/oj)</t>
+    <t>(GDPR Art.16,https://eur-lex.europa.eu/eli/reg/2016/679/art_16/oj)</t>
   </si>
   <si>
     <t>A17</t>
@@ -1169,7 +1169,20 @@
     <t>Right to erasure ('Right to be forgotten')</t>
   </si>
   <si>
-    <t>GDPR Art.17,https://eur-lex.europa.eu/eli/reg/2016/679/art_17/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.17,https://eur-lex.europa.eu/eli/reg/2016/679/art_17/oj)</t>
+    </r>
   </si>
   <si>
     <t>A18</t>
@@ -1181,7 +1194,20 @@
     <t>Right to restriction of processing</t>
   </si>
   <si>
-    <t>GDPR Art.18,https://eur-lex.europa.eu/eli/reg/2016/679/art_18/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.18,https://eur-lex.europa.eu/eli/reg/2016/679/art_18/oj)</t>
+    </r>
   </si>
   <si>
     <t>A20</t>
@@ -1193,7 +1219,20 @@
     <t>Right to data portability</t>
   </si>
   <si>
-    <t>GDPR Art.20,https://eur-lex.europa.eu/eli/reg/2016/679/art_20/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.20,https://eur-lex.europa.eu/eli/reg/2016/679/art_20/oj)</t>
+    </r>
   </si>
   <si>
     <t>A21</t>
@@ -1271,7 +1310,20 @@
     <t>Right to lodge a complaint with a supervisory authority</t>
   </si>
   <si>
-    <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
+    </r>
   </si>
   <si>
     <t>A78</t>
@@ -1283,7 +1335,20 @@
     <t>Right to an effective judicial remedy against a legally binding decision of a supervisory authority concerning natural or legal person</t>
   </si>
   <si>
-    <t>GDPR Art.78,https://eur-lex.europa.eu/eli/reg/2016/679/art_78/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.78,https://eur-lex.europa.eu/eli/reg/2016/679/art_78/oj)</t>
+    </r>
   </si>
   <si>
     <t>A79</t>
@@ -1295,7 +1360,20 @@
     <t>Right to an effective judicial remedy where the data subject considers that his or her rights have been infringed as a result of the processing of his or her personal data</t>
   </si>
   <si>
-    <t>GDPR Art.79,https://eur-lex.europa.eu/eli/reg/2016/679/art_79/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.79,https://eur-lex.europa.eu/eli/reg/2016/679/art_79/oj)</t>
+    </r>
   </si>
   <si>
     <t>Exercising Rights</t>
@@ -1976,6 +2054,22 @@
     <t>Something that acts as or is considered as an impact on A17 Right to Erasure</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.17,https://eur-lex.europa.eu/eli/reg/2016/679/art_17/oj)</t>
+    </r>
+  </si>
+  <si>
     <t>A18-Impact</t>
   </si>
   <si>
@@ -1985,6 +2079,22 @@
     <t>Something that acts as or is considered as an impact on A18 Right to Restrict Processing</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.18,https://eur-lex.europa.eu/eli/reg/2016/679/art_18/oj)</t>
+    </r>
+  </si>
+  <si>
     <t>A19-Impact</t>
   </si>
   <si>
@@ -2003,6 +2113,22 @@
     <t>Something that acts as or is considered as an impact on A20 Right to Data Portability</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.20,https://eur-lex.europa.eu/eli/reg/2016/679/art_20/oj)</t>
+    </r>
+  </si>
+  <si>
     <t>A21-Impact</t>
   </si>
   <si>
@@ -2037,6 +2163,22 @@
   </si>
   <si>
     <t>Something that acts as or is considered as an impact on A77 Right to Complaint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
+    </r>
   </si>
   <si>
     <t>A13-Violated</t>
@@ -5062,16 +5204,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>428</v>
@@ -5081,7 +5223,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="55" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="K2" s="7">
         <v>44461.0</v>
@@ -5094,7 +5236,7 @@
         <v>87</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -5112,16 +5254,16 @@
     </row>
     <row r="3">
       <c r="A3" s="44" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>263</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>428</v>
@@ -5130,10 +5272,10 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="8" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="K3" s="7">
         <v>44461.0</v>
@@ -5143,10 +5285,10 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -5164,16 +5306,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>708</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>704</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>428</v>
@@ -5183,7 +5325,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="55" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K4" s="7">
         <v>44461.0</v>
@@ -5196,7 +5338,7 @@
         <v>87</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -5214,16 +5356,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>428</v>
@@ -5233,7 +5375,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="55" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K5" s="7">
         <v>44461.0</v>
@@ -5246,7 +5388,7 @@
         <v>87</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -5264,13 +5406,13 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="41" t="s">
@@ -5281,7 +5423,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="55" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="K6" s="7">
         <v>44461.0</v>
@@ -5293,10 +5435,10 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -5314,16 +5456,16 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>428</v>
@@ -5343,10 +5485,10 @@
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -5364,16 +5506,16 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>428</v>
@@ -5393,10 +5535,10 @@
         <v>11</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -5414,16 +5556,16 @@
     </row>
     <row r="9">
       <c r="A9" s="57" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>428</v>
@@ -5433,7 +5575,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="58" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="K9" s="7">
         <v>44461.0</v>
@@ -5443,10 +5585,10 @@
         <v>11</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -5464,16 +5606,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>428</v>
@@ -5483,7 +5625,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="55" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="K10" s="7">
         <v>44461.0</v>
@@ -5493,10 +5635,10 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -5617,16 +5759,16 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>428</v>
@@ -5665,16 +5807,16 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>428</v>
@@ -5713,16 +5855,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>745</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>428</v>
@@ -5773,16 +5915,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -5821,17 +5963,17 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -5867,17 +6009,17 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -5925,16 +6067,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>86</v>
@@ -5973,17 +6115,17 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -6019,17 +6161,17 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="8" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -6065,17 +6207,17 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -6122,16 +6264,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>86</v>
@@ -6170,17 +6312,17 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6216,17 +6358,17 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6262,17 +6404,17 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="41" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -6306,17 +6448,17 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -6362,16 +6504,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>86</v>
@@ -6389,7 +6531,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -6408,17 +6550,17 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -6433,7 +6575,7 @@
         <v>11</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -6452,17 +6594,17 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6477,7 +6619,7 @@
         <v>11</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -6506,16 +6648,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>86</v>
@@ -6533,7 +6675,7 @@
         <v>11</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -6552,17 +6694,17 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6577,7 +6719,7 @@
         <v>11</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -6596,17 +6738,17 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -6621,7 +6763,7 @@
         <v>11</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -6708,13 +6850,13 @@
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
@@ -6746,13 +6888,13 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="60"/>
@@ -6784,13 +6926,13 @@
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="60"/>
@@ -6822,13 +6964,13 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -6860,13 +7002,13 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -6898,13 +7040,13 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -6936,13 +7078,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -6974,13 +7116,13 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7012,13 +7154,13 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -7050,13 +7192,13 @@
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="31"/>
@@ -7088,13 +7230,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -7126,13 +7268,13 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7164,13 +7306,13 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -7202,13 +7344,13 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7240,13 +7382,13 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -7278,13 +7420,13 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7316,13 +7458,13 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -10365,16 +10507,16 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>86</v>
@@ -10383,10 +10525,10 @@
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
       <c r="I2" s="47" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="K2" s="64">
         <v>45431.0</v>
@@ -10415,16 +10557,16 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>86</v>
@@ -10434,7 +10576,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K3" s="7">
         <v>45431.0</v>
@@ -10463,16 +10605,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>858</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>854</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>86</v>
@@ -10482,7 +10624,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K4" s="7">
         <v>45431.0</v>
@@ -10511,16 +10653,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>86</v>
@@ -10530,7 +10672,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K5" s="7">
         <v>45431.0</v>
@@ -10559,16 +10701,16 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -10578,7 +10720,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K6" s="7">
         <v>45431.0</v>
@@ -10619,16 +10761,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>86</v>
@@ -10638,7 +10780,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K8" s="7">
         <v>45431.0</v>
@@ -10671,24 +10813,24 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K9" s="7">
         <v>45431.0</v>
@@ -10721,24 +10863,24 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K10" s="7">
         <v>45431.0</v>
@@ -10771,24 +10913,24 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K11" s="7">
         <v>45431.0</v>
@@ -10832,16 +10974,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>86</v>
@@ -10851,7 +10993,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K13" s="7">
         <v>45431.0</v>
@@ -10884,24 +11026,24 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K14" s="7">
         <v>45431.0</v>
@@ -10934,24 +11076,24 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="32" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="K15" s="7">
         <v>45431.0</v>
@@ -10980,24 +11122,24 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K16" s="7">
         <v>45431.0</v>
@@ -11026,24 +11168,24 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K17" s="7">
         <v>45431.0</v>
@@ -11072,24 +11214,24 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K18" s="7">
         <v>45431.0</v>
@@ -11121,16 +11263,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>86</v>
@@ -11140,7 +11282,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K20" s="7">
         <v>45431.0</v>
@@ -11169,24 +11311,24 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K21" s="7">
         <v>45431.0</v>
@@ -11215,26 +11357,26 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>910</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>906</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K22" s="7">
         <v>45431.0</v>
@@ -11263,26 +11405,26 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>910</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>906</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K23" s="7">
         <v>45431.0</v>
@@ -11311,26 +11453,26 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>920</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>916</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>910</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>906</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="8" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K24" s="7">
         <v>45431.0</v>
@@ -11359,24 +11501,24 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="32" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="K25" s="7">
         <v>45431.0</v>
@@ -11405,24 +11547,24 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K26" s="7">
         <v>45431.0</v>
@@ -11451,24 +11593,24 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K27" s="7">
         <v>45431.0</v>
@@ -11497,16 +11639,16 @@
     </row>
     <row r="29">
       <c r="A29" s="66" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>86</v>
@@ -11516,7 +11658,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
       <c r="J29" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K29" s="7">
         <v>45431.0</v>
@@ -11545,16 +11687,16 @@
     </row>
     <row r="30">
       <c r="A30" s="46" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="E30" s="46" t="s">
         <v>86</v>
@@ -11564,7 +11706,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
       <c r="J30" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K30" s="7">
         <v>45431.0</v>
@@ -11593,16 +11735,16 @@
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>86</v>
@@ -11612,7 +11754,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
       <c r="J31" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K31" s="7">
         <v>45431.0</v>
@@ -11641,16 +11783,16 @@
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>86</v>
@@ -11660,7 +11802,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
       <c r="J32" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K32" s="7">
         <v>45431.0</v>
@@ -11689,16 +11831,16 @@
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="E33" s="46" t="s">
         <v>86</v>
@@ -11708,7 +11850,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="46"/>
       <c r="J33" s="32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K33" s="7">
         <v>45431.0</v>
@@ -11737,16 +11879,16 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>86</v>
@@ -11756,7 +11898,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="K35" s="7">
         <v>45431.0</v>
@@ -11785,13 +11927,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="8" t="s">
@@ -11831,16 +11973,16 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>459</v>
@@ -11850,7 +11992,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="8" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="K38" s="7">
         <v>45643.0</v>
@@ -11881,16 +12023,16 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>459</v>
@@ -11900,7 +12042,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="8" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="K39" s="7">
         <v>45643.0</v>
@@ -11931,16 +12073,16 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>459</v>
@@ -11950,7 +12092,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="8" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="K40" s="7">
         <v>45643.0</v>
@@ -11981,16 +12123,16 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>459</v>
@@ -12000,7 +12142,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="8" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="K41" s="7">
         <v>45643.0</v>
@@ -12031,16 +12173,16 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>459</v>
@@ -12050,7 +12192,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="8" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="K42" s="7">
         <v>45643.0</v>
@@ -12174,7 +12316,7 @@
     </row>
     <row r="2">
       <c r="A2" s="69" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -12208,17 +12350,17 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="74" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
@@ -12254,19 +12396,19 @@
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="D4" s="74" t="s">
+        <v>989</v>
+      </c>
+      <c r="E4" s="74" t="s">
         <v>985</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>981</v>
       </c>
       <c r="F4" s="76"/>
       <c r="G4" s="76"/>
@@ -12302,19 +12444,19 @@
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="D5" s="74" t="s">
+        <v>989</v>
+      </c>
+      <c r="E5" s="74" t="s">
         <v>985</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>981</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
@@ -12350,19 +12492,19 @@
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>994</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>995</v>
+      </c>
+      <c r="D6" s="74" t="s">
         <v>989</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>990</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>991</v>
-      </c>
-      <c r="D6" s="74" t="s">
+      <c r="E6" s="74" t="s">
         <v>985</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>981</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="76"/>
@@ -12403,13 +12545,13 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -12445,13 +12587,13 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -12487,7 +12629,7 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="C10" s="41"/>
       <c r="J10" s="32"/>
@@ -12620,7 +12762,7 @@
     </row>
     <row r="2">
       <c r="A2" s="85" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -12654,16 +12796,16 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E3" s="86" t="s">
         <v>428</v>
@@ -12673,7 +12815,7 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="50" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="K3" s="87">
         <v>45424.0</v>
@@ -12704,16 +12846,16 @@
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C4" s="86" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D4" s="86" t="s">
         <v>1007</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>1003</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>428</v>
@@ -12723,7 +12865,7 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="50" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="K4" s="87">
         <v>45424.0</v>
@@ -12754,16 +12896,16 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E5" s="86" t="s">
         <v>428</v>
@@ -12773,7 +12915,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
       <c r="J5" s="50" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="K5" s="87">
         <v>45424.0</v>
@@ -12804,16 +12946,16 @@
     </row>
     <row r="6">
       <c r="A6" s="86" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>428</v>
@@ -12823,7 +12965,7 @@
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
       <c r="J6" s="50" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="K6" s="87">
         <v>45424.0</v>
@@ -12854,16 +12996,16 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>428</v>
@@ -12873,7 +13015,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="50" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="K7" s="87">
         <v>45424.0</v>
@@ -12904,16 +13046,16 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E8" s="86" t="s">
         <v>428</v>
@@ -12923,7 +13065,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="50" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="K8" s="87">
         <v>45424.0</v>
@@ -12954,16 +13096,16 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>428</v>
@@ -12973,7 +13115,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="50" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="K9" s="87">
         <v>45424.0</v>
@@ -13004,16 +13146,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>428</v>
@@ -13023,7 +13165,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="50" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="K10" s="87">
         <v>45424.0</v>
@@ -13054,16 +13196,16 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>428</v>
@@ -13073,7 +13215,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="50" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="K11" s="87">
         <v>45424.0</v>
@@ -13224,7 +13366,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="C2" s="41"/>
       <c r="J2" s="32"/>
@@ -13233,16 +13375,16 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>86</v>
@@ -13252,7 +13394,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K3" s="89">
         <v>45465.0</v>
@@ -13262,7 +13404,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="9"/>
@@ -13283,16 +13425,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>86</v>
@@ -13302,7 +13444,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K4" s="89">
         <v>45336.0</v>
@@ -13312,7 +13454,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O4" s="32"/>
       <c r="P4" s="9"/>
@@ -13333,16 +13475,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>86</v>
@@ -13352,7 +13494,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K5" s="89">
         <v>45336.0</v>
@@ -13362,7 +13504,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="9"/>
@@ -13383,16 +13525,16 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>1048</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>1044</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -13402,7 +13544,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K6" s="89">
         <v>45336.0</v>
@@ -13412,7 +13554,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="9"/>
@@ -13438,23 +13580,23 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="K8" s="7"/>
       <c r="O8" s="32"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>86</v>
@@ -13464,7 +13606,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="K9" s="89">
         <v>45336.0</v>
@@ -13474,7 +13616,7 @@
         <v>11</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="9"/>
@@ -13495,16 +13637,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>86</v>
@@ -13514,7 +13656,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="K10" s="89">
         <v>45336.0</v>
@@ -13524,7 +13666,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -13545,16 +13687,16 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>1063</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>1059</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>86</v>
@@ -13564,7 +13706,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="8" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="K11" s="89">
         <v>45336.0</v>
@@ -13574,7 +13716,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -13598,16 +13740,16 @@
     </row>
     <row r="13">
       <c r="A13" s="90" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>86</v>
@@ -13617,7 +13759,7 @@
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
       <c r="J13" s="50" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="K13" s="87">
         <v>45643.0</v>
@@ -13648,16 +13790,16 @@
     </row>
     <row r="14">
       <c r="A14" s="51" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>86</v>
@@ -13667,7 +13809,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
       <c r="J14" s="50" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="K14" s="87">
         <v>45643.0</v>
@@ -13698,16 +13840,16 @@
     </row>
     <row r="15">
       <c r="A15" s="51" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>86</v>
@@ -13717,7 +13859,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="50" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="K15" s="87">
         <v>45643.0</v>
@@ -13748,16 +13890,16 @@
     </row>
     <row r="16">
       <c r="A16" s="92" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>86</v>
@@ -13767,7 +13909,7 @@
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="50" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="K16" s="87">
         <v>45643.0</v>
@@ -13798,16 +13940,16 @@
     </row>
     <row r="17">
       <c r="A17" s="92" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>86</v>
@@ -13817,7 +13959,7 @@
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
       <c r="J17" s="50" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="K17" s="87">
         <v>45643.0</v>
@@ -13848,16 +13990,16 @@
     </row>
     <row r="18">
       <c r="A18" s="51" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>86</v>
@@ -13867,7 +14009,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
       <c r="J18" s="50" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="K18" s="87">
         <v>45643.0</v>
@@ -13898,16 +14040,16 @@
     </row>
     <row r="19">
       <c r="A19" s="51" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>86</v>
@@ -13917,7 +14059,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
       <c r="J19" s="50" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="K19" s="87">
         <v>45643.0</v>
@@ -14000,13 +14142,13 @@
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
@@ -14038,28 +14180,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K2" s="89">
         <v>45336.0</v>
@@ -14069,7 +14211,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -14088,28 +14230,28 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C3" s="41" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>1099</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K3" s="89">
         <v>45336.0</v>
@@ -14119,7 +14261,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -14138,28 +14280,28 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>1100</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K4" s="89">
         <v>45336.0</v>
@@ -14169,7 +14311,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -14188,28 +14330,28 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K5" s="89">
         <v>45336.0</v>
@@ -14219,7 +14361,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="9"/>
@@ -14238,28 +14380,28 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K6" s="89">
         <v>45336.0</v>
@@ -14269,7 +14411,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -14288,28 +14430,28 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>1110</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K7" s="89">
         <v>45336.0</v>
@@ -14319,7 +14461,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -27180,7 +27322,7 @@
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="34" t="s">
-        <v>380</v>
+        <v>649</v>
       </c>
       <c r="L7" s="33">
         <v>45586.0</v>
@@ -27211,13 +27353,13 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>636</v>
@@ -27233,7 +27375,7 @@
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="34" t="s">
-        <v>384</v>
+        <v>653</v>
       </c>
       <c r="L8" s="33">
         <v>45586.0</v>
@@ -27264,13 +27406,13 @@
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>636</v>
@@ -27317,13 +27459,13 @@
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>636</v>
@@ -27339,7 +27481,7 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="34" t="s">
-        <v>388</v>
+        <v>660</v>
       </c>
       <c r="L10" s="33">
         <v>45586.0</v>
@@ -27370,13 +27512,13 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>636</v>
@@ -27423,13 +27565,13 @@
     </row>
     <row r="12">
       <c r="A12" s="29" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>636</v>
@@ -27476,13 +27618,13 @@
     </row>
     <row r="13">
       <c r="A13" s="29" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>636</v>
@@ -27529,13 +27671,13 @@
     </row>
     <row r="14">
       <c r="A14" s="29" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>636</v>
@@ -27551,7 +27693,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="34" t="s">
-        <v>414</v>
+        <v>673</v>
       </c>
       <c r="L14" s="33">
         <v>45586.0</v>
@@ -27585,16 +27727,16 @@
     </row>
     <row r="16">
       <c r="A16" s="54" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>631</v>
@@ -27606,7 +27748,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="8" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="33">
@@ -27638,16 +27780,16 @@
     </row>
     <row r="17">
       <c r="A17" s="54" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>673</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>631</v>
@@ -27689,16 +27831,16 @@
     </row>
     <row r="18">
       <c r="A18" s="54" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>631</v>
@@ -27740,16 +27882,16 @@
     </row>
     <row r="19">
       <c r="A19" s="54" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>631</v>
@@ -27791,16 +27933,16 @@
     </row>
     <row r="20">
       <c r="A20" s="54" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>631</v>
@@ -27842,16 +27984,16 @@
     </row>
     <row r="21">
       <c r="A21" s="54" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>631</v>
@@ -27893,16 +28035,16 @@
     </row>
     <row r="22">
       <c r="A22" s="54" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>631</v>
@@ -30982,37 +31124,37 @@
         <v>123</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>11</v>
@@ -31038,37 +31180,37 @@
         <v>130</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>11</v>
@@ -31094,37 +31236,37 @@
         <v>137</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>11</v>
@@ -31150,37 +31292,37 @@
         <v>142</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>11</v>
@@ -31206,37 +31348,37 @@
         <v>149</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>11</v>
@@ -31262,37 +31404,37 @@
         <v>154</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>11</v>
@@ -31318,37 +31460,37 @@
         <v>158</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>11</v>
@@ -31374,37 +31516,37 @@
         <v>163</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>11</v>
@@ -31430,37 +31572,37 @@
         <v>168</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>11</v>
@@ -31483,40 +31625,40 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>11</v>
@@ -31542,37 +31684,37 @@
         <v>176</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>11</v>
@@ -31598,37 +31740,37 @@
         <v>181</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>11</v>
@@ -31654,37 +31796,37 @@
         <v>185</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>11</v>
@@ -31710,37 +31852,37 @@
         <v>189</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>11</v>
@@ -31766,37 +31908,37 @@
         <v>194</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>11</v>
@@ -31822,37 +31964,37 @@
         <v>198</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>11</v>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -20,6 +20,7 @@
     <sheet state="visible" name="GDPR_principles" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="GDPR_entities" sheetId="16" r:id="rId19"/>
     <sheet state="visible" name="GDPR_entities_properties" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="GDPR_purpose_compatibility" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1135">
   <si>
     <t>Concept</t>
   </si>
@@ -290,6 +291,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>modified</t>
+  </si>
+  <si>
     <t>Harshvardhan J. Pandit</t>
   </si>
   <si>
@@ -414,9 +418,6 @@
   </si>
   <si>
     <t>(GDPR Art.6-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>modified</t>
   </si>
   <si>
     <t>A6-1-a-non-explicit-consent</t>
@@ -3609,6 +3610,48 @@
   <si>
     <t>Indicates the local supervisory authority</t>
   </si>
+  <si>
+    <t>PurposeCompatibility</t>
+  </si>
+  <si>
+    <t>Purpose Compatibility</t>
+  </si>
+  <si>
+    <t>An assessment of the compatbility with a specific Purpose of processing personal data as defined and interpreted under the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:ReuseCompatibility</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Hernandez</t>
+  </si>
+  <si>
+    <t>PurposeCompatible</t>
+  </si>
+  <si>
+    <t>Purpose Compatible</t>
+  </si>
+  <si>
+    <t>An assessment that the specified use or purpose is compatible with the Purpose of processing personal data as defined and interpreted under the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:PrimaryUse</t>
+  </si>
+  <si>
+    <t>eu-gdpr:PurposeCompatibility</t>
+  </si>
+  <si>
+    <t>PurposeIncompatible</t>
+  </si>
+  <si>
+    <t>Purpose Incompatible</t>
+  </si>
+  <si>
+    <t>An assessment that the specified use or purpose is incompatible with the Purpose of processing personal data as defined and interpreted under the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:SecondaryUse</t>
+  </si>
 </sst>
 </file>
 
@@ -3617,7 +3660,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3756,8 +3799,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3786,6 +3835,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -3839,7 +3894,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4109,6 +4164,36 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4199,6 +4284,10 @@
 </file>
 
 <file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5233,7 +5322,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>705</v>
@@ -5335,7 +5424,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>705</v>
@@ -5385,7 +5474,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" s="34" t="s">
         <v>705</v>
@@ -5786,7 +5875,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>136</v>
@@ -5834,7 +5923,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="34" t="s">
         <v>136</v>
@@ -5882,7 +5971,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>136</v>
@@ -5942,7 +6031,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" s="34" t="s">
         <v>136</v>
@@ -5988,7 +6077,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="34" t="s">
         <v>136</v>
@@ -6034,7 +6123,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" s="34" t="s">
         <v>136</v>
@@ -6094,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>136</v>
@@ -6140,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11" s="34" t="s">
         <v>136</v>
@@ -6186,7 +6275,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O12" s="34" t="s">
         <v>136</v>
@@ -6232,7 +6321,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" s="34" t="s">
         <v>136</v>
@@ -6291,7 +6380,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>136</v>
@@ -6337,7 +6426,7 @@
         <v>11</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>136</v>
@@ -6383,7 +6472,7 @@
         <v>11</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O17" s="34" t="s">
         <v>136</v>
@@ -6429,7 +6518,7 @@
         <v>11</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O18" s="32"/>
       <c r="P18" s="9"/>
@@ -6473,7 +6562,7 @@
         <v>11</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O19" s="34" t="s">
         <v>136</v>
@@ -10790,7 +10879,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" s="34" t="s">
         <v>136</v>
@@ -10840,7 +10929,7 @@
         <v>11</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O9" s="34" t="s">
         <v>136</v>
@@ -10890,7 +10979,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>136</v>
@@ -10940,7 +11029,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11" s="34" t="s">
         <v>136</v>
@@ -11003,7 +11092,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" s="34" t="s">
         <v>136</v>
@@ -11053,7 +11142,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="34" t="s">
         <v>136</v>
@@ -12375,7 +12464,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="77"/>
       <c r="P3" s="76"/>
@@ -12423,7 +12512,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" s="77"/>
       <c r="P4" s="76"/>
@@ -12471,7 +12560,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" s="77"/>
       <c r="P5" s="76"/>
@@ -12519,7 +12608,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" s="77"/>
       <c r="P6" s="76"/>
@@ -13769,7 +13858,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
@@ -13819,7 +13908,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
@@ -13869,7 +13958,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
@@ -13919,7 +14008,7 @@
         <v>11</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
@@ -13969,7 +14058,7 @@
         <v>11</v>
       </c>
       <c r="N17" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
@@ -14019,7 +14108,7 @@
         <v>11</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
@@ -14069,7 +14158,7 @@
         <v>11</v>
       </c>
       <c r="N19" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O19" s="51"/>
       <c r="P19" s="51"/>
@@ -17491,6 +17580,219 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="85" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="98">
+        <v>45827.0</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="99" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="98">
+        <v>45827.0</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L3" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="99" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="98">
+        <v>45827.0</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -17564,393 +17866,260 @@
       <c r="C2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
       <c r="J2" s="17"/>
       <c r="K2" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7">
+        <v>45860.0</v>
+      </c>
       <c r="M2" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
       <c r="K3" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7">
+        <v>45861.0</v>
+      </c>
       <c r="M3" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="K4" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <v>45862.0</v>
+      </c>
       <c r="M4" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="E5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+        <v>99</v>
+      </c>
       <c r="K5" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>45863.0</v>
+      </c>
       <c r="M5" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
       <c r="K6" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7">
+        <v>45864.0</v>
+      </c>
       <c r="M6" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
       <c r="K7" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>45865.0</v>
+      </c>
       <c r="M7" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
       <c r="K8" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <v>45866.0</v>
+      </c>
       <c r="M8" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="8" t="s">
         <v>86</v>
       </c>
       <c r="K9" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7">
+        <v>45867.0</v>
+      </c>
       <c r="M9" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
       <c r="K10" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <v>45868.0</v>
+      </c>
       <c r="M10" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E8 F2:F10 G2:J8 K2:N10 O2:AB8 A10:E10 G10:J10 O10:AB10">
+  <conditionalFormatting sqref="A2:D8 E2:F10 G2:J8 K2:N10 O2:AB8 A10:D10 G10:J10 O10:AB10">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
@@ -17960,7 +18129,7 @@
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:E8 F2:F10 G2:J8 K2:N10 O2:O8 A10:E10 G10:J10 O10">
+  <conditionalFormatting sqref="A2:D8 E2:F10 G2:J8 K2:N10 O2:O8 A10:D10 G10:J10 O10">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
@@ -18034,26 +18203,26 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2" s="7">
         <v>45643.0</v>
@@ -18063,7 +18232,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -18082,25 +18251,25 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K3" s="7">
         <v>44811.0</v>
@@ -18109,10 +18278,10 @@
         <v>45643.0</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="8"/>
     </row>
@@ -18130,7 +18299,7 @@
         <v>133</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -18139,7 +18308,7 @@
         <v>134</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7">
         <v>43565.0</v>
@@ -18184,7 +18353,7 @@
         <v>140</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -18193,7 +18362,7 @@
         <v>141</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7">
         <v>44734.0</v>
@@ -18238,7 +18407,7 @@
         <v>145</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -18290,7 +18459,7 @@
         <v>152</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -18342,7 +18511,7 @@
         <v>157</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -18394,7 +18563,7 @@
         <v>161</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -18446,7 +18615,7 @@
         <v>166</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -18498,7 +18667,7 @@
         <v>171</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -18550,7 +18719,7 @@
         <v>175</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -18602,7 +18771,7 @@
         <v>179</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -18654,7 +18823,7 @@
         <v>184</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -18673,7 +18842,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="18" t="s">
         <v>148</v>
@@ -18706,7 +18875,7 @@
         <v>188</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -18725,7 +18894,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O15" s="18" t="s">
         <v>148</v>
@@ -18758,7 +18927,7 @@
         <v>192</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -18810,7 +18979,7 @@
         <v>197</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -18862,7 +19031,7 @@
         <v>201</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -19069,7 +19238,7 @@
         <v>208</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>209</v>
@@ -19081,7 +19250,7 @@
         <v>45643.0</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>210</v>
@@ -19102,7 +19271,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -19152,7 +19321,7 @@
         <v>166</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -19204,7 +19373,7 @@
         <v>192</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -19254,7 +19423,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -19302,7 +19471,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -19352,7 +19521,7 @@
         <v>234</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -19402,7 +19571,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -19452,7 +19621,7 @@
         <v>234</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -19504,7 +19673,7 @@
         <v>234</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -19651,7 +19820,7 @@
         <v>251</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -19705,7 +19874,7 @@
         <v>251</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -19759,7 +19928,7 @@
         <v>264</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -19813,7 +19982,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -19867,7 +20036,7 @@
         <v>276</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -19921,7 +20090,7 @@
         <v>251</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -19975,7 +20144,7 @@
         <v>251</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -20029,7 +20198,7 @@
         <v>251</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -20083,7 +20252,7 @@
         <v>251</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -20137,7 +20306,7 @@
         <v>304</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -20155,7 +20324,7 @@
         <v>45643.0</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N11" s="20" t="s">
         <v>153</v>
@@ -20191,7 +20360,7 @@
         <v>310</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -20245,7 +20414,7 @@
         <v>310</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -20299,7 +20468,7 @@
         <v>321</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -20353,7 +20522,7 @@
         <v>251</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -20407,7 +20576,7 @@
         <v>332</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -20461,7 +20630,7 @@
         <v>251</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -20515,7 +20684,7 @@
         <v>344</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -20569,7 +20738,7 @@
         <v>351</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>253</v>
@@ -20581,7 +20750,7 @@
         <v>11</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -21259,7 +21428,7 @@
         <v>45643.0</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N13" s="29" t="s">
         <v>359</v>
@@ -21315,7 +21484,7 @@
         <v>45643.0</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N14" s="29" t="s">
         <v>359</v>
@@ -21371,7 +21540,7 @@
         <v>45643.0</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N15" s="29" t="s">
         <v>359</v>
@@ -21427,7 +21596,7 @@
         <v>45643.0</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N16" s="29" t="s">
         <v>359</v>
@@ -26354,7 +26523,7 @@
         <v>11</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -26408,7 +26577,7 @@
         <v>11</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -26462,7 +26631,7 @@
         <v>11</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -26516,7 +26685,7 @@
         <v>11</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
@@ -26570,7 +26739,7 @@
         <v>11</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -26624,7 +26793,7 @@
         <v>11</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -26678,7 +26847,7 @@
         <v>11</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -31121,7 +31290,7 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>697</v>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1134">
   <si>
     <t>Concept</t>
   </si>
@@ -1551,7 +1551,7 @@
     <t>Justification A12 - Identity Failure</t>
   </si>
   <si>
-    <t>Justification that a request under A14-21 could not be fulfiled due to lack of identity verification</t>
+    <t>Justification that a request under A14-21 could not be fulfilled due to lack of identity verification</t>
   </si>
   <si>
     <t>justifications:IdentityVerificationFailure</t>
@@ -1572,13 +1572,13 @@
     <t>Justification A12 - Identity Required</t>
   </si>
   <si>
-    <t>Justification that a request under A14-21 could not be fulfiled due to lack of identity verification, and therefore requires additional information to complete the identity verification request</t>
+    <t>Justification that a request under A14-21 could not be fulfilled due to lack of identity verification, and therefore requires additional information to complete the identity verification request</t>
   </si>
   <si>
     <t>justifications:IdentityVerificationRequired</t>
   </si>
   <si>
-    <t>If the purpose of this justification is to ask for identity verification, then it requires information on what information is considered as an accepable form of identity, which can ideally be expressed through dpv:Process and relevant dpv:PersonalData categories, or through a comment or description for the justification</t>
+    <t>If the purpose of this justification is to ask for identity verification, then it requires information on what information is considered as an acceptable form of identity, which can ideally be expressed through dpv:Process and relevant dpv:PersonalData categories, or through a comment or description for the justification</t>
   </si>
   <si>
     <t>JustificationA12Delay</t>
@@ -1656,7 +1656,7 @@
     <t>justifications:EntityAlreadyInformed</t>
   </si>
   <si>
-    <t>This justification requires information on how the data subject was provided the information to satify the assertion, which can be provided as a description of comment</t>
+    <t>This justification requires information on how the data subject was provided the information to satisfy the assertion, which can be provided as a description of comment</t>
   </si>
   <si>
     <t>GDPR Art.13-4</t>
@@ -2257,9 +2257,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>A6-1-d-natual-person</t>
-  </si>
-  <si>
     <t>AdHocContractualClauses</t>
   </si>
   <si>
@@ -3236,7 +3233,7 @@
     <t>State where lawfulness or compliance with GDPR is unknown</t>
   </si>
   <si>
-    <t>ProcessingPropotionality</t>
+    <t>ProcessingProportionality</t>
   </si>
   <si>
     <t>Processing Proportionality</t>
@@ -5293,16 +5290,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>702</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>703</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>428</v>
@@ -5312,7 +5309,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="55" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K2" s="7">
         <v>44461.0</v>
@@ -5325,7 +5322,7 @@
         <v>88</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -5343,16 +5340,16 @@
     </row>
     <row r="3">
       <c r="A3" s="44" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>706</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>707</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>263</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>428</v>
@@ -5361,10 +5358,10 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>709</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>710</v>
       </c>
       <c r="K3" s="7">
         <v>44461.0</v>
@@ -5374,10 +5371,10 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -5395,16 +5392,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>714</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>428</v>
@@ -5414,7 +5411,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="55" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K4" s="7">
         <v>44461.0</v>
@@ -5427,7 +5424,7 @@
         <v>88</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -5445,16 +5442,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>718</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>428</v>
@@ -5464,7 +5461,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="55" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K5" s="7">
         <v>44461.0</v>
@@ -5477,7 +5474,7 @@
         <v>88</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -5495,13 +5492,13 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>721</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>722</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="41" t="s">
@@ -5512,7 +5509,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K6" s="7">
         <v>44461.0</v>
@@ -5524,10 +5521,10 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -5545,16 +5542,16 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>727</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>728</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>428</v>
@@ -5574,10 +5571,10 @@
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -5595,16 +5592,16 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>731</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>428</v>
@@ -5624,10 +5621,10 @@
         <v>11</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -5645,16 +5642,16 @@
     </row>
     <row r="9">
       <c r="A9" s="57" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>734</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>735</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>428</v>
@@ -5664,7 +5661,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="58" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K9" s="7">
         <v>44461.0</v>
@@ -5674,10 +5671,10 @@
         <v>11</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -5695,16 +5692,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>739</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>428</v>
@@ -5714,7 +5711,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="55" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K10" s="7">
         <v>44461.0</v>
@@ -5724,10 +5721,10 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -5848,16 +5845,16 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>744</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>745</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>428</v>
@@ -5896,16 +5893,16 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
+        <v>745</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>746</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>748</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>428</v>
@@ -5944,16 +5941,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>751</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>428</v>
@@ -6004,16 +6001,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>754</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>755</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -6052,17 +6049,17 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>757</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>758</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -6098,17 +6095,17 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>762</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -6156,16 +6153,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>765</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>86</v>
@@ -6204,17 +6201,17 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>766</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="C11" s="8" t="s">
         <v>767</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>768</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -6250,17 +6247,17 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="41" t="s">
         <v>771</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>772</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -6296,17 +6293,17 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="41" t="s">
         <v>774</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>775</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -6353,16 +6350,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>778</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>86</v>
@@ -6401,17 +6398,17 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>780</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>781</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6447,17 +6444,17 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>784</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>785</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6493,17 +6490,17 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>787</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>788</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="41" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -6537,17 +6534,17 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>790</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>791</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -6593,16 +6590,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>794</v>
-      </c>
       <c r="D21" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>86</v>
@@ -6620,7 +6617,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -6639,17 +6636,17 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>797</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>798</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -6664,7 +6661,7 @@
         <v>11</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -6683,17 +6680,17 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>801</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>802</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6708,7 +6705,7 @@
         <v>11</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -6737,16 +6734,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>805</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>806</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>86</v>
@@ -6764,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -6783,17 +6780,17 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>808</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>809</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6808,7 +6805,7 @@
         <v>11</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -6827,17 +6824,17 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>812</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>813</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -6852,7 +6849,7 @@
         <v>11</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -6939,13 +6936,13 @@
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>816</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
@@ -6977,13 +6974,13 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>817</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>817</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>818</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="60"/>
@@ -7015,13 +7012,13 @@
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
+        <v>818</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>818</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>819</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>819</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>820</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="60"/>
@@ -7053,13 +7050,13 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>821</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>822</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -7091,13 +7088,13 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>823</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>824</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -7129,13 +7126,13 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>825</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>826</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -7167,13 +7164,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>827</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>828</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -7205,13 +7202,13 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>829</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>830</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7243,13 +7240,13 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>831</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>832</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -7281,13 +7278,13 @@
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>833</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>833</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>834</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="31"/>
@@ -7319,13 +7316,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>835</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>836</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -7357,13 +7354,13 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>837</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>838</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7395,13 +7392,13 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>839</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>840</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -7433,13 +7430,13 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>841</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>842</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7471,13 +7468,13 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>843</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>844</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -7509,13 +7506,13 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>845</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>846</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7547,13 +7544,13 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>847</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>848</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -10596,16 +10593,16 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
+        <v>848</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>849</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>850</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="D2" s="53" t="s">
         <v>851</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>852</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>86</v>
@@ -10614,10 +10611,10 @@
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
       <c r="I2" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>853</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>854</v>
       </c>
       <c r="K2" s="64">
         <v>45431.0</v>
@@ -10646,16 +10643,16 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>858</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>86</v>
@@ -10665,7 +10662,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K3" s="7">
         <v>45431.0</v>
@@ -10694,16 +10691,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>862</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>86</v>
@@ -10713,7 +10710,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K4" s="7">
         <v>45431.0</v>
@@ -10742,16 +10739,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>865</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>86</v>
@@ -10761,7 +10758,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K5" s="7">
         <v>45431.0</v>
@@ -10790,16 +10787,16 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>868</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -10809,7 +10806,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K6" s="7">
         <v>45431.0</v>
@@ -10850,16 +10847,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>871</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>86</v>
@@ -10869,7 +10866,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K8" s="7">
         <v>45431.0</v>
@@ -10902,24 +10899,24 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>873</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="8" t="s">
         <v>874</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>875</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K9" s="7">
         <v>45431.0</v>
@@ -10952,24 +10949,24 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="41" t="s">
         <v>878</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>879</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K10" s="7">
         <v>45431.0</v>
@@ -11002,24 +10999,24 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="41" t="s">
         <v>881</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>882</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K11" s="7">
         <v>45431.0</v>
@@ -11063,16 +11060,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>885</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>86</v>
@@ -11082,7 +11079,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K13" s="7">
         <v>45431.0</v>
@@ -11115,24 +11112,24 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>887</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>888</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K14" s="7">
         <v>45431.0</v>
@@ -11165,24 +11162,24 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>891</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>892</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="32" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K15" s="7">
         <v>45431.0</v>
@@ -11211,24 +11208,24 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>895</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>896</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K16" s="7">
         <v>45431.0</v>
@@ -11257,24 +11254,24 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>898</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>899</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K17" s="7">
         <v>45431.0</v>
@@ -11303,24 +11300,24 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>901</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>902</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K18" s="7">
         <v>45431.0</v>
@@ -11352,16 +11349,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>905</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>906</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>86</v>
@@ -11371,7 +11368,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K20" s="7">
         <v>45431.0</v>
@@ -11400,24 +11397,24 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>908</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>909</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K21" s="7">
         <v>45431.0</v>
@@ -11446,26 +11443,26 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="D22" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>914</v>
-      </c>
       <c r="E22" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K22" s="7">
         <v>45431.0</v>
@@ -11494,26 +11491,26 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="41" t="s">
         <v>916</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>917</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K23" s="7">
         <v>45431.0</v>
@@ -11542,26 +11539,26 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>920</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K24" s="7">
         <v>45431.0</v>
@@ -11590,24 +11587,24 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="41" t="s">
         <v>922</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>923</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="32" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K25" s="7">
         <v>45431.0</v>
@@ -11636,24 +11633,24 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="41" t="s">
         <v>925</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>926</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K26" s="7">
         <v>45431.0</v>
@@ -11682,24 +11679,24 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>928</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>929</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K27" s="7">
         <v>45431.0</v>
@@ -11728,16 +11725,16 @@
     </row>
     <row r="29">
       <c r="A29" s="66" t="s">
+        <v>929</v>
+      </c>
+      <c r="B29" s="67" t="s">
         <v>930</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="C29" s="46" t="s">
         <v>931</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="D29" s="46" t="s">
         <v>932</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>933</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>86</v>
@@ -11747,7 +11744,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
       <c r="J29" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K29" s="7">
         <v>45431.0</v>
@@ -11776,16 +11773,16 @@
     </row>
     <row r="30">
       <c r="A30" s="46" t="s">
+        <v>933</v>
+      </c>
+      <c r="B30" s="46" t="s">
         <v>934</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="C30" s="46" t="s">
         <v>935</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="D30" s="68" t="s">
         <v>936</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>937</v>
       </c>
       <c r="E30" s="46" t="s">
         <v>86</v>
@@ -11795,7 +11792,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
       <c r="J30" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K30" s="7">
         <v>45431.0</v>
@@ -11824,16 +11821,16 @@
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
+        <v>937</v>
+      </c>
+      <c r="B31" s="46" t="s">
         <v>938</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="C31" s="46" t="s">
         <v>939</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="D31" s="47" t="s">
         <v>940</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>941</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>86</v>
@@ -11843,7 +11840,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
       <c r="J31" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K31" s="7">
         <v>45431.0</v>
@@ -11872,16 +11869,16 @@
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
+        <v>941</v>
+      </c>
+      <c r="B32" s="46" t="s">
         <v>942</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="C32" s="46" t="s">
         <v>943</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>944</v>
-      </c>
       <c r="D32" s="47" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>86</v>
@@ -11891,7 +11888,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
       <c r="J32" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K32" s="7">
         <v>45431.0</v>
@@ -11920,16 +11917,16 @@
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
+        <v>944</v>
+      </c>
+      <c r="B33" s="46" t="s">
         <v>945</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="C33" s="46" t="s">
         <v>946</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="D33" s="47" t="s">
         <v>947</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>948</v>
       </c>
       <c r="E33" s="46" t="s">
         <v>86</v>
@@ -11939,7 +11936,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="46"/>
       <c r="J33" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K33" s="7">
         <v>45431.0</v>
@@ -11968,16 +11965,16 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>951</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>952</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>86</v>
@@ -11987,7 +11984,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K35" s="7">
         <v>45431.0</v>
@@ -12016,13 +12013,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>955</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>956</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="8" t="s">
@@ -12062,16 +12059,16 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>959</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>960</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>459</v>
@@ -12081,7 +12078,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K38" s="7">
         <v>45643.0</v>
@@ -12112,16 +12109,16 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>964</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>965</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>459</v>
@@ -12131,7 +12128,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K39" s="7">
         <v>45643.0</v>
@@ -12162,16 +12159,16 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>968</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>969</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>459</v>
@@ -12181,7 +12178,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K40" s="7">
         <v>45643.0</v>
@@ -12212,16 +12209,16 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>973</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>974</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>459</v>
@@ -12231,7 +12228,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K41" s="7">
         <v>45643.0</v>
@@ -12262,16 +12259,16 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>978</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>979</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>459</v>
@@ -12281,7 +12278,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K42" s="7">
         <v>45643.0</v>
@@ -12405,7 +12402,7 @@
     </row>
     <row r="2">
       <c r="A2" s="69" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -12439,17 +12436,17 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
+        <v>981</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>982</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>983</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>984</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="74" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
@@ -12485,19 +12482,19 @@
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>986</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="C4" s="75" t="s">
         <v>987</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>988</v>
       </c>
-      <c r="D4" s="74" t="s">
-        <v>989</v>
-      </c>
       <c r="E4" s="74" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F4" s="76"/>
       <c r="G4" s="76"/>
@@ -12533,19 +12530,19 @@
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
+        <v>989</v>
+      </c>
+      <c r="B5" s="80" t="s">
         <v>990</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="C5" s="75" t="s">
         <v>991</v>
       </c>
-      <c r="C5" s="75" t="s">
-        <v>992</v>
-      </c>
       <c r="D5" s="74" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
@@ -12581,19 +12578,19 @@
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
+        <v>992</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>993</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="C6" s="79" t="s">
         <v>994</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>995</v>
-      </c>
       <c r="D6" s="74" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="76"/>
@@ -12634,13 +12631,13 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>997</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>998</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -12676,13 +12673,13 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>999</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="5" t="s">
         <v>1000</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1001</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -12718,7 +12715,7 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C10" s="41"/>
       <c r="J10" s="32"/>
@@ -12851,7 +12848,7 @@
     </row>
     <row r="2">
       <c r="A2" s="85" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -12885,16 +12882,16 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="86" t="s">
         <v>1004</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="C3" s="86" t="s">
         <v>1005</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="D3" s="86" t="s">
         <v>1006</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>1007</v>
       </c>
       <c r="E3" s="86" t="s">
         <v>428</v>
@@ -12904,7 +12901,7 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="50" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K3" s="87">
         <v>45424.0</v>
@@ -12935,16 +12932,16 @@
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>1009</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="C4" s="86" t="s">
         <v>1010</v>
       </c>
-      <c r="C4" s="86" t="s">
-        <v>1011</v>
-      </c>
       <c r="D4" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>428</v>
@@ -12954,7 +12951,7 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="50" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K4" s="87">
         <v>45424.0</v>
@@ -12985,16 +12982,16 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B5" s="86" t="s">
         <v>1012</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>1013</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>1014</v>
-      </c>
       <c r="D5" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E5" s="86" t="s">
         <v>428</v>
@@ -13004,7 +13001,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
       <c r="J5" s="50" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K5" s="87">
         <v>45424.0</v>
@@ -13035,16 +13032,16 @@
     </row>
     <row r="6">
       <c r="A6" s="86" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>1015</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="C6" s="50" t="s">
         <v>1016</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>1017</v>
-      </c>
       <c r="D6" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>428</v>
@@ -13054,7 +13051,7 @@
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
       <c r="J6" s="50" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K6" s="87">
         <v>45424.0</v>
@@ -13085,16 +13082,16 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>1021</v>
-      </c>
       <c r="D7" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>428</v>
@@ -13104,7 +13101,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="50" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K7" s="87">
         <v>45424.0</v>
@@ -13135,16 +13132,16 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>1025</v>
-      </c>
       <c r="D8" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E8" s="86" t="s">
         <v>428</v>
@@ -13154,7 +13151,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="50" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K8" s="87">
         <v>45424.0</v>
@@ -13185,16 +13182,16 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>1029</v>
-      </c>
       <c r="D9" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>428</v>
@@ -13204,7 +13201,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="50" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K9" s="87">
         <v>45424.0</v>
@@ -13235,16 +13232,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="41" t="s">
         <v>1032</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>1033</v>
-      </c>
       <c r="D10" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>428</v>
@@ -13254,7 +13251,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="50" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K10" s="87">
         <v>45424.0</v>
@@ -13285,16 +13282,16 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="41" t="s">
         <v>1036</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>1037</v>
-      </c>
       <c r="D11" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>428</v>
@@ -13304,7 +13301,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="50" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K11" s="87">
         <v>45424.0</v>
@@ -13455,7 +13452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C2" s="41"/>
       <c r="J2" s="32"/>
@@ -13464,16 +13461,16 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>1041</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>1042</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1043</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>86</v>
@@ -13483,7 +13480,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K3" s="89">
         <v>45465.0</v>
@@ -13493,7 +13490,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="9"/>
@@ -13514,16 +13511,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="41" t="s">
         <v>1046</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="8" t="s">
         <v>1047</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>1048</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>86</v>
@@ -13533,7 +13530,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K4" s="89">
         <v>45336.0</v>
@@ -13543,7 +13540,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O4" s="32"/>
       <c r="P4" s="9"/>
@@ -13564,16 +13561,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>1050</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>1051</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>86</v>
@@ -13583,7 +13580,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K5" s="89">
         <v>45336.0</v>
@@ -13593,7 +13590,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="9"/>
@@ -13614,16 +13611,16 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="41" t="s">
         <v>1053</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>1054</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -13633,7 +13630,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K6" s="89">
         <v>45336.0</v>
@@ -13643,7 +13640,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="9"/>
@@ -13669,23 +13666,23 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K8" s="7"/>
       <c r="O8" s="32"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>1057</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1058</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>86</v>
@@ -13695,7 +13692,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K9" s="89">
         <v>45336.0</v>
@@ -13705,7 +13702,7 @@
         <v>11</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="9"/>
@@ -13726,16 +13723,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="16" t="s">
         <v>1061</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="8" t="s">
         <v>1062</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>1063</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>86</v>
@@ -13745,7 +13742,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K10" s="89">
         <v>45336.0</v>
@@ -13755,7 +13752,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -13776,16 +13773,16 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>1067</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>86</v>
@@ -13795,7 +13792,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K11" s="89">
         <v>45336.0</v>
@@ -13805,7 +13802,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -13829,16 +13826,16 @@
     </row>
     <row r="13">
       <c r="A13" s="90" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B13" s="90" t="s">
         <v>1069</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="C13" s="91" t="s">
         <v>1070</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="D13" s="90" t="s">
         <v>1071</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>1072</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>86</v>
@@ -13848,7 +13845,7 @@
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
       <c r="J13" s="50" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K13" s="87">
         <v>45643.0</v>
@@ -13879,16 +13876,16 @@
     </row>
     <row r="14">
       <c r="A14" s="51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C14" s="51" t="s">
         <v>1074</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C14" s="51" t="s">
+      <c r="D14" s="51" t="s">
         <v>1075</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>1076</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>86</v>
@@ -13898,7 +13895,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
       <c r="J14" s="50" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K14" s="87">
         <v>45643.0</v>
@@ -13929,16 +13926,16 @@
     </row>
     <row r="15">
       <c r="A15" s="51" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>1078</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C15" s="51" t="s">
+      <c r="D15" s="51" t="s">
         <v>1079</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>1080</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>86</v>
@@ -13948,7 +13945,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="50" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K15" s="87">
         <v>45643.0</v>
@@ -13979,16 +13976,16 @@
     </row>
     <row r="16">
       <c r="A16" s="92" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C16" s="51" t="s">
         <v>1082</v>
       </c>
-      <c r="B16" s="92" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C16" s="51" t="s">
+      <c r="D16" s="92" t="s">
         <v>1083</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>1084</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>86</v>
@@ -13998,7 +13995,7 @@
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="50" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K16" s="87">
         <v>45643.0</v>
@@ -14029,16 +14026,16 @@
     </row>
     <row r="17">
       <c r="A17" s="92" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B17" s="92" t="s">
         <v>1086</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="C17" s="51" t="s">
         <v>1087</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="D17" s="92" t="s">
         <v>1088</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>1089</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>86</v>
@@ -14048,7 +14045,7 @@
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
       <c r="J17" s="50" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K17" s="87">
         <v>45643.0</v>
@@ -14079,16 +14076,16 @@
     </row>
     <row r="18">
       <c r="A18" s="51" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C18" s="91" t="s">
         <v>1091</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C18" s="91" t="s">
+      <c r="D18" s="51" t="s">
         <v>1092</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>1093</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>86</v>
@@ -14098,7 +14095,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
       <c r="J18" s="50" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K18" s="87">
         <v>45643.0</v>
@@ -14129,16 +14126,16 @@
     </row>
     <row r="19">
       <c r="A19" s="51" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>1095</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="C19" s="51" t="s">
         <v>1096</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="D19" s="51" t="s">
         <v>1097</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>1098</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>86</v>
@@ -14148,7 +14145,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
       <c r="J19" s="50" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K19" s="87">
         <v>45643.0</v>
@@ -14231,13 +14228,13 @@
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>816</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
@@ -14269,28 +14266,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>1100</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="C2" s="38" t="s">
         <v>1101</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>1103</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>1104</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K2" s="89">
         <v>45336.0</v>
@@ -14300,7 +14297,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -14319,28 +14316,28 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>1105</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="41" t="s">
         <v>1106</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>1107</v>
-      </c>
       <c r="D3" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1103</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1104</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K3" s="89">
         <v>45336.0</v>
@@ -14350,7 +14347,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -14369,28 +14366,28 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="38" t="s">
         <v>1109</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>1110</v>
-      </c>
       <c r="D4" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>1103</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>1104</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K4" s="89">
         <v>45336.0</v>
@@ -14400,7 +14397,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -14419,28 +14416,28 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="38" t="s">
         <v>1112</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>1114</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K5" s="89">
         <v>45336.0</v>
@@ -14450,7 +14447,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="9"/>
@@ -14469,28 +14466,28 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="38" t="s">
         <v>1116</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>1117</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K6" s="89">
         <v>45336.0</v>
@@ -14500,7 +14497,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -14519,28 +14516,28 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="38" t="s">
         <v>1119</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>1120</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K7" s="89">
         <v>45336.0</v>
@@ -14550,7 +14547,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -17589,6 +17586,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="93" t="s">
@@ -17648,16 +17648,16 @@
     </row>
     <row r="2">
       <c r="A2" s="85" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>1121</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="50" t="s">
         <v>1122</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="D2" s="51" t="s">
         <v>1123</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>1124</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
@@ -17668,7 +17668,7 @@
         <v>45827.0</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>204</v>
@@ -17694,19 +17694,19 @@
     </row>
     <row r="3">
       <c r="A3" s="99" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>1126</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="C3" s="100" t="s">
         <v>1127</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="D3" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>1129</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>1130</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17716,7 +17716,7 @@
         <v>45827.0</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L3" s="90" t="s">
         <v>204</v>
@@ -17742,19 +17742,19 @@
     </row>
     <row r="4">
       <c r="A4" s="99" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B4" s="102" t="s">
         <v>1131</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="C4" s="100" t="s">
         <v>1132</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="D4" s="51" t="s">
         <v>1133</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>1134</v>
-      </c>
       <c r="E4" s="50" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17764,7 +17764,7 @@
         <v>45827.0</v>
       </c>
       <c r="K4" s="51" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L4" s="90" t="s">
         <v>204</v>
@@ -31794,7 +31794,7 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>699</v>
+        <v>172</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>697</v>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -2001,7 +2001,7 @@
     <t>risk:RightsImpact</t>
   </si>
   <si>
-    <t>risk:RiskConcept</t>
+    <t>dpv:RiskConcept</t>
   </si>
   <si>
     <t>R,C,I</t>
@@ -27231,9 +27231,11 @@
       <c r="L2" s="33">
         <v>45627.0</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N2" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -27284,9 +27286,11 @@
       <c r="L3" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N3" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
@@ -27337,9 +27341,11 @@
       <c r="L4" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N4" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
@@ -27390,9 +27396,11 @@
       <c r="L5" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M5" s="33"/>
+      <c r="M5" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N5" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -27443,9 +27451,11 @@
       <c r="L6" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M6" s="33"/>
+      <c r="M6" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N6" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -27496,9 +27506,11 @@
       <c r="L7" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N7" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -27549,9 +27561,11 @@
       <c r="L8" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N8" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -27602,9 +27616,11 @@
       <c r="L9" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="M9" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N9" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -27655,9 +27671,11 @@
       <c r="L10" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N10" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -27708,9 +27726,11 @@
       <c r="L11" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N11" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -27761,9 +27781,11 @@
       <c r="L12" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N12" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -27814,9 +27836,11 @@
       <c r="L13" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N13" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
@@ -27867,9 +27891,11 @@
       <c r="L14" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N14" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -27893,6 +27919,8 @@
     </row>
     <row r="15">
       <c r="C15" s="39"/>
+      <c r="E15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16">
       <c r="A16" s="54" t="s">
@@ -27910,42 +27938,21 @@
       <c r="E16" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F16" s="9"/>
       <c r="G16" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
       <c r="J16" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="K16" s="9"/>
       <c r="L16" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="54" t="s">
@@ -27963,40 +27970,19 @@
       <c r="E17" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F17" s="9"/>
       <c r="G17" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
       <c r="L17" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="M17" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N17" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O17" s="41"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="54" t="s">
@@ -28014,40 +28000,19 @@
       <c r="E18" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F18" s="9"/>
       <c r="G18" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
       <c r="L18" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M18" s="9"/>
+      <c r="M18" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N18" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O18" s="41"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="54" t="s">
@@ -28065,40 +28030,19 @@
       <c r="E19" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F19" s="9"/>
       <c r="G19" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
       <c r="L19" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N19" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O19" s="41"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="54" t="s">
@@ -28116,40 +28060,19 @@
       <c r="E20" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F20" s="9"/>
       <c r="G20" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
       <c r="L20" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N20" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O20" s="41"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" s="54" t="s">
@@ -28167,40 +28090,19 @@
       <c r="E21" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F21" s="9"/>
       <c r="G21" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
       <c r="L21" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N21" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O21" s="41"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="54" t="s">
@@ -28218,40 +28120,19 @@
       <c r="E22" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F22" s="9"/>
       <c r="G22" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
       <c r="L22" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M22" s="9"/>
+      <c r="M22" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N22" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O22" s="41"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
     </row>
     <row r="23">
       <c r="B23" s="40"/>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -20,6 +20,7 @@
     <sheet state="visible" name="GDPR_principles" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="GDPR_entities" sheetId="16" r:id="rId19"/>
     <sheet state="visible" name="GDPR_entities_properties" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="GDPR_purpose_compatibility" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1134">
   <si>
     <t>Concept</t>
   </si>
@@ -290,6 +291,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>modified</t>
+  </si>
+  <si>
     <t>Harshvardhan J. Pandit</t>
   </si>
   <si>
@@ -416,9 +420,6 @@
     <t>(GDPR Art.6-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_a/oj)</t>
   </si>
   <si>
-    <t>modified</t>
-  </si>
-  <si>
     <t>A6-1-a-non-explicit-consent</t>
   </si>
   <si>
@@ -1157,7 +1158,7 @@
     <t>Right to rectification</t>
   </si>
   <si>
-    <t>GDPR Art.16,https://eur-lex.europa.eu/eli/reg/2016/679/art_16/oj)</t>
+    <t>(GDPR Art.16,https://eur-lex.europa.eu/eli/reg/2016/679/art_16/oj)</t>
   </si>
   <si>
     <t>A17</t>
@@ -1169,7 +1170,20 @@
     <t>Right to erasure ('Right to be forgotten')</t>
   </si>
   <si>
-    <t>GDPR Art.17,https://eur-lex.europa.eu/eli/reg/2016/679/art_17/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.17,https://eur-lex.europa.eu/eli/reg/2016/679/art_17/oj)</t>
+    </r>
   </si>
   <si>
     <t>A18</t>
@@ -1181,7 +1195,20 @@
     <t>Right to restriction of processing</t>
   </si>
   <si>
-    <t>GDPR Art.18,https://eur-lex.europa.eu/eli/reg/2016/679/art_18/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.18,https://eur-lex.europa.eu/eli/reg/2016/679/art_18/oj)</t>
+    </r>
   </si>
   <si>
     <t>A20</t>
@@ -1193,7 +1220,20 @@
     <t>Right to data portability</t>
   </si>
   <si>
-    <t>GDPR Art.20,https://eur-lex.europa.eu/eli/reg/2016/679/art_20/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.20,https://eur-lex.europa.eu/eli/reg/2016/679/art_20/oj)</t>
+    </r>
   </si>
   <si>
     <t>A21</t>
@@ -1271,7 +1311,20 @@
     <t>Right to lodge a complaint with a supervisory authority</t>
   </si>
   <si>
-    <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
+    </r>
   </si>
   <si>
     <t>A78</t>
@@ -1283,7 +1336,20 @@
     <t>Right to an effective judicial remedy against a legally binding decision of a supervisory authority concerning natural or legal person</t>
   </si>
   <si>
-    <t>GDPR Art.78,https://eur-lex.europa.eu/eli/reg/2016/679/art_78/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.78,https://eur-lex.europa.eu/eli/reg/2016/679/art_78/oj)</t>
+    </r>
   </si>
   <si>
     <t>A79</t>
@@ -1295,7 +1361,20 @@
     <t>Right to an effective judicial remedy where the data subject considers that his or her rights have been infringed as a result of the processing of his or her personal data</t>
   </si>
   <si>
-    <t>GDPR Art.79,https://eur-lex.europa.eu/eli/reg/2016/679/art_79/oj)</t>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.79,https://eur-lex.europa.eu/eli/reg/2016/679/art_79/oj)</t>
+    </r>
   </si>
   <si>
     <t>Exercising Rights</t>
@@ -1472,7 +1551,7 @@
     <t>Justification A12 - Identity Failure</t>
   </si>
   <si>
-    <t>Justification that a request under A14-21 could not be fulfiled due to lack of identity verification</t>
+    <t>Justification that a request under A14-21 could not be fulfilled due to lack of identity verification</t>
   </si>
   <si>
     <t>justifications:IdentityVerificationFailure</t>
@@ -1493,13 +1572,13 @@
     <t>Justification A12 - Identity Required</t>
   </si>
   <si>
-    <t>Justification that a request under A14-21 could not be fulfiled due to lack of identity verification, and therefore requires additional information to complete the identity verification request</t>
+    <t>Justification that a request under A14-21 could not be fulfilled due to lack of identity verification, and therefore requires additional information to complete the identity verification request</t>
   </si>
   <si>
     <t>justifications:IdentityVerificationRequired</t>
   </si>
   <si>
-    <t>If the purpose of this justification is to ask for identity verification, then it requires information on what information is considered as an accepable form of identity, which can ideally be expressed through dpv:Process and relevant dpv:PersonalData categories, or through a comment or description for the justification</t>
+    <t>If the purpose of this justification is to ask for identity verification, then it requires information on what information is considered as an acceptable form of identity, which can ideally be expressed through dpv:Process and relevant dpv:PersonalData categories, or through a comment or description for the justification</t>
   </si>
   <si>
     <t>JustificationA12Delay</t>
@@ -1577,7 +1656,7 @@
     <t>justifications:EntityAlreadyInformed</t>
   </si>
   <si>
-    <t>This justification requires information on how the data subject was provided the information to satify the assertion, which can be provided as a description of comment</t>
+    <t>This justification requires information on how the data subject was provided the information to satisfy the assertion, which can be provided as a description of comment</t>
   </si>
   <si>
     <t>GDPR Art.13-4</t>
@@ -1922,7 +2001,7 @@
     <t>risk:RightsImpact</t>
   </si>
   <si>
-    <t>risk:RiskConcept</t>
+    <t>dpv:RiskConcept</t>
   </si>
   <si>
     <t>R,C,I</t>
@@ -1976,6 +2055,22 @@
     <t>Something that acts as or is considered as an impact on A17 Right to Erasure</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.17,https://eur-lex.europa.eu/eli/reg/2016/679/art_17/oj)</t>
+    </r>
+  </si>
+  <si>
     <t>A18-Impact</t>
   </si>
   <si>
@@ -1985,6 +2080,22 @@
     <t>Something that acts as or is considered as an impact on A18 Right to Restrict Processing</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.18,https://eur-lex.europa.eu/eli/reg/2016/679/art_18/oj)</t>
+    </r>
+  </si>
+  <si>
     <t>A19-Impact</t>
   </si>
   <si>
@@ -2003,6 +2114,22 @@
     <t>Something that acts as or is considered as an impact on A20 Right to Data Portability</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.20,https://eur-lex.europa.eu/eli/reg/2016/679/art_20/oj)</t>
+    </r>
+  </si>
+  <si>
     <t>A21-Impact</t>
   </si>
   <si>
@@ -2039,6 +2166,22 @@
     <t>Something that acts as or is considered as an impact on A77 Right to Complaint</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>GDPR Art.77,https://eur-lex.europa.eu/eli/reg/2016/679/art_77/oj)</t>
+    </r>
+  </si>
+  <si>
     <t>A13-Violated</t>
   </si>
   <si>
@@ -2112,9 +2255,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>A6-1-d-natual-person</t>
   </si>
   <si>
     <t>AdHocContractualClauses</t>
@@ -3093,7 +3233,7 @@
     <t>State where lawfulness or compliance with GDPR is unknown</t>
   </si>
   <si>
-    <t>ProcessingPropotionality</t>
+    <t>ProcessingProportionality</t>
   </si>
   <si>
     <t>Processing Proportionality</t>
@@ -3466,6 +3606,48 @@
   </si>
   <si>
     <t>Indicates the local supervisory authority</t>
+  </si>
+  <si>
+    <t>PurposeCompatibility</t>
+  </si>
+  <si>
+    <t>Purpose Compatibility</t>
+  </si>
+  <si>
+    <t>An assessment of the compatbility with a specific Purpose of processing personal data as defined and interpreted under the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:ReuseCompatibility</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Hernandez</t>
+  </si>
+  <si>
+    <t>PurposeCompatible</t>
+  </si>
+  <si>
+    <t>Purpose Compatible</t>
+  </si>
+  <si>
+    <t>An assessment that the specified use or purpose is compatible with the Purpose of processing personal data as defined and interpreted under the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:PrimaryUse</t>
+  </si>
+  <si>
+    <t>eu-gdpr:PurposeCompatibility</t>
+  </si>
+  <si>
+    <t>PurposeIncompatible</t>
+  </si>
+  <si>
+    <t>Purpose Incompatible</t>
+  </si>
+  <si>
+    <t>An assessment that the specified use or purpose is incompatible with the Purpose of processing personal data as defined and interpreted under the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:SecondaryUse</t>
   </si>
 </sst>
 </file>
@@ -3475,7 +3657,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3614,8 +3796,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3644,6 +3832,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -3697,7 +3891,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3967,6 +4161,36 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4057,6 +4281,10 @@
 </file>
 
 <file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5062,16 +5290,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>428</v>
@@ -5081,7 +5309,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="55" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="K2" s="7">
         <v>44461.0</v>
@@ -5091,10 +5319,10 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -5112,16 +5340,16 @@
     </row>
     <row r="3">
       <c r="A3" s="44" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>263</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>428</v>
@@ -5130,10 +5358,10 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="8" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="K3" s="7">
         <v>44461.0</v>
@@ -5143,10 +5371,10 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -5164,16 +5392,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>428</v>
@@ -5183,7 +5411,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="55" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K4" s="7">
         <v>44461.0</v>
@@ -5193,10 +5421,10 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -5214,16 +5442,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>428</v>
@@ -5233,7 +5461,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="55" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K5" s="7">
         <v>44461.0</v>
@@ -5243,10 +5471,10 @@
         <v>11</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -5264,13 +5492,13 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="41" t="s">
@@ -5281,7 +5509,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="55" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="K6" s="7">
         <v>44461.0</v>
@@ -5293,10 +5521,10 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -5314,16 +5542,16 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>428</v>
@@ -5343,10 +5571,10 @@
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -5364,16 +5592,16 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>727</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>724</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>428</v>
@@ -5393,10 +5621,10 @@
         <v>11</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -5414,16 +5642,16 @@
     </row>
     <row r="9">
       <c r="A9" s="57" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>428</v>
@@ -5433,7 +5661,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="58" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="K9" s="7">
         <v>44461.0</v>
@@ -5443,10 +5671,10 @@
         <v>11</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -5464,16 +5692,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>428</v>
@@ -5483,7 +5711,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="55" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="K10" s="7">
         <v>44461.0</v>
@@ -5493,10 +5721,10 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -5617,16 +5845,16 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>428</v>
@@ -5644,7 +5872,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>136</v>
@@ -5665,16 +5893,16 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>744</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>428</v>
@@ -5692,7 +5920,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="34" t="s">
         <v>136</v>
@@ -5713,16 +5941,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>428</v>
@@ -5740,7 +5968,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>136</v>
@@ -5773,16 +6001,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -5800,7 +6028,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" s="34" t="s">
         <v>136</v>
@@ -5821,17 +6049,17 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -5846,7 +6074,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="34" t="s">
         <v>136</v>
@@ -5867,17 +6095,17 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -5892,7 +6120,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" s="34" t="s">
         <v>136</v>
@@ -5925,16 +6153,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>86</v>
@@ -5952,7 +6180,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>136</v>
@@ -5973,17 +6201,17 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -5998,7 +6226,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11" s="34" t="s">
         <v>136</v>
@@ -6019,17 +6247,17 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="8" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -6044,7 +6272,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O12" s="34" t="s">
         <v>136</v>
@@ -6065,17 +6293,17 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -6090,7 +6318,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" s="34" t="s">
         <v>136</v>
@@ -6122,16 +6350,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>86</v>
@@ -6149,7 +6377,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>136</v>
@@ -6170,17 +6398,17 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6195,7 +6423,7 @@
         <v>11</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>136</v>
@@ -6216,17 +6444,17 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6241,7 +6469,7 @@
         <v>11</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O17" s="34" t="s">
         <v>136</v>
@@ -6262,17 +6490,17 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="41" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -6287,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O18" s="32"/>
       <c r="P18" s="9"/>
@@ -6306,17 +6534,17 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -6331,7 +6559,7 @@
         <v>11</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O19" s="34" t="s">
         <v>136</v>
@@ -6362,16 +6590,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>86</v>
@@ -6389,7 +6617,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -6408,17 +6636,17 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -6433,7 +6661,7 @@
         <v>11</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -6452,17 +6680,17 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6477,7 +6705,7 @@
         <v>11</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -6506,16 +6734,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>86</v>
@@ -6533,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -6552,17 +6780,17 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6577,7 +6805,7 @@
         <v>11</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -6596,17 +6824,17 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -6621,7 +6849,7 @@
         <v>11</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -6708,13 +6936,13 @@
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
@@ -6746,13 +6974,13 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="60"/>
@@ -6784,13 +7012,13 @@
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="60"/>
@@ -6822,13 +7050,13 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -6860,13 +7088,13 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -6898,13 +7126,13 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -6936,13 +7164,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -6974,13 +7202,13 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7012,13 +7240,13 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -7050,13 +7278,13 @@
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="31"/>
@@ -7088,13 +7316,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -7126,13 +7354,13 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7164,13 +7392,13 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -7202,13 +7430,13 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7240,13 +7468,13 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -7278,13 +7506,13 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7316,13 +7544,13 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -10365,16 +10593,16 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>86</v>
@@ -10383,10 +10611,10 @@
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
       <c r="I2" s="47" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="K2" s="64">
         <v>45431.0</v>
@@ -10415,16 +10643,16 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>86</v>
@@ -10434,7 +10662,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="K3" s="7">
         <v>45431.0</v>
@@ -10463,16 +10691,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>854</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>86</v>
@@ -10482,7 +10710,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="K4" s="7">
         <v>45431.0</v>
@@ -10511,16 +10739,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>86</v>
@@ -10530,7 +10758,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="K5" s="7">
         <v>45431.0</v>
@@ -10559,16 +10787,16 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -10578,7 +10806,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="K6" s="7">
         <v>45431.0</v>
@@ -10619,16 +10847,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>86</v>
@@ -10638,7 +10866,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K8" s="7">
         <v>45431.0</v>
@@ -10648,7 +10876,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" s="34" t="s">
         <v>136</v>
@@ -10671,24 +10899,24 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K9" s="7">
         <v>45431.0</v>
@@ -10698,7 +10926,7 @@
         <v>11</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O9" s="34" t="s">
         <v>136</v>
@@ -10721,24 +10949,24 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K10" s="7">
         <v>45431.0</v>
@@ -10748,7 +10976,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>136</v>
@@ -10771,24 +10999,24 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K11" s="7">
         <v>45431.0</v>
@@ -10798,7 +11026,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11" s="34" t="s">
         <v>136</v>
@@ -10832,16 +11060,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>86</v>
@@ -10851,7 +11079,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K13" s="7">
         <v>45431.0</v>
@@ -10861,7 +11089,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" s="34" t="s">
         <v>136</v>
@@ -10884,24 +11112,24 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K14" s="7">
         <v>45431.0</v>
@@ -10911,7 +11139,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="34" t="s">
         <v>136</v>
@@ -10934,24 +11162,24 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="32" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="K15" s="7">
         <v>45431.0</v>
@@ -10980,24 +11208,24 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K16" s="7">
         <v>45431.0</v>
@@ -11026,24 +11254,24 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K17" s="7">
         <v>45431.0</v>
@@ -11072,24 +11300,24 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K18" s="7">
         <v>45431.0</v>
@@ -11121,16 +11349,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>86</v>
@@ -11140,7 +11368,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K20" s="7">
         <v>45431.0</v>
@@ -11169,24 +11397,24 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K21" s="7">
         <v>45431.0</v>
@@ -11215,26 +11443,26 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C22" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>909</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>906</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K22" s="7">
         <v>45431.0</v>
@@ -11263,26 +11491,26 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C23" s="41" t="s">
+        <v>916</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>910</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="K23" s="7">
         <v>45431.0</v>
@@ -11311,26 +11539,26 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="8" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="K24" s="7">
         <v>45431.0</v>
@@ -11359,24 +11587,24 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="32" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="K25" s="7">
         <v>45431.0</v>
@@ -11405,24 +11633,24 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K26" s="7">
         <v>45431.0</v>
@@ -11451,24 +11679,24 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K27" s="7">
         <v>45431.0</v>
@@ -11497,16 +11725,16 @@
     </row>
     <row r="29">
       <c r="A29" s="66" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>86</v>
@@ -11516,7 +11744,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
       <c r="J29" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K29" s="7">
         <v>45431.0</v>
@@ -11545,16 +11773,16 @@
     </row>
     <row r="30">
       <c r="A30" s="46" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E30" s="46" t="s">
         <v>86</v>
@@ -11564,7 +11792,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
       <c r="J30" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K30" s="7">
         <v>45431.0</v>
@@ -11593,16 +11821,16 @@
     </row>
     <row r="31">
       <c r="A31" s="46" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>86</v>
@@ -11612,7 +11840,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
       <c r="J31" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K31" s="7">
         <v>45431.0</v>
@@ -11641,16 +11869,16 @@
     </row>
     <row r="32">
       <c r="A32" s="46" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C32" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="D32" s="47" t="s">
         <v>940</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>937</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>86</v>
@@ -11660,7 +11888,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
       <c r="J32" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K32" s="7">
         <v>45431.0</v>
@@ -11689,16 +11917,16 @@
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E33" s="46" t="s">
         <v>86</v>
@@ -11708,7 +11936,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="46"/>
       <c r="J33" s="32" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K33" s="7">
         <v>45431.0</v>
@@ -11737,16 +11965,16 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>86</v>
@@ -11756,7 +11984,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="K35" s="7">
         <v>45431.0</v>
@@ -11785,13 +12013,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="8" t="s">
@@ -11831,16 +12059,16 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>459</v>
@@ -11850,7 +12078,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="8" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="K38" s="7">
         <v>45643.0</v>
@@ -11881,16 +12109,16 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>459</v>
@@ -11900,7 +12128,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="8" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="K39" s="7">
         <v>45643.0</v>
@@ -11931,16 +12159,16 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>459</v>
@@ -11950,7 +12178,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="8" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="K40" s="7">
         <v>45643.0</v>
@@ -11981,16 +12209,16 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>459</v>
@@ -12000,7 +12228,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="8" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="K41" s="7">
         <v>45643.0</v>
@@ -12031,16 +12259,16 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>459</v>
@@ -12050,7 +12278,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="8" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="K42" s="7">
         <v>45643.0</v>
@@ -12174,7 +12402,7 @@
     </row>
     <row r="2">
       <c r="A2" s="69" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -12208,17 +12436,17 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="74" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
@@ -12233,7 +12461,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="77"/>
       <c r="P3" s="76"/>
@@ -12254,19 +12482,19 @@
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C4" s="75" t="s">
+        <v>987</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>988</v>
+      </c>
+      <c r="E4" s="74" t="s">
         <v>984</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>985</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>981</v>
       </c>
       <c r="F4" s="76"/>
       <c r="G4" s="76"/>
@@ -12281,7 +12509,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" s="77"/>
       <c r="P4" s="76"/>
@@ -12302,19 +12530,19 @@
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C5" s="75" t="s">
+        <v>991</v>
+      </c>
+      <c r="D5" s="74" t="s">
         <v>988</v>
       </c>
-      <c r="D5" s="74" t="s">
-        <v>985</v>
-      </c>
       <c r="E5" s="74" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
@@ -12329,7 +12557,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" s="77"/>
       <c r="P5" s="76"/>
@@ -12350,19 +12578,19 @@
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="76"/>
@@ -12377,7 +12605,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" s="77"/>
       <c r="P6" s="76"/>
@@ -12403,13 +12631,13 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -12445,13 +12673,13 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -12487,7 +12715,7 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C10" s="41"/>
       <c r="J10" s="32"/>
@@ -12620,7 +12848,7 @@
     </row>
     <row r="2">
       <c r="A2" s="85" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -12654,16 +12882,16 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E3" s="86" t="s">
         <v>428</v>
@@ -12673,7 +12901,7 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="50" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="K3" s="87">
         <v>45424.0</v>
@@ -12704,16 +12932,16 @@
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B4" s="86" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D4" s="86" t="s">
         <v>1006</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>1003</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>428</v>
@@ -12723,7 +12951,7 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="50" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="K4" s="87">
         <v>45424.0</v>
@@ -12754,16 +12982,16 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E5" s="86" t="s">
         <v>428</v>
@@ -12773,7 +13001,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
       <c r="J5" s="50" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="K5" s="87">
         <v>45424.0</v>
@@ -12804,16 +13032,16 @@
     </row>
     <row r="6">
       <c r="A6" s="86" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>428</v>
@@ -12823,7 +13051,7 @@
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
       <c r="J6" s="50" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="K6" s="87">
         <v>45424.0</v>
@@ -12854,16 +13082,16 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>428</v>
@@ -12873,7 +13101,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="50" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="K7" s="87">
         <v>45424.0</v>
@@ -12904,16 +13132,16 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E8" s="86" t="s">
         <v>428</v>
@@ -12923,7 +13151,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="50" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="K8" s="87">
         <v>45424.0</v>
@@ -12954,16 +13182,16 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>428</v>
@@ -12973,7 +13201,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="50" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="K9" s="87">
         <v>45424.0</v>
@@ -13004,16 +13232,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>428</v>
@@ -13023,7 +13251,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="50" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="K10" s="87">
         <v>45424.0</v>
@@ -13054,16 +13282,16 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>428</v>
@@ -13073,7 +13301,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="50" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="K11" s="87">
         <v>45424.0</v>
@@ -13224,7 +13452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C2" s="41"/>
       <c r="J2" s="32"/>
@@ -13233,16 +13461,16 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>86</v>
@@ -13252,7 +13480,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K3" s="89">
         <v>45465.0</v>
@@ -13262,7 +13490,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="9"/>
@@ -13283,16 +13511,16 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>86</v>
@@ -13302,7 +13530,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K4" s="89">
         <v>45336.0</v>
@@ -13312,7 +13540,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O4" s="32"/>
       <c r="P4" s="9"/>
@@ -13333,16 +13561,16 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>1047</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>1044</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>86</v>
@@ -13352,7 +13580,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K5" s="89">
         <v>45336.0</v>
@@ -13362,7 +13590,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="9"/>
@@ -13383,16 +13611,16 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>86</v>
@@ -13402,7 +13630,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K6" s="89">
         <v>45336.0</v>
@@ -13412,7 +13640,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="9"/>
@@ -13438,23 +13666,23 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="K8" s="7"/>
       <c r="O8" s="32"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>86</v>
@@ -13464,7 +13692,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="K9" s="89">
         <v>45336.0</v>
@@ -13474,7 +13702,7 @@
         <v>11</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="9"/>
@@ -13495,16 +13723,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>86</v>
@@ -13514,7 +13742,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="K10" s="89">
         <v>45336.0</v>
@@ -13524,7 +13752,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -13545,16 +13773,16 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>1062</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>1059</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>86</v>
@@ -13564,7 +13792,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="8" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="K11" s="89">
         <v>45336.0</v>
@@ -13574,7 +13802,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -13598,16 +13826,16 @@
     </row>
     <row r="13">
       <c r="A13" s="90" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>86</v>
@@ -13617,7 +13845,7 @@
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
       <c r="J13" s="50" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="K13" s="87">
         <v>45643.0</v>
@@ -13627,7 +13855,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
@@ -13648,16 +13876,16 @@
     </row>
     <row r="14">
       <c r="A14" s="51" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>86</v>
@@ -13667,7 +13895,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
       <c r="J14" s="50" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="K14" s="87">
         <v>45643.0</v>
@@ -13677,7 +13905,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
@@ -13698,16 +13926,16 @@
     </row>
     <row r="15">
       <c r="A15" s="51" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>86</v>
@@ -13717,7 +13945,7 @@
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="50" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="K15" s="87">
         <v>45643.0</v>
@@ -13727,7 +13955,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
@@ -13748,16 +13976,16 @@
     </row>
     <row r="16">
       <c r="A16" s="92" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>86</v>
@@ -13767,7 +13995,7 @@
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="50" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="K16" s="87">
         <v>45643.0</v>
@@ -13777,7 +14005,7 @@
         <v>11</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
@@ -13798,16 +14026,16 @@
     </row>
     <row r="17">
       <c r="A17" s="92" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>86</v>
@@ -13817,7 +14045,7 @@
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
       <c r="J17" s="50" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="K17" s="87">
         <v>45643.0</v>
@@ -13827,7 +14055,7 @@
         <v>11</v>
       </c>
       <c r="N17" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
@@ -13848,16 +14076,16 @@
     </row>
     <row r="18">
       <c r="A18" s="51" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>86</v>
@@ -13867,7 +14095,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
       <c r="J18" s="50" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="K18" s="87">
         <v>45643.0</v>
@@ -13877,7 +14105,7 @@
         <v>11</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
@@ -13898,16 +14126,16 @@
     </row>
     <row r="19">
       <c r="A19" s="51" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>86</v>
@@ -13917,7 +14145,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
       <c r="J19" s="50" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="K19" s="87">
         <v>45643.0</v>
@@ -13927,7 +14155,7 @@
         <v>11</v>
       </c>
       <c r="N19" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O19" s="51"/>
       <c r="P19" s="51"/>
@@ -14000,13 +14228,13 @@
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
@@ -14038,28 +14266,28 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K2" s="89">
         <v>45336.0</v>
@@ -14069,7 +14297,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -14088,28 +14316,28 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B3" s="60" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="E3" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1103</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1100</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K3" s="89">
         <v>45336.0</v>
@@ -14119,7 +14347,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -14138,28 +14366,28 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K4" s="89">
         <v>45336.0</v>
@@ -14169,7 +14397,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -14188,28 +14416,28 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K5" s="89">
         <v>45336.0</v>
@@ -14219,7 +14447,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="9"/>
@@ -14238,28 +14466,28 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C6" s="38" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>1110</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K6" s="89">
         <v>45336.0</v>
@@ -14269,7 +14497,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -14288,28 +14516,28 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K7" s="89">
         <v>45336.0</v>
@@ -14319,7 +14547,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -17349,6 +17577,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="85" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="98">
+        <v>45827.0</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="99" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="98">
+        <v>45827.0</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L3" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="99" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="98">
+        <v>45827.0</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -17422,393 +17866,260 @@
       <c r="C2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
       <c r="J2" s="17"/>
       <c r="K2" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7">
+        <v>45860.0</v>
+      </c>
       <c r="M2" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
       <c r="K3" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7">
+        <v>45861.0</v>
+      </c>
       <c r="M3" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="K4" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <v>45862.0</v>
+      </c>
       <c r="M4" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="E5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+        <v>99</v>
+      </c>
       <c r="K5" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>45863.0</v>
+      </c>
       <c r="M5" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
       <c r="K6" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7">
+        <v>45864.0</v>
+      </c>
       <c r="M6" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
       <c r="K7" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>45865.0</v>
+      </c>
       <c r="M7" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
       <c r="K8" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <v>45866.0</v>
+      </c>
       <c r="M8" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="8" t="s">
         <v>86</v>
       </c>
       <c r="K9" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7">
+        <v>45867.0</v>
+      </c>
       <c r="M9" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
       <c r="K10" s="7">
         <v>45643.0</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <v>45868.0</v>
+      </c>
       <c r="M10" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E8 F2:F10 G2:J8 K2:N10 O2:AB8 A10:E10 G10:J10 O10:AB10">
+  <conditionalFormatting sqref="A2:D8 E2:F10 G2:J8 K2:N10 O2:AB8 A10:D10 G10:J10 O10:AB10">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
@@ -17818,7 +18129,7 @@
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:E8 F2:F10 G2:J8 K2:N10 O2:O8 A10:E10 G10:J10 O10">
+  <conditionalFormatting sqref="A2:D8 E2:F10 G2:J8 K2:N10 O2:O8 A10:D10 G10:J10 O10">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
@@ -17892,26 +18203,26 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2" s="7">
         <v>45643.0</v>
@@ -17921,7 +18232,7 @@
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -17940,25 +18251,25 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K3" s="7">
         <v>44811.0</v>
@@ -17967,10 +18278,10 @@
         <v>45643.0</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="8"/>
     </row>
@@ -17988,7 +18299,7 @@
         <v>133</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -17997,7 +18308,7 @@
         <v>134</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7">
         <v>43565.0</v>
@@ -18042,7 +18353,7 @@
         <v>140</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -18051,7 +18362,7 @@
         <v>141</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7">
         <v>44734.0</v>
@@ -18096,7 +18407,7 @@
         <v>145</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -18148,7 +18459,7 @@
         <v>152</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -18200,7 +18511,7 @@
         <v>157</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -18252,7 +18563,7 @@
         <v>161</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -18304,7 +18615,7 @@
         <v>166</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -18356,7 +18667,7 @@
         <v>171</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -18408,7 +18719,7 @@
         <v>175</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -18460,7 +18771,7 @@
         <v>179</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -18512,7 +18823,7 @@
         <v>184</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -18531,7 +18842,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="18" t="s">
         <v>148</v>
@@ -18564,7 +18875,7 @@
         <v>188</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -18583,7 +18894,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O15" s="18" t="s">
         <v>148</v>
@@ -18616,7 +18927,7 @@
         <v>192</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -18668,7 +18979,7 @@
         <v>197</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -18720,7 +19031,7 @@
         <v>201</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -18927,7 +19238,7 @@
         <v>208</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>209</v>
@@ -18939,7 +19250,7 @@
         <v>45643.0</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>210</v>
@@ -18960,7 +19271,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -19010,7 +19321,7 @@
         <v>166</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -19062,7 +19373,7 @@
         <v>192</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -19112,7 +19423,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -19160,7 +19471,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -19210,7 +19521,7 @@
         <v>234</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -19260,7 +19571,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -19310,7 +19621,7 @@
         <v>234</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -19362,7 +19673,7 @@
         <v>234</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -19509,7 +19820,7 @@
         <v>251</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -19563,7 +19874,7 @@
         <v>251</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -19617,7 +19928,7 @@
         <v>264</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -19671,7 +19982,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -19725,7 +20036,7 @@
         <v>276</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -19779,7 +20090,7 @@
         <v>251</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -19833,7 +20144,7 @@
         <v>251</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -19887,7 +20198,7 @@
         <v>251</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -19941,7 +20252,7 @@
         <v>251</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -19995,7 +20306,7 @@
         <v>304</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -20013,7 +20324,7 @@
         <v>45643.0</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N11" s="20" t="s">
         <v>153</v>
@@ -20049,7 +20360,7 @@
         <v>310</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -20103,7 +20414,7 @@
         <v>310</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -20157,7 +20468,7 @@
         <v>321</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -20211,7 +20522,7 @@
         <v>251</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -20265,7 +20576,7 @@
         <v>332</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -20319,7 +20630,7 @@
         <v>251</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -20373,7 +20684,7 @@
         <v>344</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -20427,7 +20738,7 @@
         <v>351</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>253</v>
@@ -20439,7 +20750,7 @@
         <v>11</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -21117,7 +21428,7 @@
         <v>45643.0</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N13" s="29" t="s">
         <v>359</v>
@@ -21173,7 +21484,7 @@
         <v>45643.0</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N14" s="29" t="s">
         <v>359</v>
@@ -21229,7 +21540,7 @@
         <v>45643.0</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N15" s="29" t="s">
         <v>359</v>
@@ -21285,7 +21596,7 @@
         <v>45643.0</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="N16" s="29" t="s">
         <v>359</v>
@@ -26212,7 +26523,7 @@
         <v>11</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -26266,7 +26577,7 @@
         <v>11</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -26320,7 +26631,7 @@
         <v>11</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -26374,7 +26685,7 @@
         <v>11</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
@@ -26428,7 +26739,7 @@
         <v>11</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -26482,7 +26793,7 @@
         <v>11</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -26536,7 +26847,7 @@
         <v>11</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -26920,9 +27231,11 @@
       <c r="L2" s="33">
         <v>45627.0</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N2" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -26973,9 +27286,11 @@
       <c r="L3" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N3" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
@@ -27026,9 +27341,11 @@
       <c r="L4" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N4" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
@@ -27079,9 +27396,11 @@
       <c r="L5" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M5" s="33"/>
+      <c r="M5" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N5" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -27132,9 +27451,11 @@
       <c r="L6" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M6" s="33"/>
+      <c r="M6" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N6" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -27180,14 +27501,16 @@
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
       <c r="K7" s="34" t="s">
-        <v>380</v>
+        <v>649</v>
       </c>
       <c r="L7" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N7" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -27211,13 +27534,13 @@
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>636</v>
@@ -27233,14 +27556,16 @@
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="34" t="s">
-        <v>384</v>
+        <v>653</v>
       </c>
       <c r="L8" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N8" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -27264,13 +27589,13 @@
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>636</v>
@@ -27291,9 +27616,11 @@
       <c r="L9" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="M9" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N9" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -27317,13 +27644,13 @@
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>636</v>
@@ -27339,14 +27666,16 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="34" t="s">
-        <v>388</v>
+        <v>660</v>
       </c>
       <c r="L10" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N10" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -27370,13 +27699,13 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>636</v>
@@ -27397,9 +27726,11 @@
       <c r="L11" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N11" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -27423,13 +27754,13 @@
     </row>
     <row r="12">
       <c r="A12" s="29" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>636</v>
@@ -27450,9 +27781,11 @@
       <c r="L12" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N12" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -27476,13 +27809,13 @@
     </row>
     <row r="13">
       <c r="A13" s="29" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>636</v>
@@ -27503,9 +27836,11 @@
       <c r="L13" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N13" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
@@ -27529,13 +27864,13 @@
     </row>
     <row r="14">
       <c r="A14" s="29" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>636</v>
@@ -27551,14 +27886,16 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="34" t="s">
-        <v>414</v>
+        <v>673</v>
       </c>
       <c r="L14" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N14" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -27582,365 +27919,220 @@
     </row>
     <row r="15">
       <c r="C15" s="39"/>
+      <c r="E15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16">
       <c r="A16" s="54" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F16" s="9"/>
       <c r="G16" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
       <c r="J16" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="K16" s="9"/>
+        <v>678</v>
+      </c>
       <c r="L16" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="54" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>673</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F17" s="9"/>
       <c r="G17" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
       <c r="L17" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="M17" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N17" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O17" s="41"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="54" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F18" s="9"/>
       <c r="G18" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
       <c r="L18" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M18" s="9"/>
+      <c r="M18" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N18" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O18" s="41"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="54" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F19" s="9"/>
       <c r="G19" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
       <c r="L19" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N19" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O19" s="41"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="54" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F20" s="9"/>
       <c r="G20" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
       <c r="L20" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N20" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O20" s="41"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" s="54" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F21" s="9"/>
       <c r="G21" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
       <c r="L21" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N21" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O21" s="41"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="54" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="F22" s="9"/>
       <c r="G22" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
       <c r="L22" s="33">
         <v>45586.0</v>
       </c>
-      <c r="M22" s="9"/>
+      <c r="M22" s="33">
+        <v>45886.0</v>
+      </c>
       <c r="N22" s="29" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="O22" s="41"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
     </row>
     <row r="23">
       <c r="B23" s="40"/>
@@ -30979,40 +31171,40 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>11</v>
@@ -31038,37 +31230,37 @@
         <v>130</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>11</v>
@@ -31094,37 +31286,37 @@
         <v>137</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>11</v>
@@ -31150,37 +31342,37 @@
         <v>142</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>11</v>
@@ -31206,37 +31398,37 @@
         <v>149</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>11</v>
@@ -31262,37 +31454,37 @@
         <v>154</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>11</v>
@@ -31318,37 +31510,37 @@
         <v>158</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>11</v>
@@ -31374,37 +31566,37 @@
         <v>163</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>11</v>
@@ -31430,37 +31622,37 @@
         <v>168</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>11</v>
@@ -31483,40 +31675,40 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>695</v>
+        <v>172</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>11</v>
@@ -31542,37 +31734,37 @@
         <v>176</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>11</v>
@@ -31598,37 +31790,37 @@
         <v>181</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>11</v>
@@ -31654,37 +31846,37 @@
         <v>185</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>11</v>
@@ -31710,37 +31902,37 @@
         <v>189</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>11</v>
@@ -31766,37 +31958,37 @@
         <v>194</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>11</v>
@@ -31822,37 +32014,37 @@
         <v>198</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>11</v>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="GDPR_Mapping" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="GDPR_MiscConcepts" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="GDPR_LegalBasis" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="GDPR_LegalBasis_SpecialCategory" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="GDPR_LegalBasis_DataTransfer" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="GDPR_LegalRights" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="GDPR_LegalRights_Justifications" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="GDPR_LegalRights_Impacts" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="GDPR_LegalBasis_Rights_Mapping" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="GDPR_DataTransfers" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="GDPR_DPIA" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="GDPR_DPIA_properties" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="GDPR_DataBreach" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="GDPR_compliance" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="GDPR_principles" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="GDPR_entities" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="GDPR_entities_properties" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="GDPR_purpose_compatibility" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="GDPR_Mapping" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="GDPR_MiscConcepts" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="GDPR_LegalBasis" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="GDPR_LegalBasis_SpecialCategory" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="GDPR_LegalBasis_DataTransfer" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="GDPR_LegalRights" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="GDPR_LegalRights_Justifications" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="GDPR_LegalRights_Impacts" sheetId="8" r:id="rId12"/>
+    <sheet state="visible" name="GDPR_LegalBasis_Rights_Mapping" sheetId="9" r:id="rId13"/>
+    <sheet state="visible" name="GDPR_DataTransfers" sheetId="10" r:id="rId14"/>
+    <sheet state="visible" name="GDPR_DPIA" sheetId="11" r:id="rId15"/>
+    <sheet state="visible" name="GDPR_DPIA_properties" sheetId="12" r:id="rId16"/>
+    <sheet state="visible" name="GDPR_DataBreach" sheetId="13" r:id="rId17"/>
+    <sheet state="visible" name="GDPR_compliance" sheetId="14" r:id="rId18"/>
+    <sheet state="visible" name="GDPR_principles" sheetId="15" r:id="rId19"/>
+    <sheet state="visible" name="GDPR_entities" sheetId="16" r:id="rId20"/>
+    <sheet state="visible" name="GDPR_entities_properties" sheetId="17" r:id="rId21"/>
+    <sheet state="visible" name="GDPR_purpose_compatibility" sheetId="18" r:id="rId22"/>
+    <sheet state="visible" name="GDPR_proportionality" sheetId="19" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="1169">
   <si>
     <t>Concept</t>
   </si>
@@ -372,7 +373,7 @@
     <t>Cross Border Processing</t>
   </si>
   <si>
-    <t>‘Cross-Border Processing’ means either: (a) processing of personal data which takes place in the context of the activities of establishments in more than one Member State of a controller or processor in the Union where the controller or processor is established in more than one Member State; or (b)  processing of personal data which takes place in the context of the activities of a single establishment of a controller or processor in the Union but which substantially affects or is likely to substantially affect data subjects in more than one Member State</t>
+    <t>‘Cross-Border Processing’ means either: (a) processing of personal data which takes place in the context of the activities of establishments in more than one Member State of a controller or processor in the Union where the controller or processor is established in more than one Member State; or (b) processing of personal data which takes place in the context of the activities of a single establishment of a controller or processor in the Union but which substantially affects or is likely to substantially affect data subjects in more than one Member State</t>
   </si>
   <si>
     <t>InformationSocietyService</t>
@@ -3614,13 +3615,13 @@
     <t>Purpose Compatibility</t>
   </si>
   <si>
-    <t>An assessment of the compatbility with a specific Purpose of processing personal data as defined and interpreted under the GDPR</t>
+    <t>Status representing the compatibility of the new purpose with the principle of purpose limitation according to the GDPR</t>
   </si>
   <si>
     <t>dpv:ReuseCompatibility</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Hernandez</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Hernandez, Stratis Koulierakis</t>
   </si>
   <si>
     <t>PurposeCompatible</t>
@@ -3629,13 +3630,13 @@
     <t>Purpose Compatible</t>
   </si>
   <si>
-    <t>An assessment that the specified use or purpose is compatible with the Purpose of processing personal data as defined and interpreted under the GDPR</t>
-  </si>
-  <si>
-    <t>dpv:PrimaryUse</t>
-  </si>
-  <si>
-    <t>eu-gdpr:PurposeCompatibility</t>
+    <t>Status representing the new purpose is compatible with the principle of purpose limitation according to the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:PrimaryUse,eu-gdpr:PurposeCompatibility</t>
+  </si>
+  <si>
+    <t>A compatible purpose can allow for continued use of the same legal basis without any changes</t>
   </si>
   <si>
     <t>PurposeIncompatible</t>
@@ -3644,10 +3645,117 @@
     <t>Purpose Incompatible</t>
   </si>
   <si>
-    <t>An assessment that the specified use or purpose is incompatible with the Purpose of processing personal data as defined and interpreted under the GDPR</t>
-  </si>
-  <si>
-    <t>dpv:SecondaryUse</t>
+    <t>Status representing the new purpose is incompatible with the principle of purpose limitation according to the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:SecondaryUse,eu-gdpr:PurposeCompatibility</t>
+  </si>
+  <si>
+    <t>An incompatible purpose means the process cannot be continued without a new valid legal basis</t>
+  </si>
+  <si>
+    <t>PurposeCompatibilityAssessment</t>
+  </si>
+  <si>
+    <t>Purpose Compatibility Assessment</t>
+  </si>
+  <si>
+    <t>An assessment for evaluating the compatibility of the new purpose with the principle of purpose limitation according to the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:Assessment</t>
+  </si>
+  <si>
+    <t>ProportionalityAssessment</t>
+  </si>
+  <si>
+    <t>Proportionality Assessment</t>
+  </si>
+  <si>
+    <t>Proportionality is a general principle of EU law, which when applied for the GDPR requires striking a balance between the processing of personal data and the resulting impacts on rights. More simply, the processing should not result in a disproportionate impact on rights</t>
+  </si>
+  <si>
+    <t>dpv:ImpactAssessment</t>
+  </si>
+  <si>
+    <t>The assessment of proportionality requires an assessment of suitability (represented by `eu-gdpr:SuitabilityAssessment`), necessity (represented by `eu-gdpr:NecessityAssessment`), and a balancing test (represented by `eu-gdpr:BalancingTest`). The outcome of the proportionality assessment is represented as an instance of `eu-gdpr:ProportionalityStatus`</t>
+  </si>
+  <si>
+    <t>Stratis Koulierakis, Georg P. Krog, Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>SuitabilityAssessment</t>
+  </si>
+  <si>
+    <t>Suitability Assessment</t>
+  </si>
+  <si>
+    <t>An assessment of whether the processing of personal data is suitable to achieve the stated aims</t>
+  </si>
+  <si>
+    <t>dpv:Assessment,eu-gdpr:ProportionalityAssessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While Suitability Assessment can be carried out on its own, it is an integral part of the Proportionality Assessment process
+</t>
+  </si>
+  <si>
+    <t>Stratis Koulierakis</t>
+  </si>
+  <si>
+    <t>NecessityAssessment</t>
+  </si>
+  <si>
+    <t>Necessity Assessment</t>
+  </si>
+  <si>
+    <t>An assessment of whether the processing of personal data is necessary to achieve the stated aims, where necessary indicates a lack of other means which could have been used instead</t>
+  </si>
+  <si>
+    <t>While Necessity can be assessed on its own, it is an integral part of the Proportionality Assessment process</t>
+  </si>
+  <si>
+    <t>BalancingTest</t>
+  </si>
+  <si>
+    <t>Balancing Test</t>
+  </si>
+  <si>
+    <t>An assessment of whether the individual's interests override the interests of the controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While Balancing Test can be conducted on its own, it is an integral part of the Proportionality Assessment process
+</t>
+  </si>
+  <si>
+    <t>ProportionalityStatus</t>
+  </si>
+  <si>
+    <t>Proportionality Status</t>
+  </si>
+  <si>
+    <t>Status indicating whether the specific activity or context is proportionate</t>
+  </si>
+  <si>
+    <t>dpv:Status</t>
+  </si>
+  <si>
+    <t>Proportionate</t>
+  </si>
+  <si>
+    <t>Status representing the activity or context is proportionate</t>
+  </si>
+  <si>
+    <t>eu-gdpr:ProportionalityStatus</t>
+  </si>
+  <si>
+    <t>Disproportionate</t>
+  </si>
+  <si>
+    <t>Status representing the activity or context is disproportionate i.e. it is not proportionate</t>
+  </si>
+  <si>
+    <t>A Disproportinate status indicates that the process should not be continued as it risks impacting the rights of the data subject in an unacceptable manner</t>
   </si>
 </sst>
 </file>
@@ -3891,7 +3999,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4173,23 +4281,47 @@
     <xf borderId="0" fillId="2" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4288,6 +4420,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -4318,6 +4454,10 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17587,6 +17727,674 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="2" width="17.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="99" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="E2" s="100" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102">
+        <v>45940.0</v>
+      </c>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M2" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="104" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="100" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J3" s="102">
+        <v>45940.0</v>
+      </c>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M3" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="104" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G4" s="101"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="100" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J4" s="102">
+        <v>45940.0</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M4" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="103" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="102">
+        <v>45940.0</v>
+      </c>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M5" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="107"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="107"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="107"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="2" max="2" width="17.25"/>
   </cols>
   <sheetData>
@@ -17627,51 +18435,55 @@
       <c r="L1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
     </row>
     <row r="2">
-      <c r="A2" s="85" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>1121</v>
+      <c r="A2" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1140</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E2" s="51"/>
+        <v>1141</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>428</v>
+      </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="98">
-        <v>45827.0</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>1124</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>204</v>
+      <c r="I2" s="50" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J2" s="108">
+        <v>45940.0</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -17693,33 +18505,35 @@
       <c r="AD2" s="51"/>
     </row>
     <row r="3">
-      <c r="A3" s="99" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C3" s="100" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>1128</v>
+      <c r="A3" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>1148</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>1129</v>
+        <v>428</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="98">
-        <v>45827.0</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>1124</v>
-      </c>
-      <c r="L3" s="90" t="s">
-        <v>204</v>
+      <c r="H3" s="109"/>
+      <c r="I3" s="50" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J3" s="108">
+        <v>46059.0</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -17741,33 +18555,35 @@
       <c r="AD3" s="51"/>
     </row>
     <row r="4">
-      <c r="A4" s="99" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C4" s="100" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>1133</v>
+      <c r="A4" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>1148</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>1129</v>
+        <v>428</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="98">
-        <v>45827.0</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>1124</v>
-      </c>
-      <c r="L4" s="90" t="s">
-        <v>204</v>
+      <c r="H4" s="109"/>
+      <c r="I4" s="50" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J4" s="108">
+        <v>45940.0</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="M4" s="51"/>
       <c r="N4" s="51"/>
@@ -17787,6 +18603,151 @@
       <c r="AB4" s="51"/>
       <c r="AC4" s="51"/>
       <c r="AD4" s="51"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="50" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J5" s="108">
+        <v>45940.0</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="50" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="108">
+        <v>45940.0</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J7" s="108">
+        <v>45940.0</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J8" s="108">
+        <v>45940.0</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -3621,7 +3621,7 @@
     <t>dpv:ReuseCompatibility</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Hernandez, Stratis Koulierakis</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Paul Ryan, Arthit Suriyawongkul, Julio Hernandez, Efstratios Koulierakis</t>
   </si>
   <si>
     <t>PurposeCompatible</t>
@@ -3681,7 +3681,7 @@
     <t>The assessment of proportionality requires an assessment of suitability (represented by `eu-gdpr:SuitabilityAssessment`), necessity (represented by `eu-gdpr:NecessityAssessment`), and a balancing test (represented by `eu-gdpr:BalancingTest`). The outcome of the proportionality assessment is represented as an instance of `eu-gdpr:ProportionalityStatus`</t>
   </si>
   <si>
-    <t>Stratis Koulierakis, Georg P. Krog, Harshvardhan J. Pandit</t>
+    <t>Efstratios Koulierakis, Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>SuitabilityAssessment</t>
@@ -3700,7 +3700,7 @@
 </t>
   </si>
   <si>
-    <t>Stratis Koulierakis</t>
+    <t>Efstratios Koulierakis</t>
   </si>
   <si>
     <t>NecessityAssessment</t>
